--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343C253-6A12-4C55-A8C6-A1EA23F67B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106ADB7B-E85A-42A0-B046-A8390B9DA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="3" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="17">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -63,9 +85,6 @@
     <t>15x1 double</t>
   </si>
   <si>
-    <t>'alpha'</t>
-  </si>
-  <si>
     <t>'beta'</t>
   </si>
   <si>
@@ -73,6 +92,24 @@
   </si>
   <si>
     <t>'gamma'</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Rho 0.2</t>
+  </si>
+  <si>
+    <t>'alpha'</t>
+  </si>
+  <si>
+    <t>No hubo convergencia</t>
+  </si>
+  <si>
+    <t>Rho 0.4</t>
   </si>
 </sst>
 </file>
@@ -88,12 +125,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255314A8-3D59-4682-A128-1F9225A027EB}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,84 +501,234 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>429.55490589999999</v>
+        <v>627.45008770000004</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>244.6010584</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="G2">
+        <v>593.46778559999996</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="O2">
+        <v>627.45008770000004</v>
+      </c>
+      <c r="P2">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>293.3664407</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>472.24252890000002</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <v>293.3664407</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>203.66094419999999</v>
+        <v>465.04929199999998</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>356.08958460000002</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>465.04929199999998</v>
+      </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>229.64900230000001</v>
+        <v>386.252208</v>
       </c>
       <c r="B5">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <v>279.09544460000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O5">
+        <v>386.252208</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>185.93383040000001</v>
+        <v>437.18572820000003</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -534,72 +736,3044 @@
       <c r="E6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>281.60598060000001</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
+        <v>437.18572820000003</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>230.78443720000001</v>
+        <v>349.04331810000002</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>308.87143179999998</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>349.04331810000002</v>
+      </c>
+      <c r="P7">
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>222.59208799999999</v>
+        <v>248.85213709999999</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>221.5244835</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>0.7</v>
+      </c>
+      <c r="O8">
+        <v>248.85213709999999</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>135.75741450000001</v>
+        <v>230.90890479999999</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>213.34179829999999</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>0.8</v>
+      </c>
+      <c r="O9">
+        <v>230.90890479999999</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>222.37267779999999</v>
+        <v>210.2917324</v>
       </c>
       <c r="B10">
-        <v>5.3333333333333304</v>
+        <v>24</v>
       </c>
       <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <v>255.67904920000001</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="O10">
+        <v>210.2917324</v>
+      </c>
+      <c r="P10">
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>593.46778559999996</v>
+      </c>
+      <c r="P11">
+        <v>24</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>472.24252890000002</v>
+      </c>
+      <c r="P12">
+        <v>24</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>356.08958460000002</v>
+      </c>
+      <c r="P13">
+        <v>24</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>729.35271030000001</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>584.14033300000006</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="O14">
+        <v>279.09544460000001</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>390.4339372</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>386.37101689999997</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+      <c r="O15">
+        <v>281.60598060000001</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>358.91398420000002</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="G16">
+        <v>424.0176846</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+      <c r="O16">
+        <v>308.87143179999998</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>565.925614</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>300.01473299999998</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>221.5244835</v>
+      </c>
+      <c r="P17">
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>253.58291320000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>275.042641</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>213.34179829999999</v>
+      </c>
+      <c r="P18">
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>295.60703319999999</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>252.0056854</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="I19">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="O19">
+        <v>255.67904920000001</v>
+      </c>
+      <c r="P19">
+        <v>24</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>265.34572220000001</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="G20">
+        <v>329.83690510000002</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="O20">
+        <v>729.35271030000001</v>
+      </c>
+      <c r="P20">
+        <v>24</v>
+      </c>
+      <c r="Q20">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>297.92805499999997</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0.8</v>
+      </c>
+      <c r="G21">
+        <v>238.27809479999999</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="O21">
+        <v>390.4339372</v>
+      </c>
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>196.1703445</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="G22">
+        <v>192.89664400000001</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>0.9</v>
+      </c>
+      <c r="O22">
+        <v>358.91398420000002</v>
+      </c>
+      <c r="P22">
+        <v>24</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>565.925614</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>253.58291320000001</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>295.60703319999999</v>
+      </c>
+      <c r="P25">
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>650.66334370000004</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>936.27543690000005</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="O26">
+        <v>265.34572220000001</v>
+      </c>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>311.72954390000001</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>602.39507100000003</v>
+      </c>
+      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O27">
+        <v>297.92805499999997</v>
+      </c>
+      <c r="P27">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>292.54556969999999</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0.3</v>
+      </c>
+      <c r="G28">
+        <v>322.7460092</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>0.3</v>
+      </c>
+      <c r="O28">
+        <v>196.1703445</v>
+      </c>
+      <c r="P28">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>245.3574429</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="G29">
+        <v>247.05035810000001</v>
+      </c>
+      <c r="H29">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>0.4</v>
+      </c>
+      <c r="O29">
+        <v>584.14033300000006</v>
+      </c>
+      <c r="P29">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>507.40110179999999</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>291.36100759999999</v>
+      </c>
+      <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>386.37101689999997</v>
+      </c>
+      <c r="P30">
+        <v>24</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>257.13083230000001</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>328.54391140000001</v>
+      </c>
+      <c r="H31">
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="O31">
+        <v>424.0176846</v>
+      </c>
+      <c r="P31">
+        <v>24</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>266.5192012</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0.7</v>
+      </c>
+      <c r="G32">
+        <v>226.69936390000001</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>0.7</v>
+      </c>
+      <c r="O32">
+        <v>300.01473299999998</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>294.60299179999998</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G33">
+        <v>223.18290010000001</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="O33">
+        <v>275.042641</v>
+      </c>
+      <c r="P33">
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>302.91986409999998</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0.9</v>
+      </c>
+      <c r="G34">
+        <v>292.90414019999997</v>
+      </c>
+      <c r="H34">
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>0.9</v>
+      </c>
+      <c r="O34">
+        <v>252.0056854</v>
+      </c>
+      <c r="P34">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>329.83690510000002</v>
+      </c>
+      <c r="P35">
+        <v>22</v>
+      </c>
+      <c r="Q35">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>238.27809479999999</v>
+      </c>
+      <c r="P36">
+        <v>24</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>192.89664400000001</v>
+      </c>
+      <c r="P37">
+        <v>24</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>613.80528649999997</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="G38">
+        <v>780.05161859999998</v>
+      </c>
+      <c r="H38">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+      <c r="O38">
+        <v>650.66334370000004</v>
+      </c>
+      <c r="P38">
+        <v>20</v>
+      </c>
+      <c r="Q38">
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>612.41905840000004</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G39">
+        <v>431.96832389999997</v>
+      </c>
+      <c r="H39">
+        <v>24</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>0.2</v>
+      </c>
+      <c r="O39">
+        <v>311.72954390000001</v>
+      </c>
+      <c r="P39">
+        <v>24</v>
+      </c>
+      <c r="Q39">
+        <v>11</v>
+      </c>
+      <c r="R39" t="s">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>327.8676802</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>411.69831310000001</v>
+      </c>
+      <c r="H40" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O40">
+        <v>292.54556969999999</v>
+      </c>
+      <c r="P40">
+        <v>24</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>317.26276030000002</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="G41">
+        <v>429.84226919999998</v>
+      </c>
+      <c r="H41">
+        <v>24</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>0.4</v>
+      </c>
+      <c r="O41">
+        <v>245.3574429</v>
+      </c>
+      <c r="P41">
+        <v>24</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>244.6910742</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>363.05305509999999</v>
+      </c>
+      <c r="H42">
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="O42">
+        <v>507.40110179999999</v>
+      </c>
+      <c r="P42">
+        <v>24</v>
+      </c>
+      <c r="Q42">
+        <v>22</v>
+      </c>
+      <c r="R42" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>291.26918439999997</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0.6</v>
+      </c>
+      <c r="G43">
+        <v>440.33822750000002</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>0.6</v>
+      </c>
+      <c r="O43">
+        <v>257.13083230000001</v>
+      </c>
+      <c r="P43">
+        <v>24</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>251.0481355</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.7</v>
+      </c>
+      <c r="G44">
+        <v>247.34598940000001</v>
+      </c>
+      <c r="H44">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>0.7</v>
+      </c>
+      <c r="O44">
+        <v>266.5192012</v>
+      </c>
+      <c r="P44">
+        <v>24</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>250.27690749999999</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+      <c r="G45">
+        <v>316.182501</v>
+      </c>
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>0.8</v>
+      </c>
+      <c r="O45">
+        <v>294.60299179999998</v>
+      </c>
+      <c r="P45">
+        <v>20</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>301.17710299999999</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0.9</v>
+      </c>
+      <c r="G46">
+        <v>272.10998669999998</v>
+      </c>
+      <c r="H46">
+        <v>24</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>0.9</v>
+      </c>
+      <c r="O46">
+        <v>302.91986409999998</v>
+      </c>
+      <c r="P46">
+        <v>24</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="R46" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>936.27543690000005</v>
+      </c>
+      <c r="P47">
+        <v>24</v>
+      </c>
+      <c r="Q47">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>602.39507100000003</v>
+      </c>
+      <c r="P48">
+        <v>20</v>
+      </c>
+      <c r="Q48">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>322.7460092</v>
+      </c>
+      <c r="P49">
+        <v>24</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>776.69562689999998</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
+        <v>686.53352770000004</v>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>0.1</v>
+      </c>
+      <c r="O50">
+        <v>247.05035810000001</v>
+      </c>
+      <c r="P50">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>447.20538290000002</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+      <c r="G51">
+        <v>508.22556680000002</v>
+      </c>
+      <c r="H51">
+        <v>24</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>0.2</v>
+      </c>
+      <c r="O51">
+        <v>291.36100759999999</v>
+      </c>
+      <c r="P51">
+        <v>24</v>
+      </c>
+      <c r="Q51">
+        <v>9</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>481.19786319999997</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>0.3</v>
+      </c>
+      <c r="G52">
+        <v>366.29668420000002</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>0.3</v>
+      </c>
+      <c r="O52">
+        <v>328.54391140000001</v>
+      </c>
+      <c r="P52">
+        <v>24</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>276.2595</v>
+      </c>
+      <c r="B53" s="2">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G53">
+        <v>426.03207170000002</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0.4</v>
+      </c>
+      <c r="O53">
+        <v>226.69936390000001</v>
+      </c>
+      <c r="P53">
+        <v>24</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>423.46235359999997</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <v>256.13497619999998</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>0.5</v>
+      </c>
+      <c r="O54">
+        <v>223.18290010000001</v>
+      </c>
+      <c r="P54">
+        <v>24</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>215.6882177</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.6</v>
+      </c>
+      <c r="G55">
+        <v>578.94726830000002</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>0.6</v>
+      </c>
+      <c r="O55">
+        <v>292.90414019999997</v>
+      </c>
+      <c r="P55">
+        <v>24</v>
+      </c>
+      <c r="Q55">
+        <v>9</v>
+      </c>
+      <c r="R55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>229.2705388</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0.7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>230.3804557</v>
+      </c>
+      <c r="H56" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O56">
+        <v>613.80528649999997</v>
+      </c>
+      <c r="P56">
+        <v>20</v>
+      </c>
+      <c r="Q56">
+        <v>28</v>
+      </c>
+      <c r="R56" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>241.57853069999999</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>0.8</v>
+      </c>
+      <c r="G57">
+        <v>341.36414079999997</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>0.8</v>
+      </c>
+      <c r="O57">
+        <v>612.41905840000004</v>
+      </c>
+      <c r="P57">
+        <v>20</v>
+      </c>
+      <c r="Q57">
+        <v>23</v>
+      </c>
+      <c r="R57" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>183.53149210000001</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+      <c r="G58">
+        <v>244.71392729999999</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>0.9</v>
+      </c>
+      <c r="O58">
+        <v>327.8676802</v>
+      </c>
+      <c r="P58">
+        <v>24</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <v>317.26276030000002</v>
+      </c>
+      <c r="P59">
+        <v>24</v>
+      </c>
+      <c r="Q59">
+        <v>11</v>
+      </c>
+      <c r="R59" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>244.6910742</v>
+      </c>
+      <c r="P60">
+        <v>24</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60" t="s">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0.2</v>
+      </c>
+      <c r="O61">
+        <v>291.26918439999997</v>
+      </c>
+      <c r="P61">
+        <v>24</v>
+      </c>
+      <c r="Q61">
+        <v>8</v>
+      </c>
+      <c r="R61" t="s">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>0.4</v>
+      </c>
+      <c r="O62">
+        <v>251.0481355</v>
+      </c>
+      <c r="P62">
+        <v>24</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62" t="s">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>0.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>250.27690749999999</v>
+      </c>
+      <c r="P63">
+        <v>24</v>
+      </c>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+      <c r="R63" t="s">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>0.4</v>
+      </c>
+      <c r="G64" s="4">
+        <v>293.3664407</v>
+      </c>
+      <c r="H64" s="4">
+        <v>20</v>
+      </c>
+      <c r="I64" s="4">
+        <v>9</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O64">
+        <v>301.17710299999999</v>
+      </c>
+      <c r="P64">
+        <v>24</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64" t="s">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="G65" s="4">
+        <v>253.58291320000001</v>
+      </c>
+      <c r="H65" s="4">
+        <v>20</v>
+      </c>
+      <c r="I65" s="4">
+        <v>9</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O65">
+        <v>780.05161859999998</v>
+      </c>
+      <c r="P65">
+        <v>24</v>
+      </c>
+      <c r="Q65">
+        <v>34</v>
+      </c>
+      <c r="R65" t="s">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+      <c r="G66" s="4">
+        <v>294.60299179999998</v>
+      </c>
+      <c r="H66" s="4">
+        <v>20</v>
+      </c>
+      <c r="I66" s="4">
+        <v>9</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O66">
+        <v>431.96832389999997</v>
+      </c>
+      <c r="P66">
+        <v>24</v>
+      </c>
+      <c r="Q66">
+        <v>18</v>
+      </c>
+      <c r="R66" t="s">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>0.2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>612.41905840000004</v>
+      </c>
+      <c r="H67" s="4">
+        <v>20</v>
+      </c>
+      <c r="I67" s="4">
+        <v>23</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O67">
+        <v>411.69831310000001</v>
+      </c>
+      <c r="P67">
+        <v>20</v>
+      </c>
+      <c r="Q67">
+        <v>17</v>
+      </c>
+      <c r="R67" t="s">
+        <v>5</v>
+      </c>
+      <c r="S67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.3</v>
+      </c>
+      <c r="G68" s="4">
+        <v>276.2595</v>
+      </c>
+      <c r="H68" s="4">
+        <v>20</v>
+      </c>
+      <c r="I68" s="4">
+        <v>9</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O68">
+        <v>429.84226919999998</v>
+      </c>
+      <c r="P68">
+        <v>24</v>
+      </c>
+      <c r="Q68">
+        <v>13</v>
+      </c>
+      <c r="R68" t="s">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0.4</v>
+      </c>
+      <c r="G69" s="4">
+        <v>279.09544460000001</v>
+      </c>
+      <c r="H69" s="4">
+        <v>20</v>
+      </c>
+      <c r="I69" s="4">
+        <v>11</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O69">
+        <v>363.05305509999999</v>
+      </c>
+      <c r="P69">
+        <v>24</v>
+      </c>
+      <c r="Q69">
+        <v>15</v>
+      </c>
+      <c r="R69" t="s">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0.7</v>
+      </c>
+      <c r="G70" s="4">
+        <v>300.01473299999998</v>
+      </c>
+      <c r="H70" s="4">
+        <v>20</v>
+      </c>
+      <c r="I70" s="4">
+        <v>10</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O70">
+        <v>440.33822750000002</v>
+      </c>
+      <c r="P70">
+        <v>24</v>
+      </c>
+      <c r="Q70">
+        <v>14</v>
+      </c>
+      <c r="R70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" cm="1">
+        <f t="array" ref="B71:B72">_xlfn.MODE.MULT(B61:B70)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G71" s="4">
+        <v>602.39507100000003</v>
+      </c>
+      <c r="H71" s="4">
+        <v>20</v>
+      </c>
+      <c r="I71" s="4">
+        <v>27</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O71">
+        <v>247.34598940000001</v>
+      </c>
+      <c r="P71">
+        <v>24</v>
+      </c>
+      <c r="Q71">
+        <v>8</v>
+      </c>
+      <c r="R71" t="s">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G72" s="4">
+        <v>411.69831310000001</v>
+      </c>
+      <c r="H72" s="4">
+        <v>20</v>
+      </c>
+      <c r="I72" s="4">
+        <v>17</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O72">
+        <v>316.182501</v>
+      </c>
+      <c r="P72">
+        <v>24</v>
+      </c>
+      <c r="Q72">
+        <v>9</v>
+      </c>
+      <c r="R72" t="s">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G73" s="4">
+        <v>230.3804557</v>
+      </c>
+      <c r="H73" s="4">
+        <v>20</v>
+      </c>
+      <c r="I73" s="4">
+        <v>8</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O73">
+        <v>272.10998669999998</v>
+      </c>
+      <c r="P73">
+        <v>24</v>
+      </c>
+      <c r="Q73">
+        <v>7</v>
+      </c>
+      <c r="R73" t="s">
+        <v>6</v>
+      </c>
+      <c r="S73">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K74" cm="1">
+        <f t="array" ref="K74:K75">_xlfn.MODE.MULT(K64:K73)</f>
+        <v>0.2</v>
+      </c>
+      <c r="O74">
+        <v>776.69562689999998</v>
+      </c>
+      <c r="P74">
+        <v>24</v>
+      </c>
+      <c r="Q74">
+        <v>26</v>
+      </c>
+      <c r="R74" t="s">
+        <v>6</v>
+      </c>
+      <c r="S74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>0.4</v>
+      </c>
+      <c r="O75">
+        <v>447.20538290000002</v>
+      </c>
+      <c r="P75">
+        <v>20</v>
+      </c>
+      <c r="Q75">
+        <v>18</v>
+      </c>
+      <c r="R75" t="s">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>481.19786319999997</v>
+      </c>
+      <c r="P76">
+        <v>20</v>
+      </c>
+      <c r="Q76">
+        <v>19</v>
+      </c>
+      <c r="R76" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <v>276.2595</v>
+      </c>
+      <c r="P77">
+        <v>20</v>
+      </c>
+      <c r="Q77">
+        <v>9</v>
+      </c>
+      <c r="R77" t="s">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <v>423.46235359999997</v>
+      </c>
+      <c r="P78">
+        <v>20</v>
+      </c>
+      <c r="Q78">
+        <v>14</v>
+      </c>
+      <c r="R78" t="s">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <v>215.6882177</v>
+      </c>
+      <c r="P79">
+        <v>24</v>
+      </c>
+      <c r="Q79">
+        <v>7</v>
+      </c>
+      <c r="R79" t="s">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <v>229.2705388</v>
+      </c>
+      <c r="P80">
+        <v>24</v>
+      </c>
+      <c r="Q80">
+        <v>6</v>
+      </c>
+      <c r="R80" t="s">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="81" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <v>241.57853069999999</v>
+      </c>
+      <c r="P81">
+        <v>24</v>
+      </c>
+      <c r="Q81">
+        <v>7</v>
+      </c>
+      <c r="R81" t="s">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <v>183.53149210000001</v>
+      </c>
+      <c r="P82">
+        <v>24</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s">
+        <v>6</v>
+      </c>
+      <c r="S82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <v>686.53352770000004</v>
+      </c>
+      <c r="P83">
+        <v>24</v>
+      </c>
+      <c r="Q83">
+        <v>28</v>
+      </c>
+      <c r="R83" t="s">
+        <v>6</v>
+      </c>
+      <c r="S83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>508.22556680000002</v>
+      </c>
+      <c r="P84">
+        <v>24</v>
+      </c>
+      <c r="Q84">
+        <v>20</v>
+      </c>
+      <c r="R84" t="s">
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <v>366.29668420000002</v>
+      </c>
+      <c r="P85">
+        <v>20</v>
+      </c>
+      <c r="Q85">
+        <v>15</v>
+      </c>
+      <c r="R85" t="s">
+        <v>5</v>
+      </c>
+      <c r="S85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <v>426.03207170000002</v>
+      </c>
+      <c r="P86">
+        <v>20</v>
+      </c>
+      <c r="Q86">
+        <v>19</v>
+      </c>
+      <c r="R86" t="s">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O87">
+        <v>256.13497619999998</v>
+      </c>
+      <c r="P87">
+        <v>24</v>
+      </c>
+      <c r="Q87">
+        <v>9</v>
+      </c>
+      <c r="R87" t="s">
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>578.94726830000002</v>
+      </c>
+      <c r="P88">
+        <v>24</v>
+      </c>
+      <c r="Q88">
+        <v>18</v>
+      </c>
+      <c r="R88" t="s">
+        <v>6</v>
+      </c>
+      <c r="S88">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <v>230.3804557</v>
+      </c>
+      <c r="P89">
+        <v>20</v>
+      </c>
+      <c r="Q89">
+        <v>8</v>
+      </c>
+      <c r="R89" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O90">
+        <v>341.36414079999997</v>
+      </c>
+      <c r="P90">
+        <v>24</v>
+      </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="R90" t="s">
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <v>244.71392729999999</v>
+      </c>
+      <c r="P91">
+        <v>24</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91" t="s">
+        <v>6</v>
+      </c>
+      <c r="S91">
         <v>0.9</v>
       </c>
     </row>
@@ -610,215 +3784,3471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C871BFD-3713-49F6-9813-4107D7A00E44}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>559.99525789999996</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>363.76766129999999</v>
+        <v>3358.6638334999998</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2717.8416167</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>124</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>302.3978879</v>
+        <v>1011.5245996</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>685.81825049999998</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>261.97176480000002</v>
+        <v>682.95554019999997</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="I5">
+        <v>563.10792960000003</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>616.35082109999996</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1.6</v>
+      </c>
+      <c r="I6">
+        <v>508.60668129999999</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>638.79682579999997</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1.8</v>
+      </c>
+      <c r="I7">
+        <v>271.50622290000001</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>311.29597610000002</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>228.15249170000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1241.7535812000001</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>184.05474290000001</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>255.10638549999999</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>792.97796589999996</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <v>252.6850867</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1008.963404</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>1950.3442454999999</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2703.8621708999999</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>588.03349160000005</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1097.4425386999999</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>506.45773830000002</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>260.74740179999998</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>506.1337355</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+      <c r="I17">
+        <v>323.09022729999998</v>
+      </c>
+      <c r="J17">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>326.12461910000002</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1.6</v>
+      </c>
+      <c r="I18">
+        <v>254.77287200000001</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>362.54809490000002</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1.8</v>
+      </c>
+      <c r="I19">
+        <v>261.06323559999998</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>498.09624489999999</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>237.88784329999999</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>993.96927070000004</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>184.69198639999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1304.2723169999999</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>978.86749769999994</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>181.66239730000001</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>1536.8892155999999</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>725.56113049999999</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3242.2775566999999</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>377.55442190000002</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1429.6759394999999</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1.2</v>
+      </c>
+      <c r="I28">
+        <v>294.40420549999999</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>792.40624579999997</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1.4</v>
+      </c>
+      <c r="I29">
+        <v>276.25522749999999</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>797.23398459999999</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>1.6</v>
+      </c>
+      <c r="I30" s="2">
+        <v>202.5630558</v>
+      </c>
+      <c r="J30" s="2">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="L30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>363.36141939999999</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <v>258.01536570000002</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>378.9672114</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>230.49019749999999</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1185.6607878</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1024.9639156999999</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>671.76423880000004</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>2.4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>1981.3838762</v>
+      </c>
+      <c r="J36">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>771.74908519999997</v>
+      </c>
+      <c r="J37">
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>342.07829709999999</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3286.3018351999999</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>354.48939100000001</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>158.71385699999999</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>223.36825959999999</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1299.0112558000001</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>1.2</v>
+      </c>
+      <c r="I40">
+        <v>293.98375520000002</v>
+      </c>
+      <c r="J40">
+        <v>24</v>
+      </c>
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40">
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>204.6353838</v>
-      </c>
-      <c r="B11">
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="C11">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>818.81940120000002</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>1.4</v>
+      </c>
+      <c r="I41">
+        <v>283.37674579999998</v>
+      </c>
+      <c r="J41">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1076.5506522999999</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>1.6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>296.46040499999998</v>
+      </c>
+      <c r="J42" s="2">
+        <v>20</v>
+      </c>
+      <c r="K42" s="2">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>414.40432879999997</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1.8</v>
+      </c>
+      <c r="I43">
+        <v>244.00583589999999</v>
+      </c>
+      <c r="J43">
+        <v>24</v>
+      </c>
+      <c r="K43">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>162.8027592</v>
-      </c>
-      <c r="B12">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>407.78186549999998</v>
+      </c>
+      <c r="B44" s="2">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1264.1493207999999</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>612.26455109999995</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>966.08018170000003</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>2.4</v>
+      </c>
+      <c r="I47">
+        <v>1921.3201828000001</v>
+      </c>
+      <c r="J47">
+        <v>24</v>
+      </c>
+      <c r="K47">
+        <v>88</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>639.46391759999995</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>440.60647770000003</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>309.15786919999999</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3221.7871232000002</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>332.01345730000003</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+      <c r="K51">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>895.4067288</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>1.2</v>
+      </c>
+      <c r="I52">
+        <v>255.3410868</v>
+      </c>
+      <c r="J52">
+        <v>24</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>611.17389330000003</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>1.4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>281.40329409999998</v>
+      </c>
+      <c r="J53" s="2">
+        <v>20</v>
+      </c>
+      <c r="K53" s="2">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>436.7102051</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1.6</v>
+      </c>
+      <c r="I54">
+        <v>284.23247880000002</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>406.69314259999999</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>330.22294470000003</v>
+      </c>
+      <c r="B56" s="2">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1535.1439694999999</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>762.58302979999996</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I58">
+        <v>1222.0106043999999</v>
+      </c>
+      <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <v>54</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1297.0057832</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>2.4</v>
+      </c>
+      <c r="I59">
+        <v>1452.3735551</v>
+      </c>
+      <c r="J59">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>64</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>434.85999020000003</v>
+      </c>
+      <c r="J60">
+        <v>24</v>
+      </c>
+      <c r="K60">
+        <v>19</v>
+      </c>
+      <c r="L60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>569.19872320000002</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>452.8363627</v>
+      </c>
+      <c r="J62">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <v>15</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3310.2730325000002</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>294.14427719999998</v>
+      </c>
+      <c r="J63">
+        <v>24</v>
+      </c>
+      <c r="K63">
+        <v>11</v>
+      </c>
+      <c r="L63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1043.5713828999999</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1.2</v>
+      </c>
+      <c r="I64">
+        <v>237.09168399999999</v>
+      </c>
+      <c r="J64">
+        <v>24</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>658.93281049999996</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1.4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>268.64026360000003</v>
+      </c>
+      <c r="J65" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" s="2">
+        <v>8</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>761.51693999999998</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>409.68249900000001</v>
+      </c>
+      <c r="B67" s="2">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>222.40404580000001</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>856.23255619999998</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1539.3356537</v>
+      </c>
+      <c r="J69">
+        <v>24</v>
+      </c>
+      <c r="K69">
+        <v>66</v>
+      </c>
+      <c r="L69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1167.7427097</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I70">
+        <v>706.00385070000004</v>
+      </c>
+      <c r="J70">
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <v>28</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>831.57370419999995</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>2.4</v>
+      </c>
+      <c r="I71">
+        <v>482.82038030000001</v>
+      </c>
+      <c r="J71">
+        <v>24</v>
+      </c>
+      <c r="K71">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>276.82801920000003</v>
+      </c>
+      <c r="J72">
+        <v>24</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>436.3975853</v>
+      </c>
+      <c r="J73">
+        <v>24</v>
+      </c>
+      <c r="K73">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74">
+        <v>289.97082440000003</v>
+      </c>
+      <c r="J74">
+        <v>24</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+      <c r="L74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3223.3038267000002</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>276.35533420000002</v>
+      </c>
+      <c r="J75" s="2">
+        <v>20</v>
+      </c>
+      <c r="K75" s="2">
+        <v>11</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1163.7227252</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>1.2</v>
+      </c>
+      <c r="I76">
+        <v>257.08023079999998</v>
+      </c>
+      <c r="J76">
+        <v>24</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>710.15133189999995</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1002.314108</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>378.97473079999997</v>
+      </c>
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>1.8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79" t="s">
+        <v>3</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>456.9025345</v>
+      </c>
+      <c r="B80" s="2">
+        <v>20</v>
+      </c>
+      <c r="C80" s="2">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>2205.7441007000002</v>
+      </c>
+      <c r="J80">
+        <v>24</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1256.0491319</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>1034.6344285</v>
+      </c>
+      <c r="J81">
+        <v>24</v>
+      </c>
+      <c r="K81">
+        <v>40</v>
+      </c>
+      <c r="L81" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>723.95377340000005</v>
+      </c>
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I82">
+        <v>623.17313869999998</v>
+      </c>
+      <c r="J82">
+        <v>24</v>
+      </c>
+      <c r="K82">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>631.19688310000004</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>2.4</v>
+      </c>
+      <c r="I83">
+        <v>346.28598290000002</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+      <c r="K83">
+        <v>11</v>
+      </c>
+      <c r="L83" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I84" s="2">
+        <v>293.59318080000003</v>
+      </c>
+      <c r="J84" s="2">
+        <v>20</v>
+      </c>
+      <c r="K84" s="2">
+        <v>8</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>443.68939920000003</v>
+      </c>
+      <c r="J85">
+        <v>24</v>
+      </c>
+      <c r="K85">
+        <v>13</v>
+      </c>
+      <c r="L85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>235.70154919999999</v>
+      </c>
+      <c r="J86">
+        <v>24</v>
+      </c>
+      <c r="K86">
+        <v>8</v>
+      </c>
+      <c r="L86" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3225.1654921999998</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>274.119685</v>
+      </c>
+      <c r="J87">
+        <v>24</v>
+      </c>
+      <c r="K87">
+        <v>9</v>
+      </c>
+      <c r="L87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1309.5814419999999</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>610.16591259999996</v>
+      </c>
+      <c r="B89">
+        <v>24</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>398.44705970000001</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>1.6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2</v>
+      </c>
+      <c r="L90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>420.0654945</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>1.8</v>
+      </c>
+      <c r="I91">
+        <v>1700.2198410999999</v>
+      </c>
+      <c r="J91">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>75</v>
+      </c>
+      <c r="L91" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>277.52219609999997</v>
+      </c>
+      <c r="B92">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1001.8048571</v>
+      </c>
+      <c r="J92">
+        <v>24</v>
+      </c>
+      <c r="K92">
+        <v>43</v>
+      </c>
+      <c r="L92" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>707.27508999999998</v>
+      </c>
+      <c r="B93" s="2">
+        <v>20</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>542.75678789999995</v>
+      </c>
+      <c r="J93">
+        <v>24</v>
+      </c>
+      <c r="K93">
+        <v>18</v>
+      </c>
+      <c r="L93" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>941.06113549999998</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I94">
+        <v>492.03446209999998</v>
+      </c>
+      <c r="J94">
+        <v>20</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1599.7293231000001</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>2.4</v>
+      </c>
+      <c r="I95">
+        <v>320.78352289999998</v>
+      </c>
+      <c r="J95">
+        <v>24</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+      <c r="L95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>268.4034848</v>
+      </c>
+      <c r="J96">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>8</v>
+      </c>
+      <c r="L96" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I97" s="2">
+        <v>248.0345408</v>
+      </c>
+      <c r="J97" s="2">
+        <v>20</v>
+      </c>
+      <c r="K97" s="2">
+        <v>6</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M97" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98">
+        <v>292.79042500000003</v>
+      </c>
+      <c r="J98">
+        <v>20</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+      <c r="L98" t="s">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>3141.3277247000001</v>
+      </c>
+      <c r="B99">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1170.5748414</v>
+      </c>
+      <c r="B100">
+        <v>24</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>654.64324099999999</v>
+      </c>
+      <c r="B101">
+        <v>24</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>1.4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2</v>
+      </c>
+      <c r="L101" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>399.21955969999999</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>1.6</v>
+      </c>
+      <c r="I102">
+        <v>2899.8529868000001</v>
+      </c>
+      <c r="J102">
+        <v>24</v>
+      </c>
+      <c r="K102">
+        <v>135</v>
+      </c>
+      <c r="L102" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>324.53864729999998</v>
+      </c>
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>1.8</v>
+      </c>
+      <c r="I103">
+        <v>533.43410349999999</v>
+      </c>
+      <c r="J103">
+        <v>24</v>
+      </c>
+      <c r="K103">
+        <v>22</v>
+      </c>
+      <c r="L103" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>334.90689859999998</v>
+      </c>
+      <c r="B104" s="2">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>560.87864679999996</v>
+      </c>
+      <c r="J104">
+        <v>24</v>
+      </c>
+      <c r="K104">
+        <v>26</v>
+      </c>
+      <c r="L104" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1142.4183899</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>380.60820360000002</v>
+      </c>
+      <c r="J105">
+        <v>24</v>
+      </c>
+      <c r="K105">
+        <v>14</v>
+      </c>
+      <c r="L105" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>847.90684820000001</v>
+      </c>
+      <c r="B106">
+        <v>24</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I106">
+        <v>244.58682880000001</v>
+      </c>
+      <c r="J106">
+        <v>24</v>
+      </c>
+      <c r="K106">
+        <v>8</v>
+      </c>
+      <c r="L106" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1087.2716344999999</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>2.4</v>
+      </c>
+      <c r="I107">
+        <v>251.08721310000001</v>
+      </c>
+      <c r="J107">
+        <v>24</v>
+      </c>
+      <c r="K107">
+        <v>8</v>
+      </c>
+      <c r="L107" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I108" s="2">
+        <v>218.2804356</v>
+      </c>
+      <c r="J108" s="2">
+        <v>20</v>
+      </c>
+      <c r="K108" s="2">
+        <v>6</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M108" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>233.38359449999999</v>
+      </c>
+      <c r="J109">
+        <v>20</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109" t="s">
+        <v>5</v>
+      </c>
+      <c r="M109">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3199.8043382000001</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1137.8881796999999</v>
+      </c>
+      <c r="B112">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>908.81931680000002</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>832.3999298</v>
+      </c>
+      <c r="B114">
+        <v>24</v>
+      </c>
+      <c r="C114">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>1.6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>2</v>
+      </c>
+      <c r="L114" t="s">
+        <v>3</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>301.41683949999998</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>1.8</v>
+      </c>
+      <c r="I115" s="4">
+        <v>228.15249170000001</v>
+      </c>
+      <c r="J115" s="4">
+        <v>24</v>
+      </c>
+      <c r="K115" s="4">
+        <v>6</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>253.7848256</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="I116" s="4">
+        <v>184.69198639999999</v>
+      </c>
+      <c r="J116" s="4">
+        <v>24</v>
+      </c>
+      <c r="K116" s="4">
+        <v>5</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>961.94560809999996</v>
+      </c>
+      <c r="B117">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="I117" s="4">
+        <v>202.5630558</v>
+      </c>
+      <c r="J117" s="4">
+        <v>20</v>
+      </c>
+      <c r="K117" s="4">
+        <v>7</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M117" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>1117.4881776</v>
+      </c>
+      <c r="B118" s="2">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I118" s="4">
+        <v>296.46040499999998</v>
+      </c>
+      <c r="J118" s="4">
+        <v>20</v>
+      </c>
+      <c r="K118" s="4">
+        <v>12</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M118" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>814.68932329999996</v>
+      </c>
+      <c r="B119">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>2.4</v>
+      </c>
+      <c r="I119" s="4">
+        <v>281.40329409999998</v>
+      </c>
+      <c r="J119" s="4">
+        <v>20</v>
+      </c>
+      <c r="K119" s="4">
+        <v>9</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M119" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I120" s="4">
+        <v>268.64026360000003</v>
+      </c>
+      <c r="J120" s="4">
+        <v>20</v>
+      </c>
+      <c r="K120" s="4">
+        <v>8</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M120" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I121" s="4">
+        <v>276.35533420000002</v>
+      </c>
+      <c r="J121" s="4">
+        <v>20</v>
+      </c>
+      <c r="K121" s="4">
+        <v>11</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M121" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I122" s="4">
+        <v>293.59318080000003</v>
+      </c>
+      <c r="J122" s="4">
+        <v>20</v>
+      </c>
+      <c r="K122" s="4">
+        <v>8</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M122" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="4">
+        <v>248.0345408</v>
+      </c>
+      <c r="J123" s="4">
+        <v>20</v>
+      </c>
+      <c r="K123" s="4">
+        <v>6</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>1008.963404</v>
+      </c>
+      <c r="B124" s="4">
+        <v>20</v>
+      </c>
+      <c r="C124" s="4">
+        <v>9</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I124" s="4">
+        <v>218.2804356</v>
+      </c>
+      <c r="J124" s="4">
+        <v>20</v>
+      </c>
+      <c r="K124" s="4">
+        <v>6</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M124" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>993.96927070000004</v>
+      </c>
+      <c r="B125" s="4">
+        <v>20</v>
+      </c>
+      <c r="C125" s="4">
+        <v>12</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2</v>
+      </c>
+      <c r="M125" cm="1">
+        <f t="array" ref="M125">_xlfn.MODE.MULT(M115:M124)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>378.9672114</v>
+      </c>
+      <c r="B126" s="4">
+        <v>20</v>
+      </c>
+      <c r="C126" s="4">
+        <v>12</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>407.78186549999998</v>
+      </c>
+      <c r="B127" s="4">
+        <v>20</v>
+      </c>
+      <c r="C127" s="4">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>330.22294470000003</v>
+      </c>
+      <c r="B128" s="4">
+        <v>20</v>
+      </c>
+      <c r="C128" s="4">
+        <v>12</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>409.68249900000001</v>
+      </c>
+      <c r="B129" s="4">
+        <v>20</v>
+      </c>
+      <c r="C129" s="4">
+        <v>16</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>456.9025345</v>
+      </c>
+      <c r="B130" s="4">
+        <v>20</v>
+      </c>
+      <c r="C130" s="4">
+        <v>21</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>707.27508999999998</v>
+      </c>
+      <c r="B131" s="4">
+        <v>20</v>
+      </c>
+      <c r="C131" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>334.90689859999998</v>
+      </c>
+      <c r="B132" s="4">
+        <v>20</v>
+      </c>
+      <c r="C132" s="4">
+        <v>16</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>1117.4881776</v>
+      </c>
+      <c r="B133" s="4">
+        <v>20</v>
+      </c>
+      <c r="C133" s="4">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E134" cm="1">
+        <f t="array" ref="E134">_xlfn.MODE.MULT(E124:E133)</f>
         <v>2</v>
       </c>
     </row>
@@ -831,7 +7261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A66CE0A-100A-45D9-AA5B-F51087704054}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,7 +7550,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1.6</v>
@@ -1203,8 +7633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BED1BB-CAA5-484A-9284-2A0A18702732}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106ADB7B-E85A-42A0-B046-A8390B9DA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A20B87-AC04-47F6-8158-753143FD418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="2" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="16">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -88,12 +88,6 @@
     <t>'beta'</t>
   </si>
   <si>
-    <t>16x1 double</t>
-  </si>
-  <si>
-    <t>'gamma'</t>
-  </si>
-  <si>
     <t>Corrida</t>
   </si>
   <si>
@@ -110,6 +104,9 @@
   </si>
   <si>
     <t>Rho 0.4</t>
+  </si>
+  <si>
+    <t>Pre barrido</t>
   </si>
 </sst>
 </file>
@@ -2990,10 +2987,10 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O60">
         <v>244.6910742</v>
@@ -3794,10 +3791,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3814,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -3829,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3843,7 +3840,7 @@
         <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4119,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -4136,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>1950.3442454999999</v>
@@ -4426,7 +4423,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4460,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26">
         <v>725.56113049999999</v>
@@ -4489,7 +4486,7 @@
         <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4733,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -4784,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I38">
         <v>342.07829709999999</v>
@@ -4813,7 +4810,7 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5025,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="M46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -5108,7 +5105,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I50">
         <v>309.15786919999999</v>
@@ -5137,7 +5134,7 @@
         <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5317,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -5432,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I62">
         <v>452.8363627</v>
@@ -5609,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -5756,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I74">
         <v>289.97082440000003</v>
@@ -5785,7 +5782,7 @@
         <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5901,7 +5898,7 @@
         <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -6080,7 +6077,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I86">
         <v>235.70154919999999</v>
@@ -6109,7 +6106,7 @@
         <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6193,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="M90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -6404,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I98">
         <v>292.79042500000003</v>
@@ -6485,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="M101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -6742,7 +6739,7 @@
         <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6811,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="M114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -7039,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I123" s="4">
         <v>248.0345408</v>
@@ -7259,369 +7256,6418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A66CE0A-100A-45D9-AA5B-F51087704054}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222:E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>120.388931</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>234.50715020000001</v>
+        <v>248.21396469999999</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>139.09386240000001</v>
+        <v>205.045391</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>136.2149076</v>
+        <v>298.54478649999999</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>131.28263229999999</v>
+        <v>310.93257399999999</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>119.7596088</v>
+        <v>748.58065339999996</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>132.8784727</v>
+        <v>718.71068209999999</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>188.79635819999999</v>
+        <v>631.2163984</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>172.65752259999999</v>
+        <v>889.02802580000002</v>
       </c>
       <c r="B10">
-        <v>5.1666666666666696</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>361.62155510000002</v>
+        <v>1870.1655963999999</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>290.19527069999998</v>
+        <v>3628.0095959999999</v>
       </c>
       <c r="B12">
-        <v>5.1666666666666696</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1.1000000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>177.60460399999999</v>
+        <v>3912.3462777</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>1.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>217.73020740000001</v>
+        <v>4178.6775349999998</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>236.63135260000001</v>
+        <v>9331.8926460999992</v>
       </c>
       <c r="B15">
-        <v>5.1666666666666696</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>214.9350034</v>
-      </c>
-      <c r="B16">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>314.0704485</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>330.04986059999999</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>288.85050660000002</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="2">
+        <v>168.39195140000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>649.8831447</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>213.85108510000001</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>287.67041130000001</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1.25</v>
+      </c>
+      <c r="I24">
+        <v>213.70516559999999</v>
+      </c>
+      <c r="J24">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>468.076143</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>310.42549580000002</v>
-      </c>
-      <c r="B17">
-        <v>5.5</v>
-      </c>
-      <c r="C17">
+      <c r="I25">
+        <v>275.2161375</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>806.15128059999995</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1.75</v>
+      </c>
+      <c r="I26">
+        <v>315.91462730000001</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>609.68227739999998</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>360.9500448</v>
+      </c>
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>908.28056160000006</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>2.25</v>
+      </c>
+      <c r="I28">
+        <v>575.3628698</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>776.22588719999999</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2.5</v>
+      </c>
+      <c r="I29">
+        <v>596.31069179999997</v>
+      </c>
+      <c r="J29">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1584.5977206</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2.75</v>
+      </c>
+      <c r="I30">
+        <v>440.72753710000001</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>398.66657040000001</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>680.57876690000001</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+      <c r="K31">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>710.7157158</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>3.25</v>
+      </c>
+      <c r="I32">
+        <v>645.26295030000006</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32">
         <v>9</v>
       </c>
-      <c r="E17">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>298.400533</v>
-      </c>
-      <c r="B18">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C18">
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1536.2801661999999</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>3.5</v>
+      </c>
+      <c r="I33">
+        <v>975.87286540000002</v>
+      </c>
+      <c r="J33">
+        <v>26</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2044.3201031999999</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>3.75</v>
+      </c>
+      <c r="I34">
+        <v>933.6576996</v>
+      </c>
+      <c r="J34">
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2582.9888129999999</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1073.1298979999999</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1113.3233963</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>4.25</v>
+      </c>
+      <c r="I36">
+        <v>864.76883910000004</v>
+      </c>
+      <c r="J36">
+        <v>26</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2905.6260035999999</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>4.5</v>
+      </c>
+      <c r="I37">
+        <v>1428.2190275</v>
+      </c>
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>504.06036699999999</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>193.7400288</v>
+      </c>
+      <c r="J41" s="2">
+        <v>22</v>
+      </c>
+      <c r="K41" s="2">
+        <v>8</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>450.01699880000001</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0.75</v>
+      </c>
+      <c r="I42">
+        <v>208.1506488</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>404.350686</v>
+      </c>
+      <c r="B43" s="2">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>247.42148359999999</v>
+      </c>
+      <c r="J43">
+        <v>26</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>302.1380929</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>1.25</v>
+      </c>
+      <c r="I44">
+        <v>277.90324370000002</v>
+      </c>
+      <c r="J44">
+        <v>24</v>
+      </c>
+      <c r="K44">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>611.79291130000001</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1.5</v>
+      </c>
+      <c r="I45">
+        <v>237.96440960000001</v>
+      </c>
+      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>302.7479505</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>1.75</v>
+      </c>
+      <c r="I46">
+        <v>274.0771383</v>
+      </c>
+      <c r="J46">
+        <v>24</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1195.3312137</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>262.32967009999999</v>
+      </c>
+      <c r="J47">
+        <v>24</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>411.53739280000002</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>2.25</v>
+      </c>
+      <c r="I48">
+        <v>412.72407989999999</v>
+      </c>
+      <c r="J48">
+        <v>26</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1262.6667464</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="I49">
+        <v>430.49931099999998</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>670.51018710000005</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>2.75</v>
+      </c>
+      <c r="I50">
+        <v>352.51021609999998</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>688.65916259999995</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>419.64272390000002</v>
+      </c>
+      <c r="J51">
+        <v>26</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1377.2993675</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>3.25</v>
+      </c>
+      <c r="I52">
+        <v>495.3645214</v>
+      </c>
+      <c r="J52">
+        <v>24</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>955.80515539999999</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>3.5</v>
+      </c>
+      <c r="I53">
+        <v>820.90819539999995</v>
+      </c>
+      <c r="J53">
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2534.7944511000001</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>3.75</v>
+      </c>
+      <c r="I54">
+        <v>774.66284410000003</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1375.8685766999999</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>954.63850179999997</v>
+      </c>
+      <c r="J55">
+        <v>24</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1347.6390107</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>4.25</v>
+      </c>
+      <c r="I56">
+        <v>1082.770845</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1558.6673189999999</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>4.5</v>
+      </c>
+      <c r="I57">
+        <v>1346.4217149000001</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>367.95171479999999</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>187.80544029999999</v>
+      </c>
+      <c r="J61" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" s="2">
+        <v>8</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>565.80341989999999</v>
+      </c>
+      <c r="B62" s="2">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I62">
+        <v>193.8137662</v>
+      </c>
+      <c r="J62">
+        <v>24</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>326.32193740000002</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>194.5244318</v>
+      </c>
+      <c r="J63">
+        <v>24</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>255.5969528</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1.25</v>
+      </c>
+      <c r="I64">
+        <v>247.05201489999999</v>
+      </c>
+      <c r="J64">
+        <v>24</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>337.32833690000001</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1.5</v>
+      </c>
+      <c r="I65">
+        <v>170.32437250000001</v>
+      </c>
+      <c r="J65">
+        <v>24</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>451.2319258</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>224.06098700000001</v>
-      </c>
-      <c r="B19">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C19">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>1.75</v>
+      </c>
+      <c r="I66">
+        <v>190.16887639999999</v>
+      </c>
+      <c r="J66">
+        <v>24</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>485.80498920000002</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>269.27657909999999</v>
+      </c>
+      <c r="J67">
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>472.1052656</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>2.25</v>
+      </c>
+      <c r="I68">
+        <v>307.93889739999997</v>
+      </c>
+      <c r="J68">
+        <v>24</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>582.95573090000005</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2.5</v>
+      </c>
+      <c r="I69">
+        <v>289.9097208</v>
+      </c>
+      <c r="J69">
+        <v>24</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>830.129504</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>2.75</v>
+      </c>
+      <c r="I70">
+        <v>463.36094050000003</v>
+      </c>
+      <c r="J70">
+        <v>26</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
+      <c r="L70" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1059.7114481000001</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>467.60140669999998</v>
+      </c>
+      <c r="J71">
+        <v>26</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>969.45141039999999</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>3.25</v>
+      </c>
+      <c r="I72">
+        <v>528.59321</v>
+      </c>
+      <c r="J72">
+        <v>24</v>
+      </c>
+      <c r="K72">
+        <v>7</v>
+      </c>
+      <c r="L72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1073.617722</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>3.5</v>
+      </c>
+      <c r="I73">
+        <v>492.70839740000002</v>
+      </c>
+      <c r="J73">
+        <v>26</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1167.0859531999999</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>3.75</v>
+      </c>
+      <c r="I74">
+        <v>792.84739090000005</v>
+      </c>
+      <c r="J74">
+        <v>24</v>
+      </c>
+      <c r="K74">
+        <v>8</v>
+      </c>
+      <c r="L74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1016.6442804</v>
+      </c>
+      <c r="B75">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>1013.6134886</v>
+      </c>
+      <c r="J75">
+        <v>24</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1870.6684588000001</v>
+      </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>4.25</v>
+      </c>
+      <c r="I76">
+        <v>969.53567120000002</v>
+      </c>
+      <c r="J76">
+        <v>24</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1271.0401924</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>4.5</v>
+      </c>
+      <c r="I77">
+        <v>1954.5087381000001</v>
+      </c>
+      <c r="J77">
+        <v>26</v>
+      </c>
+      <c r="K77">
+        <v>11</v>
+      </c>
+      <c r="L77" t="s">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>241.88693309999999</v>
+      </c>
+      <c r="B81" s="2">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I81">
+        <v>188.43363099999999</v>
+      </c>
+      <c r="J81">
+        <v>20</v>
+      </c>
+      <c r="K81">
+        <v>7</v>
+      </c>
+      <c r="L81" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>252.70376340000001</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>248.86136110000001</v>
-      </c>
-      <c r="B20">
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="C20">
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>0.75</v>
+      </c>
+      <c r="I82" s="2">
+        <v>166.39626569999999</v>
+      </c>
+      <c r="J82" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" s="2">
+        <v>7</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>314.91778340000002</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>204.58005270000001</v>
-      </c>
-      <c r="B21">
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>356.78260770000003</v>
+      </c>
+      <c r="J83">
+        <v>26</v>
+      </c>
+      <c r="K83">
+        <v>13</v>
+      </c>
+      <c r="L83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>356.1004011</v>
+      </c>
+      <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>1.25</v>
+      </c>
+      <c r="I84">
+        <v>257.30338469999998</v>
+      </c>
+      <c r="J84">
+        <v>24</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
+      </c>
+      <c r="L84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>348.39244170000001</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>1.5</v>
+      </c>
+      <c r="I85">
+        <v>217.35752360000001</v>
+      </c>
+      <c r="J85">
+        <v>24</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+      <c r="L85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>434.91230940000003</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>1.75</v>
+      </c>
+      <c r="I86">
+        <v>407.71882240000002</v>
+      </c>
+      <c r="J86">
+        <v>26</v>
+      </c>
+      <c r="K86">
+        <v>11</v>
+      </c>
+      <c r="L86" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>380.86276279999998</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
         <v>2</v>
+      </c>
+      <c r="I87">
+        <v>263.15208639999997</v>
+      </c>
+      <c r="J87">
+        <v>24</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+      <c r="L87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>644.22134679999999</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>2.25</v>
+      </c>
+      <c r="I88">
+        <v>232.28649709999999</v>
+      </c>
+      <c r="J88">
+        <v>24</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>676.95472280000001</v>
+      </c>
+      <c r="B89">
+        <v>26</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>2.5</v>
+      </c>
+      <c r="I89">
+        <v>337.4985092</v>
+      </c>
+      <c r="J89">
+        <v>24</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+      <c r="L89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>464.9270027</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>2.75</v>
+      </c>
+      <c r="I90">
+        <v>429.1104704</v>
+      </c>
+      <c r="J90">
+        <v>26</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="L90" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>680.47256400000003</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>649.28398179999999</v>
+      </c>
+      <c r="J91">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>10</v>
+      </c>
+      <c r="L91" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1067.5241539000001</v>
+      </c>
+      <c r="B92">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>3.25</v>
+      </c>
+      <c r="I92">
+        <v>602.80394209999997</v>
+      </c>
+      <c r="J92">
+        <v>24</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+      <c r="L92" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1333.6555951</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>3.5</v>
+      </c>
+      <c r="I93">
+        <v>559.15105319999998</v>
+      </c>
+      <c r="J93">
+        <v>26</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+      <c r="L93" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1894.7539936999999</v>
+      </c>
+      <c r="B94">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>3.75</v>
+      </c>
+      <c r="I94">
+        <v>635.10168450000003</v>
+      </c>
+      <c r="J94">
+        <v>24</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+      <c r="L94" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1444.2897115000001</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>924.88917900000001</v>
+      </c>
+      <c r="J95">
+        <v>24</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2692.0720290999998</v>
+      </c>
+      <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>4.25</v>
+      </c>
+      <c r="I96">
+        <v>1055.1784367</v>
+      </c>
+      <c r="J96">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1793.0448851000001</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>4.5</v>
+      </c>
+      <c r="I97">
+        <v>1280.6578853000001</v>
+      </c>
+      <c r="J97">
+        <v>26</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+      <c r="L97" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>265.33720520000003</v>
+      </c>
+      <c r="B101" s="2">
+        <v>20</v>
+      </c>
+      <c r="C101" s="2">
+        <v>11</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I101" s="2">
+        <v>138.45374340000001</v>
+      </c>
+      <c r="J101" s="2">
+        <v>20</v>
+      </c>
+      <c r="K101" s="2">
+        <v>7</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>428.17518910000001</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>0.75</v>
+      </c>
+      <c r="I102">
+        <v>299.26115870000001</v>
+      </c>
+      <c r="J102">
+        <v>24</v>
+      </c>
+      <c r="K102">
+        <v>18</v>
+      </c>
+      <c r="L102" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>263.81910010000001</v>
+      </c>
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>166.4243725</v>
+      </c>
+      <c r="J103">
+        <v>24</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+      <c r="L103" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>261.47205209999998</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>1.25</v>
+      </c>
+      <c r="I104">
+        <v>217.36277200000001</v>
+      </c>
+      <c r="J104">
+        <v>26</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+      <c r="L104" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>354.26120459999999</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>1.5</v>
+      </c>
+      <c r="I105">
+        <v>321.7337584</v>
+      </c>
+      <c r="J105">
+        <v>24</v>
+      </c>
+      <c r="K105">
+        <v>9</v>
+      </c>
+      <c r="L105" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>424.41210569999998</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>1.75</v>
+      </c>
+      <c r="I106">
+        <v>218.40853680000001</v>
+      </c>
+      <c r="J106">
+        <v>24</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>544.06669969999996</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>529.23128910000003</v>
+      </c>
+      <c r="J107">
+        <v>24</v>
+      </c>
+      <c r="K107">
+        <v>13</v>
+      </c>
+      <c r="L107" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>383.30588130000001</v>
+      </c>
+      <c r="B108">
+        <v>24</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>2.25</v>
+      </c>
+      <c r="I108">
+        <v>489.09348890000001</v>
+      </c>
+      <c r="J108">
+        <v>26</v>
+      </c>
+      <c r="K108">
+        <v>11</v>
+      </c>
+      <c r="L108" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>818.40843949999999</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>2.5</v>
+      </c>
+      <c r="I109">
+        <v>420.44316070000002</v>
+      </c>
+      <c r="J109">
+        <v>24</v>
+      </c>
+      <c r="K109">
+        <v>8</v>
+      </c>
+      <c r="L109" t="s">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1561.2445812999999</v>
+      </c>
+      <c r="B110">
+        <v>24</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>2.75</v>
+      </c>
+      <c r="I110">
+        <v>358.40920089999997</v>
+      </c>
+      <c r="J110">
+        <v>24</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110" t="s">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>599.10829030000002</v>
+      </c>
+      <c r="B111">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>417.53190660000001</v>
+      </c>
+      <c r="J111">
+        <v>24</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111" t="s">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>595.63798929999996</v>
+      </c>
+      <c r="B112">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>3.25</v>
+      </c>
+      <c r="I112">
+        <v>416.17739130000001</v>
+      </c>
+      <c r="J112">
+        <v>24</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="L112" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1287.3053093999999</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>3.5</v>
+      </c>
+      <c r="I113">
+        <v>758.79102539999997</v>
+      </c>
+      <c r="J113">
+        <v>26</v>
+      </c>
+      <c r="K113">
+        <v>9</v>
+      </c>
+      <c r="L113" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1478.0260235000001</v>
+      </c>
+      <c r="B114">
+        <v>24</v>
+      </c>
+      <c r="C114">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>3.75</v>
+      </c>
+      <c r="I114">
+        <v>836.26810520000004</v>
+      </c>
+      <c r="J114">
+        <v>24</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
+      <c r="L114" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1117.4174997</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>826.81164699999999</v>
+      </c>
+      <c r="J115">
+        <v>24</v>
+      </c>
+      <c r="K115">
+        <v>6</v>
+      </c>
+      <c r="L115" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1152.2738492999999</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>4.25</v>
+      </c>
+      <c r="I116">
+        <v>1224.9338869000001</v>
+      </c>
+      <c r="J116">
+        <v>26</v>
+      </c>
+      <c r="K116">
+        <v>9</v>
+      </c>
+      <c r="L116" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2416.6341057</v>
+      </c>
+      <c r="B117">
+        <v>26</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>4.5</v>
+      </c>
+      <c r="I117">
+        <v>806.13173810000001</v>
+      </c>
+      <c r="J117">
+        <v>24</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117" t="s">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L120" t="s">
+        <v>3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>325.530078</v>
+      </c>
+      <c r="B121" s="2">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I121" s="2">
+        <v>164.07697279999999</v>
+      </c>
+      <c r="J121" s="2">
+        <v>20</v>
+      </c>
+      <c r="K121" s="2">
+        <v>7</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M121" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>404.48574489999999</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>0.75</v>
+      </c>
+      <c r="I122">
+        <v>180.09875779999999</v>
+      </c>
+      <c r="J122">
+        <v>20</v>
+      </c>
+      <c r="K122">
+        <v>6</v>
+      </c>
+      <c r="L122" t="s">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>322.74539470000002</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>345.77939170000002</v>
+      </c>
+      <c r="J123">
+        <v>24</v>
+      </c>
+      <c r="K123">
+        <v>13</v>
+      </c>
+      <c r="L123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>289.65047070000003</v>
+      </c>
+      <c r="B124">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>1.25</v>
+      </c>
+      <c r="I124">
+        <v>216.7548132</v>
+      </c>
+      <c r="J124">
+        <v>24</v>
+      </c>
+      <c r="K124">
+        <v>6</v>
+      </c>
+      <c r="L124" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1494.4208036</v>
+      </c>
+      <c r="B125">
+        <v>26</v>
+      </c>
+      <c r="C125">
+        <v>43</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125">
+        <v>1.5</v>
+      </c>
+      <c r="I125">
+        <v>218.77398389999999</v>
+      </c>
+      <c r="J125">
+        <v>24</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>475.43399699999998</v>
+      </c>
+      <c r="B126">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>1.75</v>
+      </c>
+      <c r="I126">
+        <v>181.65004590000001</v>
+      </c>
+      <c r="J126">
+        <v>24</v>
+      </c>
+      <c r="K126">
+        <v>5</v>
+      </c>
+      <c r="L126" t="s">
+        <v>6</v>
+      </c>
+      <c r="M126">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>352.47599530000002</v>
+      </c>
+      <c r="B127">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>254.55418520000001</v>
+      </c>
+      <c r="J127">
+        <v>24</v>
+      </c>
+      <c r="K127">
+        <v>6</v>
+      </c>
+      <c r="L127" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>764.00040890000002</v>
+      </c>
+      <c r="B128">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>2.25</v>
+      </c>
+      <c r="I128">
+        <v>264.50908290000001</v>
+      </c>
+      <c r="J128">
+        <v>24</v>
+      </c>
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="L128" t="s">
+        <v>6</v>
+      </c>
+      <c r="M128">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>361.8948997</v>
+      </c>
+      <c r="B129">
+        <v>24</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>2.5</v>
+      </c>
+      <c r="I129">
+        <v>390.28664520000001</v>
+      </c>
+      <c r="J129">
+        <v>24</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+      <c r="L129" t="s">
+        <v>6</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>635.42094650000001</v>
+      </c>
+      <c r="B130">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>2.75</v>
+      </c>
+      <c r="I130">
+        <v>398.8161533</v>
+      </c>
+      <c r="J130">
+        <v>26</v>
+      </c>
+      <c r="K130">
+        <v>7</v>
+      </c>
+      <c r="L130" t="s">
+        <v>7</v>
+      </c>
+      <c r="M130">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>860.55988669999999</v>
+      </c>
+      <c r="B131">
+        <v>24</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>319.47564160000002</v>
+      </c>
+      <c r="J131">
+        <v>26</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>784.65883299999996</v>
+      </c>
+      <c r="B132">
+        <v>24</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>3.25</v>
+      </c>
+      <c r="I132">
+        <v>668.81151290000003</v>
+      </c>
+      <c r="J132">
+        <v>24</v>
+      </c>
+      <c r="K132">
+        <v>9</v>
+      </c>
+      <c r="L132" t="s">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1484.3279276000001</v>
+      </c>
+      <c r="B133">
+        <v>24</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>3.5</v>
+      </c>
+      <c r="I133">
+        <v>435.74178929999999</v>
+      </c>
+      <c r="J133">
+        <v>24</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133" t="s">
+        <v>6</v>
+      </c>
+      <c r="M133">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1239.8946907</v>
+      </c>
+      <c r="B134">
+        <v>26</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>3.75</v>
+      </c>
+      <c r="I134">
+        <v>648.97305440000002</v>
+      </c>
+      <c r="J134">
+        <v>24</v>
+      </c>
+      <c r="K134">
+        <v>6</v>
+      </c>
+      <c r="L134" t="s">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2603.7354933000001</v>
+      </c>
+      <c r="B135">
+        <v>24</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>814.00829899999997</v>
+      </c>
+      <c r="J135">
+        <v>26</v>
+      </c>
+      <c r="K135">
+        <v>7</v>
+      </c>
+      <c r="L135" t="s">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1520.4404474</v>
+      </c>
+      <c r="B136">
+        <v>26</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>4.25</v>
+      </c>
+      <c r="I136">
+        <v>959.51964539999994</v>
+      </c>
+      <c r="J136">
+        <v>26</v>
+      </c>
+      <c r="K136">
+        <v>6</v>
+      </c>
+      <c r="L136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M136">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1588.4805414</v>
+      </c>
+      <c r="B137">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>4.5</v>
+      </c>
+      <c r="I137">
+        <v>1047.0556807999999</v>
+      </c>
+      <c r="J137">
+        <v>24</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+      <c r="L137" t="s">
+        <v>6</v>
+      </c>
+      <c r="M137">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>2</v>
+      </c>
+      <c r="L140" t="s">
+        <v>3</v>
+      </c>
+      <c r="M140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>214.33636609999999</v>
+      </c>
+      <c r="B141" s="2">
+        <v>20</v>
+      </c>
+      <c r="C141" s="2">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I141" s="2">
+        <v>155.83041750000001</v>
+      </c>
+      <c r="J141" s="2">
+        <v>20</v>
+      </c>
+      <c r="K141" s="2">
+        <v>7</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M141" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>313.3289059</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>0.75</v>
+      </c>
+      <c r="I142">
+        <v>203.93736860000001</v>
+      </c>
+      <c r="J142">
+        <v>20</v>
+      </c>
+      <c r="K142">
+        <v>8</v>
+      </c>
+      <c r="L142" t="s">
+        <v>5</v>
+      </c>
+      <c r="M142">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>322.489891</v>
+      </c>
+      <c r="B143">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>192.8728471</v>
+      </c>
+      <c r="J143">
+        <v>24</v>
+      </c>
+      <c r="K143">
+        <v>6</v>
+      </c>
+      <c r="L143" t="s">
+        <v>6</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>276.67025039999999</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>1.25</v>
+      </c>
+      <c r="I144">
+        <v>268.47929040000002</v>
+      </c>
+      <c r="J144">
+        <v>20</v>
+      </c>
+      <c r="K144">
+        <v>9</v>
+      </c>
+      <c r="L144" t="s">
+        <v>5</v>
+      </c>
+      <c r="M144">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>364.16676439999998</v>
+      </c>
+      <c r="B145">
+        <v>24</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>1.5</v>
+      </c>
+      <c r="I145">
+        <v>218.54948440000001</v>
+      </c>
+      <c r="J145">
+        <v>24</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+      <c r="L145" t="s">
+        <v>6</v>
+      </c>
+      <c r="M145">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>663.72639160000006</v>
+      </c>
+      <c r="B146">
+        <v>24</v>
+      </c>
+      <c r="C146">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>1.75</v>
+      </c>
+      <c r="I146">
+        <v>290.40679360000001</v>
+      </c>
+      <c r="J146">
+        <v>24</v>
+      </c>
+      <c r="K146">
+        <v>8</v>
+      </c>
+      <c r="L146" t="s">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>589.97493910000003</v>
+      </c>
+      <c r="B147">
+        <v>24</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>268.11035930000003</v>
+      </c>
+      <c r="J147">
+        <v>24</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+      <c r="L147" t="s">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>465.27104300000002</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>2.25</v>
+      </c>
+      <c r="I148">
+        <v>298.75997539999997</v>
+      </c>
+      <c r="J148">
+        <v>24</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
+      <c r="L148" t="s">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>535.0144133</v>
+      </c>
+      <c r="B149">
+        <v>24</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>2.5</v>
+      </c>
+      <c r="I149">
+        <v>286.68732030000001</v>
+      </c>
+      <c r="J149">
+        <v>24</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+      <c r="L149" t="s">
+        <v>6</v>
+      </c>
+      <c r="M149">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>381.46712930000001</v>
+      </c>
+      <c r="B150">
+        <v>24</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>2.75</v>
+      </c>
+      <c r="I150">
+        <v>497.55873020000001</v>
+      </c>
+      <c r="J150">
+        <v>26</v>
+      </c>
+      <c r="K150">
+        <v>8</v>
+      </c>
+      <c r="L150" t="s">
+        <v>7</v>
+      </c>
+      <c r="M150">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2157.163247</v>
+      </c>
+      <c r="B151">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <v>32</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>790.9284811</v>
+      </c>
+      <c r="J151">
+        <v>24</v>
+      </c>
+      <c r="K151">
+        <v>13</v>
+      </c>
+      <c r="L151" t="s">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>970.17853890000004</v>
+      </c>
+      <c r="B152">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>3.25</v>
+      </c>
+      <c r="I152">
+        <v>523.56047530000001</v>
+      </c>
+      <c r="J152">
+        <v>24</v>
+      </c>
+      <c r="K152">
+        <v>6</v>
+      </c>
+      <c r="L152" t="s">
+        <v>6</v>
+      </c>
+      <c r="M152">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>691.39525309999999</v>
+      </c>
+      <c r="B153">
+        <v>24</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>3.5</v>
+      </c>
+      <c r="I153">
+        <v>688.28012190000004</v>
+      </c>
+      <c r="J153">
+        <v>24</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+      <c r="L153" t="s">
+        <v>6</v>
+      </c>
+      <c r="M153">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1829.6849282999999</v>
+      </c>
+      <c r="B154">
+        <v>26</v>
+      </c>
+      <c r="C154">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>3.75</v>
+      </c>
+      <c r="I154">
+        <v>654.16525469999999</v>
+      </c>
+      <c r="J154">
+        <v>26</v>
+      </c>
+      <c r="K154">
+        <v>6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>7</v>
+      </c>
+      <c r="M154">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1417.2074155</v>
+      </c>
+      <c r="B155">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <v>1330.5964446999999</v>
+      </c>
+      <c r="J155">
+        <v>24</v>
+      </c>
+      <c r="K155">
+        <v>12</v>
+      </c>
+      <c r="L155" t="s">
+        <v>6</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1165.0238713000001</v>
+      </c>
+      <c r="B156">
+        <v>24</v>
+      </c>
+      <c r="C156">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>4.25</v>
+      </c>
+      <c r="I156">
+        <v>778.05941870000004</v>
+      </c>
+      <c r="J156">
+        <v>24</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+      <c r="L156" t="s">
+        <v>6</v>
+      </c>
+      <c r="M156">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1960.5398878000001</v>
+      </c>
+      <c r="B157">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>4.5</v>
+      </c>
+      <c r="I157">
+        <v>1013.7618651</v>
+      </c>
+      <c r="J157">
+        <v>24</v>
+      </c>
+      <c r="K157">
+        <v>6</v>
+      </c>
+      <c r="L157" t="s">
+        <v>6</v>
+      </c>
+      <c r="M157">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2</v>
+      </c>
+      <c r="L160" t="s">
+        <v>3</v>
+      </c>
+      <c r="M160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>246.46736100000001</v>
+      </c>
+      <c r="B161" s="2">
+        <v>20</v>
+      </c>
+      <c r="C161" s="2">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I161" s="2">
+        <v>198.9010696</v>
+      </c>
+      <c r="J161" s="2">
+        <v>20</v>
+      </c>
+      <c r="K161" s="2">
+        <v>7</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M161" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>385.52757989999998</v>
+      </c>
+      <c r="B162">
+        <v>24</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>0.75</v>
+      </c>
+      <c r="I162">
+        <v>221.12125929999999</v>
+      </c>
+      <c r="J162">
+        <v>20</v>
+      </c>
+      <c r="K162">
+        <v>8</v>
+      </c>
+      <c r="L162" t="s">
+        <v>5</v>
+      </c>
+      <c r="M162">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>364.57827750000001</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>271.63292760000002</v>
+      </c>
+      <c r="J163">
+        <v>26</v>
+      </c>
+      <c r="K163">
+        <v>10</v>
+      </c>
+      <c r="L163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>315.0850696</v>
+      </c>
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164">
+        <v>1.25</v>
+      </c>
+      <c r="I164">
+        <v>173.5219199</v>
+      </c>
+      <c r="J164">
+        <v>24</v>
+      </c>
+      <c r="K164">
+        <v>5</v>
+      </c>
+      <c r="L164" t="s">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>356.00670780000002</v>
+      </c>
+      <c r="B165">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>1.5</v>
+      </c>
+      <c r="I165">
+        <v>288.55533800000001</v>
+      </c>
+      <c r="J165">
+        <v>24</v>
+      </c>
+      <c r="K165">
+        <v>9</v>
+      </c>
+      <c r="L165" t="s">
+        <v>6</v>
+      </c>
+      <c r="M165">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>375.66067800000002</v>
+      </c>
+      <c r="B166">
+        <v>24</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>1.75</v>
+      </c>
+      <c r="I166">
+        <v>245.46187370000001</v>
+      </c>
+      <c r="J166">
+        <v>24</v>
+      </c>
+      <c r="K166">
+        <v>7</v>
+      </c>
+      <c r="L166" t="s">
+        <v>6</v>
+      </c>
+      <c r="M166">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>606.36553579999998</v>
+      </c>
+      <c r="B167">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>360.8945746</v>
+      </c>
+      <c r="J167">
+        <v>26</v>
+      </c>
+      <c r="K167">
+        <v>9</v>
+      </c>
+      <c r="L167" t="s">
+        <v>7</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>409.53576980000003</v>
+      </c>
+      <c r="B168">
+        <v>24</v>
+      </c>
+      <c r="C168">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>2.25</v>
+      </c>
+      <c r="I168">
+        <v>266.59138350000001</v>
+      </c>
+      <c r="J168">
+        <v>24</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+      <c r="L168" t="s">
+        <v>6</v>
+      </c>
+      <c r="M168">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>565.28238629999998</v>
+      </c>
+      <c r="B169">
+        <v>24</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>2.5</v>
+      </c>
+      <c r="I169">
+        <v>755.89866930000005</v>
+      </c>
+      <c r="J169">
+        <v>24</v>
+      </c>
+      <c r="K169">
+        <v>15</v>
+      </c>
+      <c r="L169" t="s">
+        <v>6</v>
+      </c>
+      <c r="M169">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1487.7082164000001</v>
+      </c>
+      <c r="B170">
+        <v>26</v>
+      </c>
+      <c r="C170">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170">
+        <v>2.75</v>
+      </c>
+      <c r="I170">
+        <v>420.68213420000001</v>
+      </c>
+      <c r="J170">
+        <v>24</v>
+      </c>
+      <c r="K170">
+        <v>6</v>
+      </c>
+      <c r="L170" t="s">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>463.74183420000003</v>
+      </c>
+      <c r="B171">
+        <v>24</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>346.74277419999999</v>
+      </c>
+      <c r="J171">
+        <v>24</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171" t="s">
+        <v>6</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1022.037741</v>
+      </c>
+      <c r="B172">
+        <v>24</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>3.25</v>
+      </c>
+      <c r="I172">
+        <v>597.225774</v>
+      </c>
+      <c r="J172">
+        <v>26</v>
+      </c>
+      <c r="K172">
+        <v>7</v>
+      </c>
+      <c r="L172" t="s">
+        <v>7</v>
+      </c>
+      <c r="M172">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1033.4948694</v>
+      </c>
+      <c r="B173">
+        <v>26</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <v>3.5</v>
+      </c>
+      <c r="I173">
+        <v>712.29929970000001</v>
+      </c>
+      <c r="J173">
+        <v>24</v>
+      </c>
+      <c r="K173">
+        <v>7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>6</v>
+      </c>
+      <c r="M173">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1581.5781973999999</v>
+      </c>
+      <c r="B174">
+        <v>26</v>
+      </c>
+      <c r="C174">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <v>3.75</v>
+      </c>
+      <c r="I174">
+        <v>1454.3200277000001</v>
+      </c>
+      <c r="J174">
+        <v>24</v>
+      </c>
+      <c r="K174">
+        <v>16</v>
+      </c>
+      <c r="L174" t="s">
+        <v>6</v>
+      </c>
+      <c r="M174">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>907.04001830000004</v>
+      </c>
+      <c r="B175">
+        <v>24</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="I175">
+        <v>795.29679050000004</v>
+      </c>
+      <c r="J175">
+        <v>24</v>
+      </c>
+      <c r="K175">
+        <v>7</v>
+      </c>
+      <c r="L175" t="s">
+        <v>6</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1531.0707318</v>
+      </c>
+      <c r="B176">
+        <v>24</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>4.25</v>
+      </c>
+      <c r="I176">
+        <v>1718.9026490000001</v>
+      </c>
+      <c r="J176">
+        <v>24</v>
+      </c>
+      <c r="K176">
+        <v>12</v>
+      </c>
+      <c r="L176" t="s">
+        <v>6</v>
+      </c>
+      <c r="M176">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>3202.2778139000002</v>
+      </c>
+      <c r="B177">
+        <v>26</v>
+      </c>
+      <c r="C177">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>4.5</v>
+      </c>
+      <c r="I177">
+        <v>698.37394849999998</v>
+      </c>
+      <c r="J177">
+        <v>24</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+      <c r="L177" t="s">
+        <v>6</v>
+      </c>
+      <c r="M177">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="I180" t="s">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2</v>
+      </c>
+      <c r="L180" t="s">
+        <v>3</v>
+      </c>
+      <c r="M180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>383.95628440000002</v>
+      </c>
+      <c r="B181" s="2">
+        <v>20</v>
+      </c>
+      <c r="C181" s="2">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I181">
+        <v>205.3509631</v>
+      </c>
+      <c r="J181">
+        <v>20</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+      <c r="L181" t="s">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>415.40627540000003</v>
+      </c>
+      <c r="B182">
+        <v>24</v>
+      </c>
+      <c r="C182">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>0.75</v>
+      </c>
+      <c r="I182">
+        <v>332.81646929999999</v>
+      </c>
+      <c r="J182">
+        <v>24</v>
+      </c>
+      <c r="K182">
+        <v>13</v>
+      </c>
+      <c r="L182" t="s">
+        <v>6</v>
+      </c>
+      <c r="M182">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>458.4371281</v>
+      </c>
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
+        <v>177.45384559999999</v>
+      </c>
+      <c r="J183" s="2">
+        <v>20</v>
+      </c>
+      <c r="K183" s="2">
+        <v>6</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>313.1719453</v>
+      </c>
+      <c r="B184">
+        <v>24</v>
+      </c>
+      <c r="C184">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>1.25</v>
+      </c>
+      <c r="I184">
+        <v>273.99050390000002</v>
+      </c>
+      <c r="J184">
+        <v>20</v>
+      </c>
+      <c r="K184">
+        <v>9</v>
+      </c>
+      <c r="L184" t="s">
+        <v>5</v>
+      </c>
+      <c r="M184">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>277.62651319999998</v>
+      </c>
+      <c r="B185">
+        <v>24</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>1.5</v>
+      </c>
+      <c r="I185">
+        <v>234.45025269999999</v>
+      </c>
+      <c r="J185">
+        <v>24</v>
+      </c>
+      <c r="K185">
+        <v>6</v>
+      </c>
+      <c r="L185" t="s">
+        <v>6</v>
+      </c>
+      <c r="M185">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>331.44168660000003</v>
+      </c>
+      <c r="B186">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>1.75</v>
+      </c>
+      <c r="I186">
+        <v>237.91023179999999</v>
+      </c>
+      <c r="J186">
+        <v>24</v>
+      </c>
+      <c r="K186">
+        <v>7</v>
+      </c>
+      <c r="L186" t="s">
+        <v>6</v>
+      </c>
+      <c r="M186">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>298.08579900000001</v>
+      </c>
+      <c r="B187">
+        <v>24</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>237.58577819999999</v>
+      </c>
+      <c r="J187">
+        <v>24</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187" t="s">
+        <v>6</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>365.57934729999999</v>
+      </c>
+      <c r="B188">
+        <v>24</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188">
+        <v>2.25</v>
+      </c>
+      <c r="I188">
+        <v>637.03490320000003</v>
+      </c>
+      <c r="J188">
+        <v>26</v>
+      </c>
+      <c r="K188">
+        <v>14</v>
+      </c>
+      <c r="L188" t="s">
+        <v>7</v>
+      </c>
+      <c r="M188">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>545.49456469999996</v>
+      </c>
+      <c r="B189">
+        <v>24</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>2.5</v>
+      </c>
+      <c r="I189">
+        <v>421.53779129999998</v>
+      </c>
+      <c r="J189">
+        <v>24</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+      <c r="L189" t="s">
+        <v>6</v>
+      </c>
+      <c r="M189">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>452.48494190000002</v>
+      </c>
+      <c r="B190">
+        <v>24</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>2.75</v>
+      </c>
+      <c r="I190">
+        <v>390.20901889999999</v>
+      </c>
+      <c r="J190">
+        <v>26</v>
+      </c>
+      <c r="K190">
+        <v>7</v>
+      </c>
+      <c r="L190" t="s">
+        <v>7</v>
+      </c>
+      <c r="M190">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>883.76949909999996</v>
+      </c>
+      <c r="B191">
+        <v>24</v>
+      </c>
+      <c r="C191">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>616.95948769999995</v>
+      </c>
+      <c r="J191">
+        <v>24</v>
+      </c>
+      <c r="K191">
+        <v>10</v>
+      </c>
+      <c r="L191" t="s">
+        <v>6</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1199.0182153000001</v>
+      </c>
+      <c r="B192">
+        <v>24</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>3.25</v>
+      </c>
+      <c r="I192">
+        <v>448.72885710000003</v>
+      </c>
+      <c r="J192">
+        <v>24</v>
+      </c>
+      <c r="K192">
+        <v>5</v>
+      </c>
+      <c r="L192" t="s">
+        <v>6</v>
+      </c>
+      <c r="M192">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1011.8363529</v>
+      </c>
+      <c r="B193">
+        <v>24</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>3.5</v>
+      </c>
+      <c r="I193">
+        <v>1086.2672932</v>
+      </c>
+      <c r="J193">
+        <v>24</v>
+      </c>
+      <c r="K193">
+        <v>12</v>
+      </c>
+      <c r="L193" t="s">
+        <v>6</v>
+      </c>
+      <c r="M193">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1669.3212109000001</v>
+      </c>
+      <c r="B194">
+        <v>26</v>
+      </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <v>3.75</v>
+      </c>
+      <c r="I194">
+        <v>1118.9814074000001</v>
+      </c>
+      <c r="J194">
+        <v>24</v>
+      </c>
+      <c r="K194">
+        <v>10</v>
+      </c>
+      <c r="L194" t="s">
+        <v>6</v>
+      </c>
+      <c r="M194">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2089.8365887999998</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>1035.4290473999999</v>
+      </c>
+      <c r="J195">
+        <v>24</v>
+      </c>
+      <c r="K195">
+        <v>9</v>
+      </c>
+      <c r="L195" t="s">
+        <v>6</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2111.3776090000001</v>
+      </c>
+      <c r="B196">
+        <v>24</v>
+      </c>
+      <c r="C196">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>4.25</v>
+      </c>
+      <c r="I196">
+        <v>825.76465659999997</v>
+      </c>
+      <c r="J196">
+        <v>24</v>
+      </c>
+      <c r="K196">
+        <v>5</v>
+      </c>
+      <c r="L196" t="s">
+        <v>6</v>
+      </c>
+      <c r="M196">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2765.4658042999999</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>4.5</v>
+      </c>
+      <c r="I197">
+        <v>1366.533396</v>
+      </c>
+      <c r="J197">
+        <v>26</v>
+      </c>
+      <c r="K197">
+        <v>7</v>
+      </c>
+      <c r="L197" t="s">
+        <v>7</v>
+      </c>
+      <c r="M197">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" t="s">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1</v>
+      </c>
+      <c r="K200" t="s">
+        <v>2</v>
+      </c>
+      <c r="L200" t="s">
+        <v>3</v>
+      </c>
+      <c r="M200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>284.35802269999999</v>
+      </c>
+      <c r="B201" s="2">
+        <v>20</v>
+      </c>
+      <c r="C201" s="2">
+        <v>10</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I201">
+        <v>167.6157144</v>
+      </c>
+      <c r="J201">
+        <v>20</v>
+      </c>
+      <c r="K201">
+        <v>6</v>
+      </c>
+      <c r="L201" t="s">
+        <v>5</v>
+      </c>
+      <c r="M201">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>361.84497570000002</v>
+      </c>
+      <c r="B202">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202">
+        <v>0.75</v>
+      </c>
+      <c r="I202">
+        <v>168.01545680000001</v>
+      </c>
+      <c r="J202">
+        <v>22</v>
+      </c>
+      <c r="K202">
+        <v>8</v>
+      </c>
+      <c r="L202" t="s">
+        <v>6</v>
+      </c>
+      <c r="M202">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>356.2354393</v>
+      </c>
+      <c r="B203">
+        <v>24</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="I203" s="2">
+        <v>156.43536599999999</v>
+      </c>
+      <c r="J203" s="2">
+        <v>20</v>
+      </c>
+      <c r="K203" s="2">
+        <v>6</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>273.85936709999999</v>
+      </c>
+      <c r="B204">
+        <v>24</v>
+      </c>
+      <c r="C204">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204">
+        <v>1.25</v>
+      </c>
+      <c r="I204">
+        <v>368.95733050000001</v>
+      </c>
+      <c r="J204">
+        <v>24</v>
+      </c>
+      <c r="K204">
+        <v>12</v>
+      </c>
+      <c r="L204" t="s">
+        <v>6</v>
+      </c>
+      <c r="M204">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>308.97325030000002</v>
+      </c>
+      <c r="B205">
+        <v>24</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <v>1.5</v>
+      </c>
+      <c r="I205">
+        <v>208.6386545</v>
+      </c>
+      <c r="J205">
+        <v>24</v>
+      </c>
+      <c r="K205">
+        <v>6</v>
+      </c>
+      <c r="L205" t="s">
+        <v>6</v>
+      </c>
+      <c r="M205">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>327.15608609999998</v>
+      </c>
+      <c r="B206">
+        <v>24</v>
+      </c>
+      <c r="C206">
+        <v>9</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <v>1.75</v>
+      </c>
+      <c r="I206">
+        <v>184.1913418</v>
+      </c>
+      <c r="J206">
+        <v>24</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206" t="s">
+        <v>6</v>
+      </c>
+      <c r="M206">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>801.14201730000002</v>
+      </c>
+      <c r="B207">
+        <v>24</v>
+      </c>
+      <c r="C207">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>477.53527730000002</v>
+      </c>
+      <c r="J207">
+        <v>24</v>
+      </c>
+      <c r="K207">
+        <v>12</v>
+      </c>
+      <c r="L207" t="s">
+        <v>6</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>379.87168600000001</v>
+      </c>
+      <c r="B208">
+        <v>24</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>2.25</v>
+      </c>
+      <c r="I208">
+        <v>270.7518311</v>
+      </c>
+      <c r="J208">
+        <v>24</v>
+      </c>
+      <c r="K208">
+        <v>6</v>
+      </c>
+      <c r="L208" t="s">
+        <v>6</v>
+      </c>
+      <c r="M208">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>542.32580900000005</v>
+      </c>
+      <c r="B209">
+        <v>24</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <v>2.5</v>
+      </c>
+      <c r="I209">
+        <v>385.80715450000002</v>
+      </c>
+      <c r="J209">
+        <v>24</v>
+      </c>
+      <c r="K209">
+        <v>7</v>
+      </c>
+      <c r="L209" t="s">
+        <v>6</v>
+      </c>
+      <c r="M209">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>811.51872409999999</v>
+      </c>
+      <c r="B210">
+        <v>24</v>
+      </c>
+      <c r="C210">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>2.75</v>
+      </c>
+      <c r="I210">
+        <v>395.9201865</v>
+      </c>
+      <c r="J210">
+        <v>24</v>
+      </c>
+      <c r="K210">
+        <v>7</v>
+      </c>
+      <c r="L210" t="s">
+        <v>6</v>
+      </c>
+      <c r="M210">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>916.04881890000001</v>
+      </c>
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>352.95279699999998</v>
+      </c>
+      <c r="J211">
+        <v>26</v>
+      </c>
+      <c r="K211">
+        <v>5</v>
+      </c>
+      <c r="L211" t="s">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1525.7634768</v>
+      </c>
+      <c r="B212">
+        <v>24</v>
+      </c>
+      <c r="C212">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>3.25</v>
+      </c>
+      <c r="I212">
+        <v>704.1450145</v>
+      </c>
+      <c r="J212">
+        <v>26</v>
+      </c>
+      <c r="K212">
+        <v>9</v>
+      </c>
+      <c r="L212" t="s">
+        <v>7</v>
+      </c>
+      <c r="M212">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1037.1041651999999</v>
+      </c>
+      <c r="B213">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>3.5</v>
+      </c>
+      <c r="I213">
+        <v>658.05281990000003</v>
+      </c>
+      <c r="J213">
+        <v>26</v>
+      </c>
+      <c r="K213">
+        <v>6</v>
+      </c>
+      <c r="L213" t="s">
+        <v>7</v>
+      </c>
+      <c r="M213">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>753.80937730000005</v>
+      </c>
+      <c r="B214">
+        <v>24</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214">
+        <v>3.75</v>
+      </c>
+      <c r="I214">
+        <v>756.59549119999997</v>
+      </c>
+      <c r="J214">
+        <v>24</v>
+      </c>
+      <c r="K214">
+        <v>7</v>
+      </c>
+      <c r="L214" t="s">
+        <v>6</v>
+      </c>
+      <c r="M214">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1470.5991031000001</v>
+      </c>
+      <c r="B215">
+        <v>24</v>
+      </c>
+      <c r="C215">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>713.30840309999996</v>
+      </c>
+      <c r="J215">
+        <v>26</v>
+      </c>
+      <c r="K215">
+        <v>6</v>
+      </c>
+      <c r="L215" t="s">
+        <v>7</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2496.0743637</v>
+      </c>
+      <c r="B216">
+        <v>24</v>
+      </c>
+      <c r="C216">
+        <v>19</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <v>4.25</v>
+      </c>
+      <c r="I216">
+        <v>2293.8111217999999</v>
+      </c>
+      <c r="J216">
+        <v>26</v>
+      </c>
+      <c r="K216">
+        <v>17</v>
+      </c>
+      <c r="L216" t="s">
+        <v>7</v>
+      </c>
+      <c r="M216">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1863.5251321999999</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>4.5</v>
+      </c>
+      <c r="I217">
+        <v>1304.5000362000001</v>
+      </c>
+      <c r="J217">
+        <v>26</v>
+      </c>
+      <c r="K217">
+        <v>7</v>
+      </c>
+      <c r="L217" t="s">
+        <v>7</v>
+      </c>
+      <c r="M217">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" t="s">
+        <v>9</v>
+      </c>
+      <c r="I221" t="s">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1</v>
+      </c>
+      <c r="K221" t="s">
+        <v>2</v>
+      </c>
+      <c r="L221" t="s">
+        <v>3</v>
+      </c>
+      <c r="M221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>314.0704485</v>
+      </c>
+      <c r="B222" s="4">
+        <v>20</v>
+      </c>
+      <c r="C222" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" s="4">
+        <v>168.39195140000001</v>
+      </c>
+      <c r="J222" s="4">
+        <v>20</v>
+      </c>
+      <c r="K222" s="4">
+        <v>6</v>
+      </c>
+      <c r="L222" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M222" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>404.350686</v>
+      </c>
+      <c r="B223" s="4">
+        <v>20</v>
+      </c>
+      <c r="C223" s="4">
+        <v>17</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223" s="4">
+        <v>193.7400288</v>
+      </c>
+      <c r="J223" s="4">
+        <v>22</v>
+      </c>
+      <c r="K223" s="4">
+        <v>8</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M223" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>565.80341989999999</v>
+      </c>
+      <c r="B224" s="4">
+        <v>22</v>
+      </c>
+      <c r="C224" s="4">
+        <v>20</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H224">
+        <v>3</v>
+      </c>
+      <c r="I224" s="4">
+        <v>187.80544029999999</v>
+      </c>
+      <c r="J224" s="4">
+        <v>20</v>
+      </c>
+      <c r="K224" s="4">
+        <v>8</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M224" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>241.88693309999999</v>
+      </c>
+      <c r="B225" s="4">
+        <v>20</v>
+      </c>
+      <c r="C225" s="4">
+        <v>9</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H225">
+        <v>4</v>
+      </c>
+      <c r="I225" s="4">
+        <v>166.39626569999999</v>
+      </c>
+      <c r="J225" s="4">
+        <v>20</v>
+      </c>
+      <c r="K225" s="4">
+        <v>7</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M225" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>265.33720520000003</v>
+      </c>
+      <c r="B226" s="4">
+        <v>20</v>
+      </c>
+      <c r="C226" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H226">
+        <v>5</v>
+      </c>
+      <c r="I226" s="4">
+        <v>138.45374340000001</v>
+      </c>
+      <c r="J226" s="4">
+        <v>20</v>
+      </c>
+      <c r="K226" s="4">
+        <v>7</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M226" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>325.530078</v>
+      </c>
+      <c r="B227" s="4">
+        <v>20</v>
+      </c>
+      <c r="C227" s="4">
+        <v>13</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
+      </c>
+      <c r="I227" s="4">
+        <v>164.07697279999999</v>
+      </c>
+      <c r="J227" s="4">
+        <v>20</v>
+      </c>
+      <c r="K227" s="4">
+        <v>7</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M227" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>214.33636609999999</v>
+      </c>
+      <c r="B228" s="4">
+        <v>20</v>
+      </c>
+      <c r="C228" s="4">
+        <v>8</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H228">
+        <v>7</v>
+      </c>
+      <c r="I228" s="4">
+        <v>155.83041750000001</v>
+      </c>
+      <c r="J228" s="4">
+        <v>20</v>
+      </c>
+      <c r="K228" s="4">
+        <v>7</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M228" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>246.46736100000001</v>
+      </c>
+      <c r="B229" s="4">
+        <v>20</v>
+      </c>
+      <c r="C229" s="4">
+        <v>9</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H229">
+        <v>8</v>
+      </c>
+      <c r="I229" s="4">
+        <v>198.9010696</v>
+      </c>
+      <c r="J229" s="4">
+        <v>20</v>
+      </c>
+      <c r="K229" s="4">
+        <v>7</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M229" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>383.95628440000002</v>
+      </c>
+      <c r="B230" s="4">
+        <v>20</v>
+      </c>
+      <c r="C230" s="4">
+        <v>17</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H230">
+        <v>9</v>
+      </c>
+      <c r="I230" s="4">
+        <v>177.45384559999999</v>
+      </c>
+      <c r="J230" s="4">
+        <v>20</v>
+      </c>
+      <c r="K230" s="4">
+        <v>6</v>
+      </c>
+      <c r="L230" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>284.35802269999999</v>
+      </c>
+      <c r="B231" s="4">
+        <v>20</v>
+      </c>
+      <c r="C231" s="4">
+        <v>10</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H231">
+        <v>10</v>
+      </c>
+      <c r="I231" s="4">
+        <v>156.43536599999999</v>
+      </c>
+      <c r="J231" s="4">
+        <v>20</v>
+      </c>
+      <c r="K231" s="4">
+        <v>6</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E232" cm="1">
+        <f t="array" ref="E232">_xlfn.MODE.MULT(E222:E231)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M232" cm="1">
+        <f t="array" ref="M232">_xlfn.MODE.MULT(M222:M231)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7631,251 +13677,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BED1BB-CAA5-484A-9284-2A0A18702732}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>166.1462258</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>196.0775045</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>171.23745919999999</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>139.73682299999999</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>156.52188530000001</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>142.9290154</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>189.6907329</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>176.1190521</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.8333333333333304</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>162.63702169999999</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>154.91309369999999</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>144.89930419999999</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>124.0608041</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>150.6465887</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BCBD57-241C-46B1-9CF5-CE890E8E4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD25FD2-7002-4EB1-886A-08243FA59AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="3" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="19">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -13688,8 +13688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BED1BB-CAA5-484A-9284-2A0A18702732}">
   <dimension ref="A1:N927"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A655" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E657" sqref="E657:E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29374,19 +29374,19 @@
       </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A545">
+      <c r="A545" s="2">
         <v>212.9717133</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="2">
         <v>18</v>
       </c>
-      <c r="C545">
+      <c r="C545" s="2">
         <v>9</v>
       </c>
-      <c r="D545" t="s">
-        <v>5</v>
-      </c>
-      <c r="E545">
+      <c r="D545" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E545" s="2">
         <v>1</v>
       </c>
       <c r="H545">
@@ -29726,19 +29726,19 @@
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A556" s="2">
+      <c r="A556" s="4">
         <v>145.1750432</v>
       </c>
-      <c r="B556" s="2">
-        <v>20</v>
-      </c>
-      <c r="C556" s="2">
-        <v>6</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E556" s="2">
+      <c r="B556" s="4">
+        <v>20</v>
+      </c>
+      <c r="C556" s="4">
+        <v>6</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E556" s="4">
         <v>3.2</v>
       </c>
       <c r="H556" s="2">
@@ -29859,7 +29859,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <f>MIN(A541:A560)</f>
+        <v>145.1750432</v>
+      </c>
       <c r="H561" t="s">
         <v>0</v>
       </c>
@@ -29876,7 +29880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H562">
         <v>255.72142719999999</v>
       </c>
@@ -29893,7 +29897,22 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="563" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>3</v>
+      </c>
+      <c r="E563" t="s">
+        <v>16</v>
+      </c>
       <c r="H563">
         <v>348.70925210000001</v>
       </c>
@@ -29910,7 +29929,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="564" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>317.88145509999998</v>
+      </c>
+      <c r="B564">
+        <v>20</v>
+      </c>
+      <c r="C564">
+        <v>11</v>
+      </c>
+      <c r="D564" t="s">
+        <v>5</v>
+      </c>
+      <c r="E564">
+        <v>0.2</v>
+      </c>
       <c r="H564">
         <v>292.21741179999998</v>
       </c>
@@ -29927,7 +29961,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="565" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>457.86529380000002</v>
+      </c>
+      <c r="B565">
+        <v>24</v>
+      </c>
+      <c r="C565">
+        <v>27</v>
+      </c>
+      <c r="D565" t="s">
+        <v>6</v>
+      </c>
+      <c r="E565">
+        <v>0.4</v>
+      </c>
       <c r="H565">
         <v>306.71153299999997</v>
       </c>
@@ -29944,7 +29993,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="566" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>266.38369899999998</v>
+      </c>
+      <c r="B566">
+        <v>20</v>
+      </c>
+      <c r="C566">
+        <v>9</v>
+      </c>
+      <c r="D566" t="s">
+        <v>5</v>
+      </c>
+      <c r="E566">
+        <v>0.6</v>
+      </c>
       <c r="H566">
         <v>273.69082320000001</v>
       </c>
@@ -29961,7 +30025,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>300.95595839999999</v>
+      </c>
+      <c r="B567">
+        <v>20</v>
+      </c>
+      <c r="C567">
+        <v>11</v>
+      </c>
+      <c r="D567" t="s">
+        <v>5</v>
+      </c>
+      <c r="E567">
+        <v>0.8</v>
+      </c>
       <c r="H567" s="2">
         <v>272.04015470000002</v>
       </c>
@@ -29978,7 +30057,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="568" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>185.5749505</v>
+      </c>
+      <c r="B568" s="2">
+        <v>20</v>
+      </c>
+      <c r="C568" s="2">
+        <v>8</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E568" s="2">
+        <v>1</v>
+      </c>
       <c r="H568">
         <v>417.63159489999998</v>
       </c>
@@ -29995,7 +30089,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="569" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>450.65208810000001</v>
+      </c>
+      <c r="B569">
+        <v>20</v>
+      </c>
+      <c r="C569">
+        <v>15</v>
+      </c>
+      <c r="D569" t="s">
+        <v>5</v>
+      </c>
+      <c r="E569">
+        <v>1.2</v>
+      </c>
       <c r="H569">
         <v>358.53575110000003</v>
       </c>
@@ -30012,7 +30121,22 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="570" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>246.7205477</v>
+      </c>
+      <c r="B570">
+        <v>20</v>
+      </c>
+      <c r="C570">
+        <v>8</v>
+      </c>
+      <c r="D570" t="s">
+        <v>5</v>
+      </c>
+      <c r="E570">
+        <v>1.4</v>
+      </c>
       <c r="H570">
         <v>262.13172839999999</v>
       </c>
@@ -30029,7 +30153,22 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="571" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>271.16758859999999</v>
+      </c>
+      <c r="B571">
+        <v>20</v>
+      </c>
+      <c r="C571">
+        <v>10</v>
+      </c>
+      <c r="D571" t="s">
+        <v>5</v>
+      </c>
+      <c r="E571">
+        <v>1.6</v>
+      </c>
       <c r="H571">
         <v>262.82180080000001</v>
       </c>
@@ -30046,7 +30185,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>382.90250980000002</v>
+      </c>
+      <c r="B572">
+        <v>20</v>
+      </c>
+      <c r="C572">
+        <v>13</v>
+      </c>
+      <c r="D572" t="s">
+        <v>5</v>
+      </c>
+      <c r="E572">
+        <v>1.8</v>
+      </c>
       <c r="H572">
         <v>287.04972759999998</v>
       </c>
@@ -30063,7 +30217,22 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="573" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>287.16399569999999</v>
+      </c>
+      <c r="B573">
+        <v>20</v>
+      </c>
+      <c r="C573">
+        <v>9</v>
+      </c>
+      <c r="D573" t="s">
+        <v>5</v>
+      </c>
+      <c r="E573">
+        <v>2</v>
+      </c>
       <c r="H573">
         <v>505.35637869999999</v>
       </c>
@@ -30080,7 +30249,22 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="574" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>324.50108770000003</v>
+      </c>
+      <c r="B574">
+        <v>20</v>
+      </c>
+      <c r="C574">
+        <v>12</v>
+      </c>
+      <c r="D574" t="s">
+        <v>5</v>
+      </c>
+      <c r="E574">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="H574">
         <v>306.42551550000002</v>
       </c>
@@ -30097,7 +30281,22 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="575" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>261.19398919999998</v>
+      </c>
+      <c r="B575">
+        <v>20</v>
+      </c>
+      <c r="C575">
+        <v>10</v>
+      </c>
+      <c r="D575" t="s">
+        <v>5</v>
+      </c>
+      <c r="E575">
+        <v>2.4</v>
+      </c>
       <c r="H575">
         <v>482.4013286</v>
       </c>
@@ -30114,7 +30313,22 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="576" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>319.66645360000001</v>
+      </c>
+      <c r="B576">
+        <v>20</v>
+      </c>
+      <c r="C576">
+        <v>12</v>
+      </c>
+      <c r="D576" t="s">
+        <v>5</v>
+      </c>
+      <c r="E576">
+        <v>2.6</v>
+      </c>
       <c r="H576" s="4">
         <v>230.94001610000001</v>
       </c>
@@ -30131,7 +30345,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>316.24327570000003</v>
+      </c>
+      <c r="B577">
+        <v>20</v>
+      </c>
+      <c r="C577">
+        <v>13</v>
+      </c>
+      <c r="D577" t="s">
+        <v>5</v>
+      </c>
+      <c r="E577">
+        <v>2.8</v>
+      </c>
       <c r="H577">
         <v>238.03363999999999</v>
       </c>
@@ -30148,7 +30377,22 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="578" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>376.27418729999999</v>
+      </c>
+      <c r="B578">
+        <v>24</v>
+      </c>
+      <c r="C578">
+        <v>15</v>
+      </c>
+      <c r="D578" t="s">
+        <v>6</v>
+      </c>
+      <c r="E578">
+        <v>3</v>
+      </c>
       <c r="H578">
         <v>244.0383132</v>
       </c>
@@ -30165,7 +30409,22 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="579" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>390.5983463</v>
+      </c>
+      <c r="B579">
+        <v>20</v>
+      </c>
+      <c r="C579">
+        <v>17</v>
+      </c>
+      <c r="D579" t="s">
+        <v>5</v>
+      </c>
+      <c r="E579">
+        <v>3.2</v>
+      </c>
       <c r="H579">
         <v>232.86503289999999</v>
       </c>
@@ -30182,7 +30441,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="580" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>464.10944439999997</v>
+      </c>
+      <c r="B580">
+        <v>20</v>
+      </c>
+      <c r="C580">
+        <v>20</v>
+      </c>
+      <c r="D580" t="s">
+        <v>5</v>
+      </c>
+      <c r="E580">
+        <v>3.4</v>
+      </c>
       <c r="H580">
         <v>307.8735944</v>
       </c>
@@ -30199,7 +30473,22 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="581" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>258.5396988</v>
+      </c>
+      <c r="B581">
+        <v>20</v>
+      </c>
+      <c r="C581">
+        <v>9</v>
+      </c>
+      <c r="D581" t="s">
+        <v>5</v>
+      </c>
+      <c r="E581">
+        <v>3.6</v>
+      </c>
       <c r="H581">
         <v>243.15857600000001</v>
       </c>
@@ -30216,13 +30505,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>289.2443303</v>
+      </c>
+      <c r="B582">
+        <v>20</v>
+      </c>
+      <c r="C582">
+        <v>11</v>
+      </c>
+      <c r="D582" t="s">
+        <v>5</v>
+      </c>
+      <c r="E582">
+        <v>3.8</v>
+      </c>
       <c r="H582">
         <f>MIN(H562:H581)</f>
         <v>230.94001610000001</v>
       </c>
     </row>
-    <row r="584" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>324.82544460000003</v>
+      </c>
+      <c r="B583">
+        <v>20</v>
+      </c>
+      <c r="C583">
+        <v>13</v>
+      </c>
+      <c r="D583" t="s">
+        <v>5</v>
+      </c>
+      <c r="E583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <f>MIN(A564:A583)</f>
+        <v>185.5749505</v>
+      </c>
       <c r="H584" t="s">
         <v>0</v>
       </c>
@@ -30239,7 +30564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H585">
         <v>371.4733195</v>
       </c>
@@ -30256,7 +30581,22 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="586" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>0</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2</v>
+      </c>
+      <c r="D586" t="s">
+        <v>3</v>
+      </c>
+      <c r="E586" t="s">
+        <v>16</v>
+      </c>
       <c r="H586">
         <v>332.12111040000002</v>
       </c>
@@ -30273,7 +30613,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="587" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>211.20055579999999</v>
+      </c>
+      <c r="B587" s="2">
+        <v>20</v>
+      </c>
+      <c r="C587" s="2">
+        <v>8</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E587" s="2">
+        <v>0.2</v>
+      </c>
       <c r="H587">
         <v>345.68392870000002</v>
       </c>
@@ -30290,7 +30645,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="588" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>222.6869792</v>
+      </c>
+      <c r="B588">
+        <v>20</v>
+      </c>
+      <c r="C588">
+        <v>8</v>
+      </c>
+      <c r="D588" t="s">
+        <v>5</v>
+      </c>
+      <c r="E588">
+        <v>0.4</v>
+      </c>
       <c r="H588">
         <v>300.77616089999998</v>
       </c>
@@ -30307,7 +30677,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="589" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>252.00043779999999</v>
+      </c>
+      <c r="B589">
+        <v>20</v>
+      </c>
+      <c r="C589">
+        <v>9</v>
+      </c>
+      <c r="D589" t="s">
+        <v>5</v>
+      </c>
+      <c r="E589">
+        <v>0.6</v>
+      </c>
       <c r="H589">
         <v>324.0554879</v>
       </c>
@@ -30324,7 +30709,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>258.70289009999999</v>
+      </c>
+      <c r="B590">
+        <v>20</v>
+      </c>
+      <c r="C590">
+        <v>11</v>
+      </c>
+      <c r="D590" t="s">
+        <v>5</v>
+      </c>
+      <c r="E590">
+        <v>0.8</v>
+      </c>
       <c r="H590">
         <v>418.73675969999999</v>
       </c>
@@ -30341,7 +30741,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="591" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>265.79849849999999</v>
+      </c>
+      <c r="B591">
+        <v>20</v>
+      </c>
+      <c r="C591">
+        <v>10</v>
+      </c>
+      <c r="D591" t="s">
+        <v>5</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
       <c r="H591">
         <v>309.88937329999999</v>
       </c>
@@ -30358,7 +30773,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="592" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>309.64781840000001</v>
+      </c>
+      <c r="B592">
+        <v>20</v>
+      </c>
+      <c r="C592">
+        <v>11</v>
+      </c>
+      <c r="D592" t="s">
+        <v>5</v>
+      </c>
+      <c r="E592">
+        <v>1.2</v>
+      </c>
       <c r="H592">
         <v>253.9189509</v>
       </c>
@@ -30375,7 +30805,22 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="593" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>281.73423009999999</v>
+      </c>
+      <c r="B593">
+        <v>24</v>
+      </c>
+      <c r="C593">
+        <v>10</v>
+      </c>
+      <c r="D593" t="s">
+        <v>6</v>
+      </c>
+      <c r="E593">
+        <v>1.4</v>
+      </c>
       <c r="H593">
         <v>290.39394449999998</v>
       </c>
@@ -30392,7 +30837,22 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="594" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>227.783804</v>
+      </c>
+      <c r="B594">
+        <v>20</v>
+      </c>
+      <c r="C594">
+        <v>9</v>
+      </c>
+      <c r="D594" t="s">
+        <v>5</v>
+      </c>
+      <c r="E594">
+        <v>1.6</v>
+      </c>
       <c r="H594">
         <v>268.8377089</v>
       </c>
@@ -30409,7 +30869,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>304.68219379999999</v>
+      </c>
+      <c r="B595">
+        <v>20</v>
+      </c>
+      <c r="C595">
+        <v>12</v>
+      </c>
+      <c r="D595" t="s">
+        <v>5</v>
+      </c>
+      <c r="E595">
+        <v>1.8</v>
+      </c>
       <c r="H595">
         <v>314.32256089999998</v>
       </c>
@@ -30426,7 +30901,22 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="596" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>386.97762799999998</v>
+      </c>
+      <c r="B596">
+        <v>20</v>
+      </c>
+      <c r="C596">
+        <v>15</v>
+      </c>
+      <c r="D596" t="s">
+        <v>5</v>
+      </c>
+      <c r="E596">
+        <v>2</v>
+      </c>
       <c r="H596">
         <v>285.42001490000001</v>
       </c>
@@ -30443,7 +30933,22 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="597" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>216.26656500000001</v>
+      </c>
+      <c r="B597">
+        <v>24</v>
+      </c>
+      <c r="C597">
+        <v>9</v>
+      </c>
+      <c r="D597" t="s">
+        <v>6</v>
+      </c>
+      <c r="E597">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="H597">
         <v>287.03136389999997</v>
       </c>
@@ -30460,7 +30965,22 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="598" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>354.21671789999999</v>
+      </c>
+      <c r="B598">
+        <v>20</v>
+      </c>
+      <c r="C598">
+        <v>12</v>
+      </c>
+      <c r="D598" t="s">
+        <v>5</v>
+      </c>
+      <c r="E598">
+        <v>2.4</v>
+      </c>
       <c r="H598" s="2">
         <v>242.21021999999999</v>
       </c>
@@ -30477,7 +30997,22 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="599" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>226.80927370000001</v>
+      </c>
+      <c r="B599">
+        <v>20</v>
+      </c>
+      <c r="C599">
+        <v>9</v>
+      </c>
+      <c r="D599" t="s">
+        <v>5</v>
+      </c>
+      <c r="E599">
+        <v>2.6</v>
+      </c>
       <c r="H599">
         <v>288.10189759999997</v>
       </c>
@@ -30494,7 +31029,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>325.76066459999998</v>
+      </c>
+      <c r="B600">
+        <v>20</v>
+      </c>
+      <c r="C600">
+        <v>12</v>
+      </c>
+      <c r="D600" t="s">
+        <v>5</v>
+      </c>
+      <c r="E600">
+        <v>2.8</v>
+      </c>
       <c r="H600">
         <v>263.53201610000002</v>
       </c>
@@ -30511,7 +31061,22 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="601" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>259.23471819999997</v>
+      </c>
+      <c r="B601">
+        <v>20</v>
+      </c>
+      <c r="C601">
+        <v>10</v>
+      </c>
+      <c r="D601" t="s">
+        <v>5</v>
+      </c>
+      <c r="E601">
+        <v>3</v>
+      </c>
       <c r="H601">
         <v>272.57233550000001</v>
       </c>
@@ -30528,7 +31093,22 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="602" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>249.44567180000001</v>
+      </c>
+      <c r="B602">
+        <v>20</v>
+      </c>
+      <c r="C602">
+        <v>10</v>
+      </c>
+      <c r="D602" t="s">
+        <v>5</v>
+      </c>
+      <c r="E602">
+        <v>3.2</v>
+      </c>
       <c r="H602">
         <v>296.233678</v>
       </c>
@@ -30545,7 +31125,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="603" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>249.99151689999999</v>
+      </c>
+      <c r="B603">
+        <v>20</v>
+      </c>
+      <c r="C603">
+        <v>10</v>
+      </c>
+      <c r="D603" t="s">
+        <v>5</v>
+      </c>
+      <c r="E603">
+        <v>3.4</v>
+      </c>
       <c r="H603">
         <v>338.71514089999999</v>
       </c>
@@ -30562,7 +31157,22 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="604" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>222.6417223</v>
+      </c>
+      <c r="B604">
+        <v>20</v>
+      </c>
+      <c r="C604">
+        <v>9</v>
+      </c>
+      <c r="D604" t="s">
+        <v>5</v>
+      </c>
+      <c r="E604">
+        <v>3.6</v>
+      </c>
       <c r="H604">
         <v>312.14261549999998</v>
       </c>
@@ -30579,13 +31189,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>329.27351709999999</v>
+      </c>
+      <c r="B605">
+        <v>20</v>
+      </c>
+      <c r="C605">
+        <v>16</v>
+      </c>
+      <c r="D605" t="s">
+        <v>5</v>
+      </c>
+      <c r="E605">
+        <v>3.8</v>
+      </c>
       <c r="H605">
         <f>MIN(H585:H604)</f>
         <v>242.21021999999999</v>
       </c>
     </row>
-    <row r="607" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>425.98395260000001</v>
+      </c>
+      <c r="B606">
+        <v>20</v>
+      </c>
+      <c r="C606">
+        <v>16</v>
+      </c>
+      <c r="D606" t="s">
+        <v>5</v>
+      </c>
+      <c r="E606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <f>MIN(A587:A606)</f>
+        <v>211.20055579999999</v>
+      </c>
       <c r="H607" t="s">
         <v>0</v>
       </c>
@@ -30602,7 +31248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="608" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H608">
         <v>292.81512040000001</v>
       </c>
@@ -30622,7 +31268,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>0</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1</v>
+      </c>
+      <c r="C609" t="s">
+        <v>2</v>
+      </c>
+      <c r="D609" t="s">
+        <v>3</v>
+      </c>
+      <c r="E609" t="s">
+        <v>16</v>
+      </c>
       <c r="H609">
         <v>440.33011900000002</v>
       </c>
@@ -30639,7 +31300,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="610" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>279.35331710000003</v>
+      </c>
+      <c r="B610">
+        <v>20</v>
+      </c>
+      <c r="C610">
+        <v>10</v>
+      </c>
+      <c r="D610" t="s">
+        <v>5</v>
+      </c>
+      <c r="E610">
+        <v>0.2</v>
+      </c>
       <c r="H610">
         <v>329.28311600000001</v>
       </c>
@@ -30656,7 +31332,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="611" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>310.23876669999999</v>
+      </c>
+      <c r="B611">
+        <v>20</v>
+      </c>
+      <c r="C611">
+        <v>12</v>
+      </c>
+      <c r="D611" t="s">
+        <v>5</v>
+      </c>
+      <c r="E611">
+        <v>0.4</v>
+      </c>
       <c r="H611">
         <v>231.99736050000001</v>
       </c>
@@ -30673,7 +31364,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="612" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>278.08731460000001</v>
+      </c>
+      <c r="B612">
+        <v>20</v>
+      </c>
+      <c r="C612">
+        <v>11</v>
+      </c>
+      <c r="D612" t="s">
+        <v>5</v>
+      </c>
+      <c r="E612">
+        <v>0.6</v>
+      </c>
       <c r="H612">
         <v>404.40055380000001</v>
       </c>
@@ -30690,7 +31396,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>305.03032309999998</v>
+      </c>
+      <c r="B613">
+        <v>20</v>
+      </c>
+      <c r="C613">
+        <v>11</v>
+      </c>
+      <c r="D613" t="s">
+        <v>5</v>
+      </c>
+      <c r="E613">
+        <v>0.8</v>
+      </c>
       <c r="H613">
         <v>294.37707769999997</v>
       </c>
@@ -30707,7 +31428,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="614" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>254.51754</v>
+      </c>
+      <c r="B614">
+        <v>20</v>
+      </c>
+      <c r="C614">
+        <v>9</v>
+      </c>
+      <c r="D614" t="s">
+        <v>5</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
       <c r="H614">
         <v>353.63504390000003</v>
       </c>
@@ -30724,7 +31460,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="615" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>285.51852259999998</v>
+      </c>
+      <c r="B615">
+        <v>22</v>
+      </c>
+      <c r="C615">
+        <v>10</v>
+      </c>
+      <c r="D615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615">
+        <v>1.2</v>
+      </c>
       <c r="H615">
         <v>314.44383829999998</v>
       </c>
@@ -30741,7 +31492,22 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="616" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>250.65841359999999</v>
+      </c>
+      <c r="B616">
+        <v>20</v>
+      </c>
+      <c r="C616">
+        <v>9</v>
+      </c>
+      <c r="D616" t="s">
+        <v>5</v>
+      </c>
+      <c r="E616">
+        <v>1.4</v>
+      </c>
       <c r="H616">
         <v>306.70943999999997</v>
       </c>
@@ -30758,7 +31524,22 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="617" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>298.09412989999998</v>
+      </c>
+      <c r="B617">
+        <v>20</v>
+      </c>
+      <c r="C617">
+        <v>11</v>
+      </c>
+      <c r="D617" t="s">
+        <v>5</v>
+      </c>
+      <c r="E617">
+        <v>1.6</v>
+      </c>
       <c r="H617">
         <v>304.21377910000001</v>
       </c>
@@ -30775,7 +31556,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>208.8616925</v>
+      </c>
+      <c r="B618" s="2">
+        <v>20</v>
+      </c>
+      <c r="C618" s="2">
+        <v>7</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E618" s="2">
+        <v>1.8</v>
+      </c>
       <c r="H618">
         <v>393.03869429999997</v>
       </c>
@@ -30792,7 +31588,22 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="619" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>272.08281360000001</v>
+      </c>
+      <c r="B619">
+        <v>20</v>
+      </c>
+      <c r="C619">
+        <v>10</v>
+      </c>
+      <c r="D619" t="s">
+        <v>5</v>
+      </c>
+      <c r="E619">
+        <v>2</v>
+      </c>
       <c r="H619">
         <v>411.73906849999997</v>
       </c>
@@ -30809,7 +31620,22 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="620" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>274.8189544</v>
+      </c>
+      <c r="B620">
+        <v>20</v>
+      </c>
+      <c r="C620">
+        <v>13</v>
+      </c>
+      <c r="D620" t="s">
+        <v>5</v>
+      </c>
+      <c r="E620">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="H620">
         <v>303.72191650000002</v>
       </c>
@@ -30826,7 +31652,22 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="621" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>222.70501100000001</v>
+      </c>
+      <c r="B621">
+        <v>20</v>
+      </c>
+      <c r="C621">
+        <v>9</v>
+      </c>
+      <c r="D621" t="s">
+        <v>5</v>
+      </c>
+      <c r="E621">
+        <v>2.4</v>
+      </c>
       <c r="H621" s="2">
         <v>231.5553295</v>
       </c>
@@ -30843,7 +31684,22 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="622" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>243.92629679999999</v>
+      </c>
+      <c r="B622">
+        <v>20</v>
+      </c>
+      <c r="C622">
+        <v>10</v>
+      </c>
+      <c r="D622" t="s">
+        <v>5</v>
+      </c>
+      <c r="E622">
+        <v>2.6</v>
+      </c>
       <c r="H622">
         <v>269.44288</v>
       </c>
@@ -30860,7 +31716,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>273.4362304</v>
+      </c>
+      <c r="B623">
+        <v>20</v>
+      </c>
+      <c r="C623">
+        <v>12</v>
+      </c>
+      <c r="D623" t="s">
+        <v>5</v>
+      </c>
+      <c r="E623">
+        <v>2.8</v>
+      </c>
       <c r="H623">
         <v>281.19195930000001</v>
       </c>
@@ -30877,7 +31748,22 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="624" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>272.1114614</v>
+      </c>
+      <c r="B624">
+        <v>20</v>
+      </c>
+      <c r="C624">
+        <v>9</v>
+      </c>
+      <c r="D624" t="s">
+        <v>5</v>
+      </c>
+      <c r="E624">
+        <v>3</v>
+      </c>
       <c r="H624">
         <v>453.35114270000003</v>
       </c>
@@ -30894,7 +31780,22 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="625" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>379.88127980000002</v>
+      </c>
+      <c r="B625">
+        <v>20</v>
+      </c>
+      <c r="C625">
+        <v>14</v>
+      </c>
+      <c r="D625" t="s">
+        <v>5</v>
+      </c>
+      <c r="E625">
+        <v>3.2</v>
+      </c>
       <c r="H625">
         <v>279.82722699999999</v>
       </c>
@@ -30911,7 +31812,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="626" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>392.24467090000002</v>
+      </c>
+      <c r="B626">
+        <v>20</v>
+      </c>
+      <c r="C626">
+        <v>15</v>
+      </c>
+      <c r="D626" t="s">
+        <v>5</v>
+      </c>
+      <c r="E626">
+        <v>3.4</v>
+      </c>
       <c r="H626">
         <v>246.31502029999999</v>
       </c>
@@ -30928,7 +31844,22 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="627" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>347.93800549999997</v>
+      </c>
+      <c r="B627">
+        <v>22</v>
+      </c>
+      <c r="C627">
+        <v>14</v>
+      </c>
+      <c r="D627" t="s">
+        <v>6</v>
+      </c>
+      <c r="E627">
+        <v>3.6</v>
+      </c>
       <c r="H627">
         <v>252.2147779</v>
       </c>
@@ -30945,13 +31876,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="628" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>281.89780860000002</v>
+      </c>
+      <c r="B628">
+        <v>20</v>
+      </c>
+      <c r="C628">
+        <v>11</v>
+      </c>
+      <c r="D628" t="s">
+        <v>5</v>
+      </c>
+      <c r="E628">
+        <v>3.8</v>
+      </c>
       <c r="H628">
         <f>MIN(H608:H627)</f>
         <v>231.5553295</v>
       </c>
     </row>
-    <row r="630" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>266.80894439999997</v>
+      </c>
+      <c r="B629">
+        <v>20</v>
+      </c>
+      <c r="C629">
+        <v>12</v>
+      </c>
+      <c r="D629" t="s">
+        <v>5</v>
+      </c>
+      <c r="E629">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <f>MIN(A610:A629)</f>
+        <v>208.8616925</v>
+      </c>
       <c r="G630" t="s">
         <v>18</v>
       </c>
@@ -30971,7 +31938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G631">
         <v>1</v>
       </c>
@@ -30991,7 +31958,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="632" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>0</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2</v>
+      </c>
+      <c r="D632" t="s">
+        <v>3</v>
+      </c>
+      <c r="E632" t="s">
+        <v>16</v>
+      </c>
       <c r="G632">
         <v>2</v>
       </c>
@@ -31011,7 +31993,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="633" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>192.0755977</v>
+      </c>
+      <c r="B633" s="2">
+        <v>20</v>
+      </c>
+      <c r="C633" s="2">
+        <v>8</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E633" s="2">
+        <v>0.2</v>
+      </c>
       <c r="G633">
         <v>3</v>
       </c>
@@ -31031,7 +32028,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="634" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>214.49866940000001</v>
+      </c>
+      <c r="B634">
+        <v>20</v>
+      </c>
+      <c r="C634">
+        <v>8</v>
+      </c>
+      <c r="D634" t="s">
+        <v>5</v>
+      </c>
+      <c r="E634">
+        <v>0.4</v>
+      </c>
       <c r="G634">
         <v>4</v>
       </c>
@@ -31051,7 +32063,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="635" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>291.24775959999999</v>
+      </c>
+      <c r="B635">
+        <v>20</v>
+      </c>
+      <c r="C635">
+        <v>10</v>
+      </c>
+      <c r="D635" t="s">
+        <v>5</v>
+      </c>
+      <c r="E635">
+        <v>0.6</v>
+      </c>
       <c r="G635">
         <v>5</v>
       </c>
@@ -31071,7 +32098,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>216.93410349999999</v>
+      </c>
+      <c r="B636">
+        <v>20</v>
+      </c>
+      <c r="C636">
+        <v>9</v>
+      </c>
+      <c r="D636" t="s">
+        <v>5</v>
+      </c>
+      <c r="E636">
+        <v>0.8</v>
+      </c>
       <c r="G636">
         <v>6</v>
       </c>
@@ -31091,7 +32133,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="637" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>267.6069493</v>
+      </c>
+      <c r="B637">
+        <v>20</v>
+      </c>
+      <c r="C637">
+        <v>11</v>
+      </c>
+      <c r="D637" t="s">
+        <v>5</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
       <c r="G637">
         <v>7</v>
       </c>
@@ -31111,7 +32168,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>333.4007876</v>
+      </c>
+      <c r="B638">
+        <v>20</v>
+      </c>
+      <c r="C638">
+        <v>13</v>
+      </c>
+      <c r="D638" t="s">
+        <v>5</v>
+      </c>
+      <c r="E638">
+        <v>1.2</v>
+      </c>
       <c r="G638">
         <v>8</v>
       </c>
@@ -31131,7 +32203,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>257.68392640000002</v>
+      </c>
+      <c r="B639">
+        <v>20</v>
+      </c>
+      <c r="C639">
+        <v>9</v>
+      </c>
+      <c r="D639" t="s">
+        <v>5</v>
+      </c>
+      <c r="E639">
+        <v>1.4</v>
+      </c>
       <c r="G639">
         <v>9</v>
       </c>
@@ -31151,7 +32238,22 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="640" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>746.01453479999998</v>
+      </c>
+      <c r="B640">
+        <v>22</v>
+      </c>
+      <c r="C640">
+        <v>26</v>
+      </c>
+      <c r="D640" t="s">
+        <v>6</v>
+      </c>
+      <c r="E640">
+        <v>1.6</v>
+      </c>
       <c r="G640">
         <v>10</v>
       </c>
@@ -31171,7 +32273,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="641" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>353.3463342</v>
+      </c>
+      <c r="B641">
+        <v>20</v>
+      </c>
+      <c r="C641">
+        <v>13</v>
+      </c>
+      <c r="D641" t="s">
+        <v>5</v>
+      </c>
+      <c r="E641">
+        <v>1.8</v>
+      </c>
       <c r="G641">
         <v>11</v>
       </c>
@@ -31191,7 +32308,22 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="642" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>251.1677473</v>
+      </c>
+      <c r="B642">
+        <v>20</v>
+      </c>
+      <c r="C642">
+        <v>9</v>
+      </c>
+      <c r="D642" t="s">
+        <v>5</v>
+      </c>
+      <c r="E642">
+        <v>2</v>
+      </c>
       <c r="G642">
         <v>12</v>
       </c>
@@ -31211,7 +32343,22 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="643" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>237.80376720000001</v>
+      </c>
+      <c r="B643">
+        <v>20</v>
+      </c>
+      <c r="C643">
+        <v>9</v>
+      </c>
+      <c r="D643" t="s">
+        <v>5</v>
+      </c>
+      <c r="E643">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="G643">
         <v>13</v>
       </c>
@@ -31231,7 +32378,22 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="644" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>328.13001869999999</v>
+      </c>
+      <c r="B644">
+        <v>20</v>
+      </c>
+      <c r="C644">
+        <v>13</v>
+      </c>
+      <c r="D644" t="s">
+        <v>5</v>
+      </c>
+      <c r="E644">
+        <v>2.4</v>
+      </c>
       <c r="G644">
         <v>14</v>
       </c>
@@ -31251,7 +32413,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="645" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>344.49957749999999</v>
+      </c>
+      <c r="B645">
+        <v>22</v>
+      </c>
+      <c r="C645">
+        <v>14</v>
+      </c>
+      <c r="D645" t="s">
+        <v>6</v>
+      </c>
+      <c r="E645">
+        <v>2.6</v>
+      </c>
       <c r="G645">
         <v>15</v>
       </c>
@@ -31271,7 +32448,22 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="646" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>345.15816710000001</v>
+      </c>
+      <c r="B646">
+        <v>20</v>
+      </c>
+      <c r="C646">
+        <v>13</v>
+      </c>
+      <c r="D646" t="s">
+        <v>5</v>
+      </c>
+      <c r="E646">
+        <v>2.8</v>
+      </c>
       <c r="G646">
         <v>16</v>
       </c>
@@ -31291,7 +32483,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="647" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>259.16539940000001</v>
+      </c>
+      <c r="B647">
+        <v>20</v>
+      </c>
+      <c r="C647">
+        <v>9</v>
+      </c>
+      <c r="D647" t="s">
+        <v>5</v>
+      </c>
+      <c r="E647">
+        <v>3</v>
+      </c>
       <c r="G647">
         <v>17</v>
       </c>
@@ -31311,7 +32518,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>277.7201609</v>
+      </c>
+      <c r="B648">
+        <v>20</v>
+      </c>
+      <c r="C648">
+        <v>11</v>
+      </c>
+      <c r="D648" t="s">
+        <v>5</v>
+      </c>
+      <c r="E648">
+        <v>3.2</v>
+      </c>
       <c r="G648">
         <v>18</v>
       </c>
@@ -31331,7 +32553,22 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="649" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>224.3589499</v>
+      </c>
+      <c r="B649">
+        <v>20</v>
+      </c>
+      <c r="C649">
+        <v>8</v>
+      </c>
+      <c r="D649" t="s">
+        <v>5</v>
+      </c>
+      <c r="E649">
+        <v>3.4</v>
+      </c>
       <c r="G649">
         <v>19</v>
       </c>
@@ -31351,7 +32588,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="650" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>311.943713</v>
+      </c>
+      <c r="B650">
+        <v>20</v>
+      </c>
+      <c r="C650">
+        <v>11</v>
+      </c>
+      <c r="D650" t="s">
+        <v>5</v>
+      </c>
+      <c r="E650">
+        <v>3.6</v>
+      </c>
       <c r="G650">
         <v>20</v>
       </c>
@@ -31371,7 +32623,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>224.3293041</v>
+      </c>
+      <c r="B651">
+        <v>20</v>
+      </c>
+      <c r="C651">
+        <v>9</v>
+      </c>
+      <c r="D651" t="s">
+        <v>5</v>
+      </c>
+      <c r="E651">
+        <v>3.8</v>
+      </c>
       <c r="G651">
         <v>21</v>
       </c>
@@ -31391,7 +32658,22 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="652" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>466.63799940000001</v>
+      </c>
+      <c r="B652">
+        <v>20</v>
+      </c>
+      <c r="C652">
+        <v>20</v>
+      </c>
+      <c r="D652" t="s">
+        <v>5</v>
+      </c>
+      <c r="E652">
+        <v>4</v>
+      </c>
       <c r="G652">
         <v>22</v>
       </c>
@@ -31411,7 +32693,11 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="653" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <f>MIN(A633:A652)</f>
+        <v>192.0755977</v>
+      </c>
       <c r="G653">
         <v>23</v>
       </c>
@@ -31431,7 +32717,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="654" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G654">
         <v>24</v>
       </c>
@@ -31451,7 +32737,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="655" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G655">
         <v>25</v>
       </c>
@@ -31471,19 +32757,93 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="656" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>0</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2</v>
+      </c>
+      <c r="D656" t="s">
+        <v>3</v>
+      </c>
+      <c r="E656" t="s">
+        <v>16</v>
+      </c>
+      <c r="F656" t="s">
+        <v>9</v>
+      </c>
       <c r="L656">
         <f>_xlfn.MODE.SNGL(L631:L655)</f>
         <v>3.6</v>
       </c>
     </row>
-    <row r="657" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A657" s="4">
+        <v>150.08861440000001</v>
+      </c>
+      <c r="B657" s="4">
+        <v>20</v>
+      </c>
+      <c r="C657" s="4">
+        <v>8</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E657" s="4">
+        <v>1</v>
+      </c>
+      <c r="F657" s="4">
+        <v>1</v>
+      </c>
       <c r="L657" cm="1">
         <f t="array" ref="L657">_xlfn.MODE.MULT(L631:L655)</f>
         <v>3.6</v>
       </c>
     </row>
-    <row r="659" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A658" s="4">
+        <v>167.08912659999999</v>
+      </c>
+      <c r="B658" s="4">
+        <v>20</v>
+      </c>
+      <c r="C658" s="4">
+        <v>8</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E658" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F658" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A659" s="4">
+        <v>175.10863119999999</v>
+      </c>
+      <c r="B659" s="4">
+        <v>20</v>
+      </c>
+      <c r="C659" s="4">
+        <v>7</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E659" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F659" s="4">
+        <v>3</v>
+      </c>
       <c r="H659" t="s">
         <v>0</v>
       </c>
@@ -31500,7 +32860,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A660" s="4">
+        <v>161.3383675</v>
+      </c>
+      <c r="B660" s="4">
+        <v>20</v>
+      </c>
+      <c r="C660" s="4">
+        <v>8</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E660" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F660" s="4">
+        <v>4</v>
+      </c>
       <c r="H660">
         <v>295.59185509999998</v>
       </c>
@@ -31517,7 +32895,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="661" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A661" s="4">
+        <v>167.5275613</v>
+      </c>
+      <c r="B661" s="4">
+        <v>20</v>
+      </c>
+      <c r="C661" s="4">
+        <v>8</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E661" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F661" s="4">
+        <v>5</v>
+      </c>
       <c r="H661">
         <v>321.78141570000003</v>
       </c>
@@ -31534,7 +32930,25 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="662" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A662" s="4">
+        <v>186.9122102</v>
+      </c>
+      <c r="B662" s="4">
+        <v>20</v>
+      </c>
+      <c r="C662" s="4">
+        <v>9</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E662" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F662" s="4">
+        <v>6</v>
+      </c>
       <c r="H662">
         <v>377.84417359999998</v>
       </c>
@@ -31551,7 +32965,25 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="663" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A663" s="4">
+        <v>198.32077169999999</v>
+      </c>
+      <c r="B663" s="4">
+        <v>20</v>
+      </c>
+      <c r="C663" s="4">
+        <v>10</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E663" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F663" s="4">
+        <v>7</v>
+      </c>
       <c r="H663">
         <v>286.17082599999998</v>
       </c>
@@ -31568,7 +33000,25 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="664" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A664" s="4">
+        <v>178.22504599999999</v>
+      </c>
+      <c r="B664" s="4">
+        <v>20</v>
+      </c>
+      <c r="C664" s="4">
+        <v>8</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E664" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F664" s="4">
+        <v>8</v>
+      </c>
       <c r="H664">
         <v>273.22832290000002</v>
       </c>
@@ -31585,7 +33035,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A665" s="4">
+        <v>194.02622270000001</v>
+      </c>
+      <c r="B665" s="4">
+        <v>20</v>
+      </c>
+      <c r="C665" s="4">
+        <v>9</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E665" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F665" s="4">
+        <v>9</v>
+      </c>
       <c r="H665">
         <v>493.49257180000001</v>
       </c>
@@ -31602,7 +33070,25 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="666" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A666" s="4">
+        <v>187.18586740000001</v>
+      </c>
+      <c r="B666" s="4">
+        <v>20</v>
+      </c>
+      <c r="C666" s="4">
+        <v>8</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E666" s="4">
+        <v>3</v>
+      </c>
+      <c r="F666" s="4">
+        <v>10</v>
+      </c>
       <c r="H666">
         <v>298.7536738</v>
       </c>
@@ -31619,7 +33105,25 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="667" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A667" s="4">
+        <v>212.94025450000001</v>
+      </c>
+      <c r="B667" s="4">
+        <v>20</v>
+      </c>
+      <c r="C667" s="4">
+        <v>9</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E667" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F667" s="4">
+        <v>11</v>
+      </c>
       <c r="H667">
         <v>340.6639505</v>
       </c>
@@ -31636,7 +33140,25 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="668" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A668" s="4">
+        <v>198.48198529999999</v>
+      </c>
+      <c r="B668" s="4">
+        <v>20</v>
+      </c>
+      <c r="C668" s="4">
+        <v>8</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E668" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F668" s="4">
+        <v>12</v>
+      </c>
       <c r="H668">
         <v>310.81203879999998</v>
       </c>
@@ -31653,7 +33175,25 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="669" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A669" s="4">
+        <v>190.29046959999999</v>
+      </c>
+      <c r="B669" s="4">
+        <v>20</v>
+      </c>
+      <c r="C669" s="4">
+        <v>7</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E669" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F669" s="4">
+        <v>13</v>
+      </c>
       <c r="H669">
         <v>313.79572330000002</v>
       </c>
@@ -31670,7 +33210,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="670" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A670" s="4">
+        <v>199.35566600000001</v>
+      </c>
+      <c r="B670" s="4">
+        <v>20</v>
+      </c>
+      <c r="C670" s="4">
+        <v>8</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E670" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F670" s="4">
+        <v>14</v>
+      </c>
       <c r="H670">
         <v>281.8184622</v>
       </c>
@@ -31687,7 +33245,25 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="671" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A671" s="4">
+        <v>204.6009645</v>
+      </c>
+      <c r="B671" s="4">
+        <v>20</v>
+      </c>
+      <c r="C671" s="4">
+        <v>7</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E671" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F671" s="4">
+        <v>15</v>
+      </c>
       <c r="H671">
         <v>551.63175149999995</v>
       </c>
@@ -31704,7 +33280,25 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="672" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A672" s="4">
+        <v>188.6194376</v>
+      </c>
+      <c r="B672" s="4">
+        <v>20</v>
+      </c>
+      <c r="C672" s="4">
+        <v>7</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E672" s="4">
+        <v>4</v>
+      </c>
+      <c r="F672" s="4">
+        <v>16</v>
+      </c>
       <c r="H672">
         <v>300.46580970000002</v>
       </c>
@@ -31721,7 +33315,25 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="673" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A673" s="4">
+        <v>148.5096154</v>
+      </c>
+      <c r="B673" s="4">
+        <v>20</v>
+      </c>
+      <c r="C673" s="4">
+        <v>7</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E673" s="4">
+        <v>3</v>
+      </c>
+      <c r="F673" s="4">
+        <v>17</v>
+      </c>
       <c r="H673">
         <v>262.73295109999998</v>
       </c>
@@ -31738,7 +33350,25 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="674" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A674" s="4">
+        <v>146.19987169999999</v>
+      </c>
+      <c r="B674" s="4">
+        <v>20</v>
+      </c>
+      <c r="C674" s="4">
+        <v>6</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E674" s="4">
+        <v>3</v>
+      </c>
+      <c r="F674" s="4">
+        <v>18</v>
+      </c>
       <c r="H674">
         <v>541.88838139999996</v>
       </c>
@@ -31755,7 +33385,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A675" s="4">
+        <v>137.27700440000001</v>
+      </c>
+      <c r="B675" s="4">
+        <v>20</v>
+      </c>
+      <c r="C675" s="4">
+        <v>6</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E675" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F675" s="4">
+        <v>19</v>
+      </c>
       <c r="H675" s="2">
         <v>260.23033279999999</v>
       </c>
@@ -31772,7 +33420,25 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="676" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A676" s="4">
+        <v>151.84511739999999</v>
+      </c>
+      <c r="B676" s="4">
+        <v>20</v>
+      </c>
+      <c r="C676" s="4">
+        <v>6</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E676" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F676" s="4">
+        <v>20</v>
+      </c>
       <c r="H676">
         <v>368.03189090000001</v>
       </c>
@@ -31789,7 +33455,25 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="677" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A677" s="4">
+        <v>212.9717133</v>
+      </c>
+      <c r="B677" s="4">
+        <v>18</v>
+      </c>
+      <c r="C677" s="4">
+        <v>9</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E677" s="4">
+        <v>1</v>
+      </c>
+      <c r="F677" s="4">
+        <v>21</v>
+      </c>
       <c r="H677">
         <v>319.19841120000001</v>
       </c>
@@ -31806,7 +33490,25 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="678" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A678" s="4">
+        <v>185.5749505</v>
+      </c>
+      <c r="B678" s="4">
+        <v>20</v>
+      </c>
+      <c r="C678" s="4">
+        <v>8</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E678" s="4">
+        <v>1</v>
+      </c>
+      <c r="F678" s="4">
+        <v>22</v>
+      </c>
       <c r="H678">
         <v>242.35516659999999</v>
       </c>
@@ -31823,7 +33525,25 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="679" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A679" s="4">
+        <v>211.20055579999999</v>
+      </c>
+      <c r="B679" s="4">
+        <v>20</v>
+      </c>
+      <c r="C679" s="4">
+        <v>8</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E679" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F679" s="4">
+        <v>23</v>
+      </c>
       <c r="H679">
         <v>288.99049839999998</v>
       </c>
@@ -31840,13 +33560,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A680" s="4">
+        <v>208.8616925</v>
+      </c>
+      <c r="B680" s="4">
+        <v>20</v>
+      </c>
+      <c r="C680" s="4">
+        <v>7</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E680" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F680" s="4">
+        <v>24</v>
+      </c>
       <c r="H680">
         <f>MIN(H660:H679)</f>
         <v>242.35516659999999</v>
       </c>
     </row>
-    <row r="682" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A681" s="4">
+        <v>192.0755977</v>
+      </c>
+      <c r="B681" s="4">
+        <v>20</v>
+      </c>
+      <c r="C681" s="4">
+        <v>8</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E681" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F681" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E682" cm="1">
+        <f t="array" ref="E682">_xlfn.MODE.MULT(E657:E681)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F682" s="4"/>
       <c r="H682" t="s">
         <v>0</v>
       </c>
@@ -31863,7 +33626,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F683" s="4"/>
       <c r="H683">
         <v>347.84272570000002</v>
       </c>
@@ -31880,7 +33644,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="684" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F684" s="4"/>
       <c r="H684">
         <v>279.43357029999999</v>
       </c>
@@ -31897,7 +33662,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="685" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F685" s="4"/>
       <c r="H685">
         <v>270.92327740000002</v>
       </c>
@@ -31914,7 +33680,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="686" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F686" s="4"/>
       <c r="H686">
         <v>302.97350649999998</v>
       </c>
@@ -31931,7 +33698,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="687" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F687" s="4"/>
       <c r="H687">
         <v>328.65183930000001</v>
       </c>
@@ -31948,7 +33716,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F688" s="4"/>
       <c r="H688">
         <v>298.30046049999999</v>
       </c>
@@ -31965,7 +33734,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="689" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F689" s="4"/>
       <c r="H689">
         <v>343.4152201</v>
       </c>
@@ -31982,7 +33752,8 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="690" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F690" s="4"/>
       <c r="H690">
         <v>303.48409559999999</v>
       </c>
@@ -31999,7 +33770,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="691" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F691" s="4"/>
       <c r="H691">
         <v>319.02511349999997</v>
       </c>
@@ -32016,7 +33788,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="692" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F692" s="4"/>
       <c r="H692">
         <v>455.30237060000002</v>
       </c>
@@ -32033,7 +33806,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F693" s="4"/>
       <c r="H693" s="2">
         <v>387.79864120000002</v>
       </c>
@@ -32050,7 +33824,8 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="694" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F694" s="4"/>
       <c r="H694">
         <v>254.3738688</v>
       </c>
@@ -32067,7 +33842,8 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="695" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F695" s="4"/>
       <c r="H695">
         <v>376.6458379</v>
       </c>
@@ -32084,7 +33860,8 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="696" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F696" s="4"/>
       <c r="H696">
         <v>303.82178579999999</v>
       </c>
@@ -32101,7 +33878,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="697" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F697" s="4"/>
       <c r="H697">
         <v>327.05912469999998</v>
       </c>
@@ -32118,7 +33896,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F698" s="4"/>
       <c r="H698">
         <v>283.65617429999998</v>
       </c>
@@ -32135,7 +33914,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="699" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F699" s="4"/>
       <c r="H699">
         <v>404.41791940000002</v>
       </c>
@@ -32152,7 +33932,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="700" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F700" s="4"/>
       <c r="H700">
         <v>269.92104239999998</v>
       </c>
@@ -32169,7 +33950,8 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="701" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F701" s="4"/>
       <c r="H701">
         <v>269.89388100000002</v>
       </c>
@@ -32186,7 +33968,8 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="702" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F702" s="4"/>
       <c r="H702">
         <v>290.53515650000003</v>
       </c>
@@ -32203,7 +33986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="6:12" x14ac:dyDescent="0.3">
       <c r="H703">
         <f>MIN(H683:H702)</f>
         <v>254.3738688</v>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD25FD2-7002-4EB1-886A-08243FA59AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1E047-3451-4045-8FB8-E4AD9C78535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="3" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
     <sheet name="Alpha" sheetId="2" r:id="rId2"/>
     <sheet name="Beta" sheetId="3" r:id="rId3"/>
     <sheet name="Gamma" sheetId="4" r:id="rId4"/>
+    <sheet name="Q" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13688,7 +13689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BED1BB-CAA5-484A-9284-2A0A18702732}">
   <dimension ref="A1:N927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A637" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E657" sqref="E657:E681"/>
     </sheetView>
   </sheetViews>
@@ -37522,4 +37523,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17A21E-9A97-44A4-9DFA-4E0838B953C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1E047-3451-4045-8FB8-E4AD9C78535A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC1330-7F94-48E9-8AB2-E483AD7CD4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="21">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>corrida</t>
   </si>
+  <si>
+    <t>'Q'</t>
+  </si>
+  <si>
+    <t>rho 0.4</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,12 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37527,14 +37540,380 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17A21E-9A97-44A4-9DFA-4E0838B953C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>232.50155119999999</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>177.049376</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>218.45951009999999</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>146.16881470000001</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>254.71086299999999</v>
+      </c>
+      <c r="B8" s="5">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>150.09326490000001</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>210.58276609999999</v>
+      </c>
+      <c r="B10" s="5">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>233.37763140000001</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>158.6256688</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>333.95390980000002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>148.44363569999999</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>191.68060120000001</v>
+      </c>
+      <c r="B15" s="5">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>199.96893900000001</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>219.2549999</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>287.06663320000001</v>
+      </c>
+      <c r="B18" s="5">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>169.51609780000001</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>232.13259859999999</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>265.05586030000001</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>171.4458267</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>259.39490790000002</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC1330-7F94-48E9-8AB2-E483AD7CD4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29D4DB-F000-4009-887A-6F8A2A138B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="22">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>rho 0.4</t>
+  </si>
+  <si>
+    <t>Barrido</t>
   </si>
 </sst>
 </file>
@@ -37540,10 +37543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17A21E-9A97-44A4-9DFA-4E0838B953C2}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37794,7 +37797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>219.2549999</v>
       </c>
@@ -37811,7 +37814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>287.06663320000001</v>
       </c>
@@ -37828,7 +37831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>169.51609780000001</v>
       </c>
@@ -37845,7 +37848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>232.13259859999999</v>
       </c>
@@ -37862,7 +37865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>265.05586030000001</v>
       </c>
@@ -37879,7 +37882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>171.4458267</v>
       </c>
@@ -37896,7 +37899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>259.39490790000002</v>
       </c>
@@ -37911,6 +37914,7239 @@
       </c>
       <c r="E23" s="5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>203.86917109999999</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>222.2719524</v>
+      </c>
+      <c r="J29">
+        <v>24</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>218.1899459</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>149.8469115</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>361.72749879999998</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>265.75964240000002</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>160.45438329999999</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>148.2663421</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>240.1134911</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>196.04584539999999</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>312.1811836</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>151.4830657</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>196.76239609999999</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>169.92751079999999</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>204.92320889999999</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>174.78122519999999</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>161.54405389999999</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>183.4119786</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>189.1678129</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>133.93048880000001</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>211.70765080000001</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="I39">
+        <v>154.40715069999999</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>326.79945029999999</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2">
+        <v>175.8515079</v>
+      </c>
+      <c r="J40" s="2">
+        <v>18</v>
+      </c>
+      <c r="K40" s="2">
+        <v>7</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>259.49219169999998</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>65</v>
+      </c>
+      <c r="I41">
+        <v>176.00633680000001</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>259.92737940000001</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>157.9787062</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>197.61694800000001</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>123.2688148</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>205.47408239999999</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>200.59719219999999</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>255.222095</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>142.3563408</v>
+      </c>
+      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>247.44023189999999</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>90</v>
+      </c>
+      <c r="I46">
+        <v>195.9397142</v>
+      </c>
+      <c r="J46">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>428.7872208</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>95</v>
+      </c>
+      <c r="I47">
+        <v>179.39887569999999</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>197.76904780000001</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>144.0788594</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>MIN(A29:A48)</f>
+        <v>160.45438329999999</v>
+      </c>
+      <c r="I49">
+        <f>MIN(I29:I48)</f>
+        <v>123.2688148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>287.8825488</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>156.20160899999999</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>291.37798759999998</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>192.00643790000001</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+      <c r="L53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>504.3524251</v>
+      </c>
+      <c r="B54" s="2">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <v>206.23807450000001</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>244.01329870000001</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>182.2248529</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>205.8840337</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <v>163.32497090000001</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>218.31408329999999</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>218.86821509999999</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>226.42655490000001</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>170.19779610000001</v>
+      </c>
+      <c r="J58">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>266.47765520000002</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="I59">
+        <v>152.62862129999999</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>273.9235362</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>45</v>
+      </c>
+      <c r="I60">
+        <v>217.02955410000001</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>285.00918660000002</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="I61" s="2">
+        <v>143.612415</v>
+      </c>
+      <c r="J61" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" s="2">
+        <v>6</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>240.0019494</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="I62">
+        <v>220.0596328</v>
+      </c>
+      <c r="J62">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>589.83620350000001</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>164.77191479999999</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63" t="s">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>218.0049051</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="I64">
+        <v>194.41949450000001</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>209.35004660000001</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>307.07155210000002</v>
+      </c>
+      <c r="J65">
+        <v>24</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>178.50658390000001</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>75</v>
+      </c>
+      <c r="I66">
+        <v>158.40154999999999</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>224.0529574</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>167.110814</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>230.80337650000001</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>85</v>
+      </c>
+      <c r="I68">
+        <v>166.0828712</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>226.7812887</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="I69">
+        <v>151.76789629999999</v>
+      </c>
+      <c r="J69">
+        <v>20</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>188.09559369999999</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>95</v>
+      </c>
+      <c r="I70">
+        <v>240.11774339999999</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>309.7219594</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>156.59748519999999</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>MIN(A52:A71)</f>
+        <v>178.50658390000001</v>
+      </c>
+      <c r="I72">
+        <f>MIN(I52:I71)</f>
+        <v>143.612415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>191.27438649999999</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>183.72430600000001</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+      <c r="L75" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>334.26766939999999</v>
+      </c>
+      <c r="B76">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>141.3040153</v>
+      </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>189.00445830000001</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>189.41742009999999</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>431.38086390000001</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>183.50714909999999</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>213.67239660000001</v>
+      </c>
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="I79">
+        <v>216.47613150000001</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79">
+        <v>11</v>
+      </c>
+      <c r="L79" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>194.50818169999999</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>144.8618768</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>213.0266517</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>35</v>
+      </c>
+      <c r="I81">
+        <v>161.61729360000001</v>
+      </c>
+      <c r="J81">
+        <v>20</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+      <c r="L81" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>171.7932686</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>198.86836740000001</v>
+      </c>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+      <c r="L82" t="s">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>275.89453170000002</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>45</v>
+      </c>
+      <c r="I83" s="2">
+        <v>118.1370773</v>
+      </c>
+      <c r="J83" s="2">
+        <v>20</v>
+      </c>
+      <c r="K83" s="2">
+        <v>5</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>359.0435645</v>
+      </c>
+      <c r="B84">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="I84">
+        <v>165.65071760000001</v>
+      </c>
+      <c r="J84">
+        <v>20</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+      <c r="L84" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>292.92798879999998</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>55</v>
+      </c>
+      <c r="I85">
+        <v>177.27008480000001</v>
+      </c>
+      <c r="J85">
+        <v>22</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+      <c r="L85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>142.56065770000001</v>
+      </c>
+      <c r="B86" s="2">
+        <v>20</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2">
+        <v>60</v>
+      </c>
+      <c r="I86">
+        <v>154.4203885</v>
+      </c>
+      <c r="J86">
+        <v>20</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+      <c r="L86" t="s">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>276.14483280000002</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>65</v>
+      </c>
+      <c r="I87">
+        <v>172.1946471</v>
+      </c>
+      <c r="J87">
+        <v>20</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="L87" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>207.60292870000001</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>176.12351390000001</v>
+      </c>
+      <c r="J88">
+        <v>20</v>
+      </c>
+      <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>281.70112760000001</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>75</v>
+      </c>
+      <c r="I89">
+        <v>226.64530139999999</v>
+      </c>
+      <c r="J89">
+        <v>22</v>
+      </c>
+      <c r="K89">
+        <v>8</v>
+      </c>
+      <c r="L89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>163.2984045</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>184.04609859999999</v>
+      </c>
+      <c r="J90">
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90" t="s">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>164.74783070000001</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>85</v>
+      </c>
+      <c r="I91">
+        <v>166.1866359</v>
+      </c>
+      <c r="J91">
+        <v>20</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="L91" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>186.23121280000001</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="I92">
+        <v>176.86113409999999</v>
+      </c>
+      <c r="J92">
+        <v>20</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+      <c r="L92" t="s">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>187.08671949999999</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>95</v>
+      </c>
+      <c r="I93">
+        <v>128.87576720000001</v>
+      </c>
+      <c r="J93">
+        <v>20</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+      <c r="L93" t="s">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>431.6323539</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>144.2760529</v>
+      </c>
+      <c r="J94">
+        <v>20</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+      <c r="L94" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>MIN(A75:A94)</f>
+        <v>142.56065770000001</v>
+      </c>
+      <c r="I95">
+        <f>MIN(I75:I94)</f>
+        <v>118.1370773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2</v>
+      </c>
+      <c r="L97" t="s">
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>255.0600005</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>176.61750219999999</v>
+      </c>
+      <c r="J98">
+        <v>20</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+      <c r="L98" t="s">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>211.04818610000001</v>
+      </c>
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="I99">
+        <v>196.1091089</v>
+      </c>
+      <c r="J99">
+        <v>20</v>
+      </c>
+      <c r="K99">
+        <v>9</v>
+      </c>
+      <c r="L99" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>212.01316729999999</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <v>182.1995263</v>
+      </c>
+      <c r="J100">
+        <v>22</v>
+      </c>
+      <c r="K100">
+        <v>7</v>
+      </c>
+      <c r="L100" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>216.79155180000001</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>186.4784626</v>
+      </c>
+      <c r="J101">
+        <v>20</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+      <c r="L101" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>240.55991059999999</v>
+      </c>
+      <c r="B102">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="I102" s="2">
+        <v>142.69394270000001</v>
+      </c>
+      <c r="J102" s="2">
+        <v>20</v>
+      </c>
+      <c r="K102" s="2">
+        <v>6</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>284.46490460000001</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>30</v>
+      </c>
+      <c r="I103">
+        <v>145.62006919999999</v>
+      </c>
+      <c r="J103">
+        <v>20</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103" t="s">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>223.3703812</v>
+      </c>
+      <c r="B104">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>35</v>
+      </c>
+      <c r="I104">
+        <v>155.02266130000001</v>
+      </c>
+      <c r="J104">
+        <v>20</v>
+      </c>
+      <c r="K104">
+        <v>7</v>
+      </c>
+      <c r="L104" t="s">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>387.50706070000001</v>
+      </c>
+      <c r="B105">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
+      </c>
+      <c r="I105">
+        <v>143.6598554</v>
+      </c>
+      <c r="J105">
+        <v>20</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105" t="s">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>242.74206649999999</v>
+      </c>
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>45</v>
+      </c>
+      <c r="I106">
+        <v>210.02906859999999</v>
+      </c>
+      <c r="J106">
+        <v>20</v>
+      </c>
+      <c r="K106">
+        <v>12</v>
+      </c>
+      <c r="L106" t="s">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>194.30589309999999</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="I107">
+        <v>225.01364179999999</v>
+      </c>
+      <c r="J107">
+        <v>24</v>
+      </c>
+      <c r="K107">
+        <v>9</v>
+      </c>
+      <c r="L107" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>247.20571480000001</v>
+      </c>
+      <c r="B108">
+        <v>20</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>55</v>
+      </c>
+      <c r="I108">
+        <v>174.11271020000001</v>
+      </c>
+      <c r="J108">
+        <v>20</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+      <c r="L108" t="s">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>169.42094890000001</v>
+      </c>
+      <c r="B109" s="2">
+        <v>20</v>
+      </c>
+      <c r="C109" s="2">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2">
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <v>192.70134189999999</v>
+      </c>
+      <c r="J109">
+        <v>20</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+      <c r="L109" t="s">
+        <v>5</v>
+      </c>
+      <c r="M109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>277.08437479999998</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>65</v>
+      </c>
+      <c r="I110">
+        <v>202.98088999999999</v>
+      </c>
+      <c r="J110">
+        <v>20</v>
+      </c>
+      <c r="K110">
+        <v>9</v>
+      </c>
+      <c r="L110" t="s">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>272.1740441</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>177.39984509999999</v>
+      </c>
+      <c r="J111">
+        <v>20</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
+      </c>
+      <c r="L111" t="s">
+        <v>5</v>
+      </c>
+      <c r="M111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>231.49051850000001</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>75</v>
+      </c>
+      <c r="I112">
+        <v>193.9062385</v>
+      </c>
+      <c r="J112">
+        <v>20</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112" t="s">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>217.79639800000001</v>
+      </c>
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>80</v>
+      </c>
+      <c r="I113">
+        <v>150.6418592</v>
+      </c>
+      <c r="J113">
+        <v>20</v>
+      </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
+      <c r="L113" t="s">
+        <v>5</v>
+      </c>
+      <c r="M113">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>179.86279089999999</v>
+      </c>
+      <c r="B114">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>85</v>
+      </c>
+      <c r="I114">
+        <v>179.72105300000001</v>
+      </c>
+      <c r="J114">
+        <v>20</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+      <c r="L114" t="s">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>229.4330219</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>90</v>
+      </c>
+      <c r="I115">
+        <v>241.61926360000001</v>
+      </c>
+      <c r="J115">
+        <v>26</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
+      <c r="L115" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>269.65470310000001</v>
+      </c>
+      <c r="B116">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>95</v>
+      </c>
+      <c r="I116">
+        <v>200.70693230000001</v>
+      </c>
+      <c r="J116">
+        <v>20</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+      <c r="L116" t="s">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>201.40073570000001</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>338.4927677</v>
+      </c>
+      <c r="J117">
+        <v>20</v>
+      </c>
+      <c r="K117">
+        <v>15</v>
+      </c>
+      <c r="L117" t="s">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>MIN(A98:A117)</f>
+        <v>169.42094890000001</v>
+      </c>
+      <c r="I118">
+        <f>MIN(I98:I117)</f>
+        <v>142.69394270000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L120" t="s">
+        <v>3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>250.05234569999999</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>145.01024079999999</v>
+      </c>
+      <c r="J121">
+        <v>20</v>
+      </c>
+      <c r="K121">
+        <v>6</v>
+      </c>
+      <c r="L121" t="s">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>301.48316569999997</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="I122">
+        <v>182.6504821</v>
+      </c>
+      <c r="J122">
+        <v>20</v>
+      </c>
+      <c r="K122">
+        <v>6</v>
+      </c>
+      <c r="L122" t="s">
+        <v>5</v>
+      </c>
+      <c r="M122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>375.58740749999998</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>15</v>
+      </c>
+      <c r="I123">
+        <v>230.68832380000001</v>
+      </c>
+      <c r="J123">
+        <v>20</v>
+      </c>
+      <c r="K123">
+        <v>10</v>
+      </c>
+      <c r="L123" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>337.67880120000001</v>
+      </c>
+      <c r="B124">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+      <c r="I124">
+        <v>194.63788930000001</v>
+      </c>
+      <c r="J124">
+        <v>24</v>
+      </c>
+      <c r="K124">
+        <v>9</v>
+      </c>
+      <c r="L124" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>184.03082710000001</v>
+      </c>
+      <c r="B125">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="I125">
+        <v>166.89564799999999</v>
+      </c>
+      <c r="J125">
+        <v>20</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125" t="s">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>232.60560029999999</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>30</v>
+      </c>
+      <c r="I126">
+        <v>162.59010570000001</v>
+      </c>
+      <c r="J126">
+        <v>20</v>
+      </c>
+      <c r="K126">
+        <v>6</v>
+      </c>
+      <c r="L126" t="s">
+        <v>5</v>
+      </c>
+      <c r="M126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>201.32276909999999</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>35</v>
+      </c>
+      <c r="I127">
+        <v>201.08916500000001</v>
+      </c>
+      <c r="J127">
+        <v>20</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M127">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>311.56238309999998</v>
+      </c>
+      <c r="B128">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>40</v>
+      </c>
+      <c r="I128">
+        <v>148.12197800000001</v>
+      </c>
+      <c r="J128">
+        <v>20</v>
+      </c>
+      <c r="K128">
+        <v>6</v>
+      </c>
+      <c r="L128" t="s">
+        <v>5</v>
+      </c>
+      <c r="M128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>248.85996950000001</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>45</v>
+      </c>
+      <c r="I129">
+        <v>192.73249970000001</v>
+      </c>
+      <c r="J129">
+        <v>20</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+      <c r="L129" t="s">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>177.71423759999999</v>
+      </c>
+      <c r="B130" s="2">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2">
+        <v>7</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="2">
+        <v>50</v>
+      </c>
+      <c r="I130">
+        <v>208.45743920000001</v>
+      </c>
+      <c r="J130">
+        <v>20</v>
+      </c>
+      <c r="K130">
+        <v>8</v>
+      </c>
+      <c r="L130" t="s">
+        <v>5</v>
+      </c>
+      <c r="M130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>202.43146089999999</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>55</v>
+      </c>
+      <c r="I131">
+        <v>208.91007579999999</v>
+      </c>
+      <c r="J131">
+        <v>20</v>
+      </c>
+      <c r="K131">
+        <v>9</v>
+      </c>
+      <c r="L131" t="s">
+        <v>5</v>
+      </c>
+      <c r="M131">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>250.935102</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="I132">
+        <v>121.512979</v>
+      </c>
+      <c r="J132">
+        <v>20</v>
+      </c>
+      <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132" t="s">
+        <v>5</v>
+      </c>
+      <c r="M132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>233.84820550000001</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <v>159.6085569</v>
+      </c>
+      <c r="J133">
+        <v>20</v>
+      </c>
+      <c r="K133">
+        <v>6</v>
+      </c>
+      <c r="L133" t="s">
+        <v>5</v>
+      </c>
+      <c r="M133">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>194.4539412</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>157.73923389999999</v>
+      </c>
+      <c r="J134">
+        <v>20</v>
+      </c>
+      <c r="K134">
+        <v>6</v>
+      </c>
+      <c r="L134" t="s">
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>259.85128789999999</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>142.36879999999999</v>
+      </c>
+      <c r="J135">
+        <v>20</v>
+      </c>
+      <c r="K135">
+        <v>6</v>
+      </c>
+      <c r="L135" t="s">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>188.6888227</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>80</v>
+      </c>
+      <c r="I136" s="2">
+        <v>305.15720379999999</v>
+      </c>
+      <c r="J136" s="2">
+        <v>18</v>
+      </c>
+      <c r="K136" s="2">
+        <v>15</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M136" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>188.60346229999999</v>
+      </c>
+      <c r="B137">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>85</v>
+      </c>
+      <c r="I137">
+        <v>194.5944944</v>
+      </c>
+      <c r="J137">
+        <v>20</v>
+      </c>
+      <c r="K137">
+        <v>8</v>
+      </c>
+      <c r="L137" t="s">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>219.96599029999999</v>
+      </c>
+      <c r="B138">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>90</v>
+      </c>
+      <c r="I138">
+        <v>169.61310660000001</v>
+      </c>
+      <c r="J138">
+        <v>20</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="L138" t="s">
+        <v>5</v>
+      </c>
+      <c r="M138">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>185.57956490000001</v>
+      </c>
+      <c r="B139">
+        <v>20</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>95</v>
+      </c>
+      <c r="I139">
+        <v>188.82150429999999</v>
+      </c>
+      <c r="J139">
+        <v>22</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+      <c r="L139" t="s">
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>216.95785760000001</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="I140">
+        <v>155.19890229999999</v>
+      </c>
+      <c r="J140">
+        <v>20</v>
+      </c>
+      <c r="K140">
+        <v>6</v>
+      </c>
+      <c r="L140" t="s">
+        <v>5</v>
+      </c>
+      <c r="M140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f>MIN(A121:A140)</f>
+        <v>177.71423759999999</v>
+      </c>
+      <c r="I141">
+        <f>MIN(I121:I140)</f>
+        <v>121.512979</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>2</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>264.65856730000002</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="I144">
+        <v>249.5300393</v>
+      </c>
+      <c r="J144">
+        <v>20</v>
+      </c>
+      <c r="K144">
+        <v>11</v>
+      </c>
+      <c r="L144" t="s">
+        <v>5</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>229.81784089999999</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="I145">
+        <v>209.24975370000001</v>
+      </c>
+      <c r="J145">
+        <v>24</v>
+      </c>
+      <c r="K145">
+        <v>10</v>
+      </c>
+      <c r="L145" t="s">
+        <v>6</v>
+      </c>
+      <c r="M145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>177.2838342</v>
+      </c>
+      <c r="B146">
+        <v>20</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="I146">
+        <v>197.21376710000001</v>
+      </c>
+      <c r="J146">
+        <v>20</v>
+      </c>
+      <c r="K146">
+        <v>7</v>
+      </c>
+      <c r="L146" t="s">
+        <v>5</v>
+      </c>
+      <c r="M146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>357.04682650000001</v>
+      </c>
+      <c r="B147">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>190.11474000000001</v>
+      </c>
+      <c r="J147">
+        <v>20</v>
+      </c>
+      <c r="K147">
+        <v>8</v>
+      </c>
+      <c r="L147" t="s">
+        <v>5</v>
+      </c>
+      <c r="M147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>152.2565616</v>
+      </c>
+      <c r="B148">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>25</v>
+      </c>
+      <c r="I148">
+        <v>137.19353179999999</v>
+      </c>
+      <c r="J148">
+        <v>20</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
+      <c r="L148" t="s">
+        <v>5</v>
+      </c>
+      <c r="M148">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>215.20691790000001</v>
+      </c>
+      <c r="B149">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>30</v>
+      </c>
+      <c r="I149">
+        <v>146.09696270000001</v>
+      </c>
+      <c r="J149">
+        <v>20</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149" t="s">
+        <v>5</v>
+      </c>
+      <c r="M149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>386.71483069999999</v>
+      </c>
+      <c r="B150">
+        <v>22</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>35</v>
+      </c>
+      <c r="I150">
+        <v>176.6712315</v>
+      </c>
+      <c r="J150">
+        <v>20</v>
+      </c>
+      <c r="K150">
+        <v>7</v>
+      </c>
+      <c r="L150" t="s">
+        <v>5</v>
+      </c>
+      <c r="M150">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>314.28303870000002</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>40</v>
+      </c>
+      <c r="I151">
+        <v>175.38888689999999</v>
+      </c>
+      <c r="J151">
+        <v>24</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+      <c r="L151" t="s">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>238.32856860000001</v>
+      </c>
+      <c r="B152" s="2">
+        <v>18</v>
+      </c>
+      <c r="C152" s="2">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45</v>
+      </c>
+      <c r="I152" s="2">
+        <v>205.8016624</v>
+      </c>
+      <c r="J152" s="2">
+        <v>18</v>
+      </c>
+      <c r="K152" s="2">
+        <v>9</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M152" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>363.09909529999999</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>22</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>50</v>
+      </c>
+      <c r="I153">
+        <v>161.5542829</v>
+      </c>
+      <c r="J153">
+        <v>20</v>
+      </c>
+      <c r="K153">
+        <v>6</v>
+      </c>
+      <c r="L153" t="s">
+        <v>5</v>
+      </c>
+      <c r="M153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>147.12938869999999</v>
+      </c>
+      <c r="B154">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>55</v>
+      </c>
+      <c r="I154">
+        <v>167.92065439999999</v>
+      </c>
+      <c r="J154">
+        <v>20</v>
+      </c>
+      <c r="K154">
+        <v>6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>5</v>
+      </c>
+      <c r="M154">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>163.49071169999999</v>
+      </c>
+      <c r="B155">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>60</v>
+      </c>
+      <c r="I155">
+        <v>247.599142</v>
+      </c>
+      <c r="J155">
+        <v>22</v>
+      </c>
+      <c r="K155">
+        <v>11</v>
+      </c>
+      <c r="L155" t="s">
+        <v>6</v>
+      </c>
+      <c r="M155">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>216.3515539</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>65</v>
+      </c>
+      <c r="I156">
+        <v>252.3116612</v>
+      </c>
+      <c r="J156">
+        <v>22</v>
+      </c>
+      <c r="K156">
+        <v>10</v>
+      </c>
+      <c r="L156" t="s">
+        <v>6</v>
+      </c>
+      <c r="M156">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>218.97042999999999</v>
+      </c>
+      <c r="B157">
+        <v>20</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>300.79464419999999</v>
+      </c>
+      <c r="J157">
+        <v>22</v>
+      </c>
+      <c r="K157">
+        <v>17</v>
+      </c>
+      <c r="L157" t="s">
+        <v>6</v>
+      </c>
+      <c r="M157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>206.3107277</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>75</v>
+      </c>
+      <c r="I158">
+        <v>165.01565350000001</v>
+      </c>
+      <c r="J158">
+        <v>20</v>
+      </c>
+      <c r="K158">
+        <v>6</v>
+      </c>
+      <c r="L158" t="s">
+        <v>5</v>
+      </c>
+      <c r="M158">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>284.22241650000001</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>171.4461234</v>
+      </c>
+      <c r="J159">
+        <v>20</v>
+      </c>
+      <c r="K159">
+        <v>7</v>
+      </c>
+      <c r="L159" t="s">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>427.47931569999997</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>19</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>85</v>
+      </c>
+      <c r="I160">
+        <v>267.05687160000002</v>
+      </c>
+      <c r="J160">
+        <v>20</v>
+      </c>
+      <c r="K160">
+        <v>12</v>
+      </c>
+      <c r="L160" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>168.3263048</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>90</v>
+      </c>
+      <c r="I161">
+        <v>215.0221875</v>
+      </c>
+      <c r="J161">
+        <v>22</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+      <c r="L161" t="s">
+        <v>6</v>
+      </c>
+      <c r="M161">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>182.2930604</v>
+      </c>
+      <c r="B162">
+        <v>20</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>95</v>
+      </c>
+      <c r="I162">
+        <v>214.6485801</v>
+      </c>
+      <c r="J162">
+        <v>20</v>
+      </c>
+      <c r="K162">
+        <v>10</v>
+      </c>
+      <c r="L162" t="s">
+        <v>5</v>
+      </c>
+      <c r="M162">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>207.38882599999999</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>100</v>
+      </c>
+      <c r="I163">
+        <v>182.10835280000001</v>
+      </c>
+      <c r="J163">
+        <v>20</v>
+      </c>
+      <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163" t="s">
+        <v>5</v>
+      </c>
+      <c r="M163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f>MIN(A144:A163)</f>
+        <v>147.12938869999999</v>
+      </c>
+      <c r="I164">
+        <f>MIN(I144:I163)</f>
+        <v>137.19353179999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2</v>
+      </c>
+      <c r="L166" t="s">
+        <v>3</v>
+      </c>
+      <c r="M166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>203.84560450000001</v>
+      </c>
+      <c r="B167">
+        <v>20</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>208.29750989999999</v>
+      </c>
+      <c r="J167">
+        <v>20</v>
+      </c>
+      <c r="K167">
+        <v>11</v>
+      </c>
+      <c r="L167" t="s">
+        <v>5</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>255.90871569999999</v>
+      </c>
+      <c r="B168">
+        <v>20</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+      <c r="I168">
+        <v>170.62502699999999</v>
+      </c>
+      <c r="J168">
+        <v>20</v>
+      </c>
+      <c r="K168">
+        <v>6</v>
+      </c>
+      <c r="L168" t="s">
+        <v>5</v>
+      </c>
+      <c r="M168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>199.92187390000001</v>
+      </c>
+      <c r="B169">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>15</v>
+      </c>
+      <c r="I169">
+        <v>194.121622</v>
+      </c>
+      <c r="J169">
+        <v>20</v>
+      </c>
+      <c r="K169">
+        <v>6</v>
+      </c>
+      <c r="L169" t="s">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>209.77534109999999</v>
+      </c>
+      <c r="B170">
+        <v>20</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>20</v>
+      </c>
+      <c r="I170">
+        <v>347.52727329999999</v>
+      </c>
+      <c r="J170">
+        <v>24</v>
+      </c>
+      <c r="K170">
+        <v>13</v>
+      </c>
+      <c r="L170" t="s">
+        <v>6</v>
+      </c>
+      <c r="M170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>194.58028279999999</v>
+      </c>
+      <c r="B171">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
+      </c>
+      <c r="I171">
+        <v>160.30856030000001</v>
+      </c>
+      <c r="J171">
+        <v>20</v>
+      </c>
+      <c r="K171">
+        <v>7</v>
+      </c>
+      <c r="L171" t="s">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>211.19526909999999</v>
+      </c>
+      <c r="B172">
+        <v>20</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="I172">
+        <v>154.21023779999999</v>
+      </c>
+      <c r="J172">
+        <v>22</v>
+      </c>
+      <c r="K172">
+        <v>6</v>
+      </c>
+      <c r="L172" t="s">
+        <v>6</v>
+      </c>
+      <c r="M172">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>262.8327385</v>
+      </c>
+      <c r="B173" s="2">
+        <v>18</v>
+      </c>
+      <c r="C173" s="2">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="2">
+        <v>35</v>
+      </c>
+      <c r="I173">
+        <v>164.31641060000001</v>
+      </c>
+      <c r="J173">
+        <v>20</v>
+      </c>
+      <c r="K173">
+        <v>7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>221.19798979999999</v>
+      </c>
+      <c r="B174">
+        <v>20</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>40</v>
+      </c>
+      <c r="I174">
+        <v>170.5145498</v>
+      </c>
+      <c r="J174">
+        <v>20</v>
+      </c>
+      <c r="K174">
+        <v>6</v>
+      </c>
+      <c r="L174" t="s">
+        <v>5</v>
+      </c>
+      <c r="M174">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>245.85113250000001</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>45</v>
+      </c>
+      <c r="I175">
+        <v>192.479724</v>
+      </c>
+      <c r="J175">
+        <v>20</v>
+      </c>
+      <c r="K175">
+        <v>9</v>
+      </c>
+      <c r="L175" t="s">
+        <v>5</v>
+      </c>
+      <c r="M175">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>183.8143924</v>
+      </c>
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="I176">
+        <v>169.82637099999999</v>
+      </c>
+      <c r="J176">
+        <v>20</v>
+      </c>
+      <c r="K176">
+        <v>7</v>
+      </c>
+      <c r="L176" t="s">
+        <v>5</v>
+      </c>
+      <c r="M176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>317.16060779999998</v>
+      </c>
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>55</v>
+      </c>
+      <c r="I177">
+        <v>195.0517787</v>
+      </c>
+      <c r="J177">
+        <v>24</v>
+      </c>
+      <c r="K177">
+        <v>7</v>
+      </c>
+      <c r="L177" t="s">
+        <v>6</v>
+      </c>
+      <c r="M177">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>345.52795570000001</v>
+      </c>
+      <c r="B178">
+        <v>20</v>
+      </c>
+      <c r="C178">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>60</v>
+      </c>
+      <c r="I178">
+        <v>170.2352429</v>
+      </c>
+      <c r="J178">
+        <v>20</v>
+      </c>
+      <c r="K178">
+        <v>7</v>
+      </c>
+      <c r="L178" t="s">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>213.58758750000001</v>
+      </c>
+      <c r="B179">
+        <v>20</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>65</v>
+      </c>
+      <c r="I179" s="2">
+        <v>171.83258050000001</v>
+      </c>
+      <c r="J179" s="2">
+        <v>18</v>
+      </c>
+      <c r="K179" s="2">
+        <v>7</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M179" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>212.7328526</v>
+      </c>
+      <c r="B180">
+        <v>20</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>193.69803020000001</v>
+      </c>
+      <c r="J180">
+        <v>20</v>
+      </c>
+      <c r="K180">
+        <v>7</v>
+      </c>
+      <c r="L180" t="s">
+        <v>5</v>
+      </c>
+      <c r="M180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>198.8966001</v>
+      </c>
+      <c r="B181">
+        <v>20</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>233.6356687</v>
+      </c>
+      <c r="J181">
+        <v>20</v>
+      </c>
+      <c r="K181">
+        <v>10</v>
+      </c>
+      <c r="L181" t="s">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>173.31813450000001</v>
+      </c>
+      <c r="B182">
+        <v>20</v>
+      </c>
+      <c r="C182">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>80</v>
+      </c>
+      <c r="I182">
+        <v>146.22949650000001</v>
+      </c>
+      <c r="J182">
+        <v>20</v>
+      </c>
+      <c r="K182">
+        <v>5</v>
+      </c>
+      <c r="L182" t="s">
+        <v>5</v>
+      </c>
+      <c r="M182">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>241.95173980000001</v>
+      </c>
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>85</v>
+      </c>
+      <c r="I183">
+        <v>208.06370670000001</v>
+      </c>
+      <c r="J183">
+        <v>24</v>
+      </c>
+      <c r="K183">
+        <v>11</v>
+      </c>
+      <c r="L183" t="s">
+        <v>6</v>
+      </c>
+      <c r="M183">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>166.49494379999999</v>
+      </c>
+      <c r="B184">
+        <v>20</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>90</v>
+      </c>
+      <c r="I184">
+        <v>221.25408010000001</v>
+      </c>
+      <c r="J184">
+        <v>20</v>
+      </c>
+      <c r="K184">
+        <v>9</v>
+      </c>
+      <c r="L184" t="s">
+        <v>5</v>
+      </c>
+      <c r="M184">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>181.9222939</v>
+      </c>
+      <c r="B185">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>95</v>
+      </c>
+      <c r="I185">
+        <v>251.0574804</v>
+      </c>
+      <c r="J185">
+        <v>24</v>
+      </c>
+      <c r="K185">
+        <v>12</v>
+      </c>
+      <c r="L185" t="s">
+        <v>6</v>
+      </c>
+      <c r="M185">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>195.89904469999999</v>
+      </c>
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="C186">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>100</v>
+      </c>
+      <c r="I186">
+        <v>199.63934900000001</v>
+      </c>
+      <c r="J186">
+        <v>20</v>
+      </c>
+      <c r="K186">
+        <v>8</v>
+      </c>
+      <c r="L186" t="s">
+        <v>5</v>
+      </c>
+      <c r="M186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f>MIN(A167:A186)</f>
+        <v>166.49494379999999</v>
+      </c>
+      <c r="I187">
+        <f>MIN(I167:I186)</f>
+        <v>146.22949650000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" t="s">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2</v>
+      </c>
+      <c r="L189" t="s">
+        <v>3</v>
+      </c>
+      <c r="M189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>230.9033967</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>307.466815</v>
+      </c>
+      <c r="J190">
+        <v>24</v>
+      </c>
+      <c r="K190">
+        <v>15</v>
+      </c>
+      <c r="L190" t="s">
+        <v>7</v>
+      </c>
+      <c r="M190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>207.70495299999999</v>
+      </c>
+      <c r="B191">
+        <v>20</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>10</v>
+      </c>
+      <c r="I191">
+        <v>156.60320150000001</v>
+      </c>
+      <c r="J191">
+        <v>20</v>
+      </c>
+      <c r="K191">
+        <v>6</v>
+      </c>
+      <c r="L191" t="s">
+        <v>5</v>
+      </c>
+      <c r="M191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>209.85214730000001</v>
+      </c>
+      <c r="B192">
+        <v>20</v>
+      </c>
+      <c r="C192">
+        <v>9</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
+      </c>
+      <c r="I192">
+        <v>158.84496010000001</v>
+      </c>
+      <c r="J192">
+        <v>20</v>
+      </c>
+      <c r="K192">
+        <v>6</v>
+      </c>
+      <c r="L192" t="s">
+        <v>5</v>
+      </c>
+      <c r="M192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>215.30638640000001</v>
+      </c>
+      <c r="B193">
+        <v>22</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="I193">
+        <v>148.71429240000001</v>
+      </c>
+      <c r="J193">
+        <v>20</v>
+      </c>
+      <c r="K193">
+        <v>6</v>
+      </c>
+      <c r="L193" t="s">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>195.07329530000001</v>
+      </c>
+      <c r="B194">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>25</v>
+      </c>
+      <c r="I194">
+        <v>166.8245139</v>
+      </c>
+      <c r="J194">
+        <v>20</v>
+      </c>
+      <c r="K194">
+        <v>8</v>
+      </c>
+      <c r="L194" t="s">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>235.91700890000001</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>30</v>
+      </c>
+      <c r="I195" s="2">
+        <v>229.5677785</v>
+      </c>
+      <c r="J195" s="2">
+        <v>18</v>
+      </c>
+      <c r="K195" s="2">
+        <v>10</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M195" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>233.49973979999999</v>
+      </c>
+      <c r="B196">
+        <v>20</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>35</v>
+      </c>
+      <c r="I196">
+        <v>183.5743847</v>
+      </c>
+      <c r="J196">
+        <v>20</v>
+      </c>
+      <c r="K196">
+        <v>7</v>
+      </c>
+      <c r="L196" t="s">
+        <v>5</v>
+      </c>
+      <c r="M196">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>208.53783519999999</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>40</v>
+      </c>
+      <c r="I197">
+        <v>217.2544274</v>
+      </c>
+      <c r="J197">
+        <v>24</v>
+      </c>
+      <c r="K197">
+        <v>7</v>
+      </c>
+      <c r="L197" t="s">
+        <v>6</v>
+      </c>
+      <c r="M197">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>175.98859569999999</v>
+      </c>
+      <c r="B198">
+        <v>20</v>
+      </c>
+      <c r="C198">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>45</v>
+      </c>
+      <c r="I198">
+        <v>149.7534852</v>
+      </c>
+      <c r="J198">
+        <v>20</v>
+      </c>
+      <c r="K198">
+        <v>6</v>
+      </c>
+      <c r="L198" t="s">
+        <v>5</v>
+      </c>
+      <c r="M198">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>178.13709879999999</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>50</v>
+      </c>
+      <c r="I199">
+        <v>158.24004969999999</v>
+      </c>
+      <c r="J199">
+        <v>20</v>
+      </c>
+      <c r="K199">
+        <v>5</v>
+      </c>
+      <c r="L199" t="s">
+        <v>5</v>
+      </c>
+      <c r="M199">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>259.40762100000001</v>
+      </c>
+      <c r="B200">
+        <v>24</v>
+      </c>
+      <c r="C200">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>55</v>
+      </c>
+      <c r="I200">
+        <v>198.10427659999999</v>
+      </c>
+      <c r="J200">
+        <v>20</v>
+      </c>
+      <c r="K200">
+        <v>7</v>
+      </c>
+      <c r="L200" t="s">
+        <v>5</v>
+      </c>
+      <c r="M200">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>185.72002499999999</v>
+      </c>
+      <c r="B201">
+        <v>20</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>60</v>
+      </c>
+      <c r="I201">
+        <v>172.00647000000001</v>
+      </c>
+      <c r="J201">
+        <v>20</v>
+      </c>
+      <c r="K201">
+        <v>6</v>
+      </c>
+      <c r="L201" t="s">
+        <v>5</v>
+      </c>
+      <c r="M201">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>197.62576910000001</v>
+      </c>
+      <c r="B202">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202">
+        <v>65</v>
+      </c>
+      <c r="I202">
+        <v>219.8043481</v>
+      </c>
+      <c r="J202">
+        <v>22</v>
+      </c>
+      <c r="K202">
+        <v>8</v>
+      </c>
+      <c r="L202" t="s">
+        <v>6</v>
+      </c>
+      <c r="M202">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>203.9070159</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>70</v>
+      </c>
+      <c r="I203">
+        <v>198.00704830000001</v>
+      </c>
+      <c r="J203">
+        <v>20</v>
+      </c>
+      <c r="K203">
+        <v>8</v>
+      </c>
+      <c r="L203" t="s">
+        <v>5</v>
+      </c>
+      <c r="M203">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>176.5892929</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>75</v>
+      </c>
+      <c r="I204">
+        <v>132.3679334</v>
+      </c>
+      <c r="J204">
+        <v>20</v>
+      </c>
+      <c r="K204">
+        <v>5</v>
+      </c>
+      <c r="L204" t="s">
+        <v>5</v>
+      </c>
+      <c r="M204">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>163.39389790000001</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>80</v>
+      </c>
+      <c r="I205">
+        <v>139.86509229999999</v>
+      </c>
+      <c r="J205">
+        <v>20</v>
+      </c>
+      <c r="K205">
+        <v>5</v>
+      </c>
+      <c r="L205" t="s">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>311.97805590000002</v>
+      </c>
+      <c r="B206" s="2">
+        <v>18</v>
+      </c>
+      <c r="C206" s="2">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="2">
+        <v>85</v>
+      </c>
+      <c r="I206">
+        <v>156.23838370000001</v>
+      </c>
+      <c r="J206">
+        <v>20</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206" t="s">
+        <v>5</v>
+      </c>
+      <c r="M206">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>141.86168090000001</v>
+      </c>
+      <c r="B207">
+        <v>20</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207">
+        <v>90</v>
+      </c>
+      <c r="I207">
+        <v>142.45356659999999</v>
+      </c>
+      <c r="J207">
+        <v>20</v>
+      </c>
+      <c r="K207">
+        <v>6</v>
+      </c>
+      <c r="L207" t="s">
+        <v>5</v>
+      </c>
+      <c r="M207">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>184.02353059999999</v>
+      </c>
+      <c r="B208">
+        <v>20</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208">
+        <v>95</v>
+      </c>
+      <c r="I208">
+        <v>170.1671948</v>
+      </c>
+      <c r="J208">
+        <v>20</v>
+      </c>
+      <c r="K208">
+        <v>10</v>
+      </c>
+      <c r="L208" t="s">
+        <v>5</v>
+      </c>
+      <c r="M208">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>227.2024188</v>
+      </c>
+      <c r="B209">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209">
+        <v>100</v>
+      </c>
+      <c r="I209">
+        <v>192.3239854</v>
+      </c>
+      <c r="J209">
+        <v>24</v>
+      </c>
+      <c r="K209">
+        <v>6</v>
+      </c>
+      <c r="L209" t="s">
+        <v>6</v>
+      </c>
+      <c r="M209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <f>MIN(A190:A209)</f>
+        <v>141.86168090000001</v>
+      </c>
+      <c r="I210">
+        <f>MIN(I190:I209)</f>
+        <v>132.3679334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" t="s">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>2</v>
+      </c>
+      <c r="L212" t="s">
+        <v>3</v>
+      </c>
+      <c r="M212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>171.7745587</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="I213">
+        <v>158.23792130000001</v>
+      </c>
+      <c r="J213">
+        <v>20</v>
+      </c>
+      <c r="K213">
+        <v>6</v>
+      </c>
+      <c r="L213" t="s">
+        <v>5</v>
+      </c>
+      <c r="M213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>338.1784007</v>
+      </c>
+      <c r="B214">
+        <v>22</v>
+      </c>
+      <c r="C214">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214">
+        <v>10</v>
+      </c>
+      <c r="I214">
+        <v>145.55456839999999</v>
+      </c>
+      <c r="J214">
+        <v>20</v>
+      </c>
+      <c r="K214">
+        <v>6</v>
+      </c>
+      <c r="L214" t="s">
+        <v>5</v>
+      </c>
+      <c r="M214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>279.4100704</v>
+      </c>
+      <c r="B215">
+        <v>24</v>
+      </c>
+      <c r="C215">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
+      </c>
+      <c r="I215">
+        <v>230.56644750000001</v>
+      </c>
+      <c r="J215">
+        <v>22</v>
+      </c>
+      <c r="K215">
+        <v>9</v>
+      </c>
+      <c r="L215" t="s">
+        <v>6</v>
+      </c>
+      <c r="M215">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>132.3306867</v>
+      </c>
+      <c r="B216" s="2">
+        <v>20</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="2">
+        <v>20</v>
+      </c>
+      <c r="I216">
+        <v>185.17346810000001</v>
+      </c>
+      <c r="J216">
+        <v>20</v>
+      </c>
+      <c r="K216">
+        <v>6</v>
+      </c>
+      <c r="L216" t="s">
+        <v>5</v>
+      </c>
+      <c r="M216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>244.54467070000001</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>25</v>
+      </c>
+      <c r="I217">
+        <v>163.9291954</v>
+      </c>
+      <c r="J217">
+        <v>24</v>
+      </c>
+      <c r="K217">
+        <v>7</v>
+      </c>
+      <c r="L217" t="s">
+        <v>6</v>
+      </c>
+      <c r="M217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>241.40565480000001</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
+      </c>
+      <c r="I218">
+        <v>140.01248219999999</v>
+      </c>
+      <c r="J218">
+        <v>20</v>
+      </c>
+      <c r="K218">
+        <v>5</v>
+      </c>
+      <c r="L218" t="s">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>226.16235560000001</v>
+      </c>
+      <c r="B219">
+        <v>24</v>
+      </c>
+      <c r="C219">
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
+      </c>
+      <c r="I219">
+        <v>167.65850750000001</v>
+      </c>
+      <c r="J219">
+        <v>22</v>
+      </c>
+      <c r="K219">
+        <v>7</v>
+      </c>
+      <c r="L219" t="s">
+        <v>6</v>
+      </c>
+      <c r="M219">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>233.2351783</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>40</v>
+      </c>
+      <c r="I220">
+        <v>198.25290699999999</v>
+      </c>
+      <c r="J220">
+        <v>20</v>
+      </c>
+      <c r="K220">
+        <v>8</v>
+      </c>
+      <c r="L220" t="s">
+        <v>5</v>
+      </c>
+      <c r="M220">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>173.33118619999999</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>45</v>
+      </c>
+      <c r="I221">
+        <v>161.15746390000001</v>
+      </c>
+      <c r="J221">
+        <v>20</v>
+      </c>
+      <c r="K221">
+        <v>6</v>
+      </c>
+      <c r="L221" t="s">
+        <v>5</v>
+      </c>
+      <c r="M221">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>283.10400079999999</v>
+      </c>
+      <c r="B222">
+        <v>24</v>
+      </c>
+      <c r="C222">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>50</v>
+      </c>
+      <c r="I222">
+        <v>199.95926840000001</v>
+      </c>
+      <c r="J222">
+        <v>20</v>
+      </c>
+      <c r="K222">
+        <v>7</v>
+      </c>
+      <c r="L222" t="s">
+        <v>5</v>
+      </c>
+      <c r="M222">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>198.92372839999999</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>9</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>55</v>
+      </c>
+      <c r="I223">
+        <v>141.9303002</v>
+      </c>
+      <c r="J223">
+        <v>20</v>
+      </c>
+      <c r="K223">
+        <v>6</v>
+      </c>
+      <c r="L223" t="s">
+        <v>5</v>
+      </c>
+      <c r="M223">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>186.41048459999999</v>
+      </c>
+      <c r="B224">
+        <v>20</v>
+      </c>
+      <c r="C224">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>60</v>
+      </c>
+      <c r="I224">
+        <v>239.46236719999999</v>
+      </c>
+      <c r="J224">
+        <v>20</v>
+      </c>
+      <c r="K224">
+        <v>9</v>
+      </c>
+      <c r="L224" t="s">
+        <v>5</v>
+      </c>
+      <c r="M224">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>161.43074179999999</v>
+      </c>
+      <c r="B225">
+        <v>24</v>
+      </c>
+      <c r="C225">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>65</v>
+      </c>
+      <c r="I225">
+        <v>143.46905949999999</v>
+      </c>
+      <c r="J225">
+        <v>20</v>
+      </c>
+      <c r="K225">
+        <v>6</v>
+      </c>
+      <c r="L225" t="s">
+        <v>5</v>
+      </c>
+      <c r="M225">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>211.79722469999999</v>
+      </c>
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>70</v>
+      </c>
+      <c r="I226">
+        <v>148.73493569999999</v>
+      </c>
+      <c r="J226">
+        <v>20</v>
+      </c>
+      <c r="K226">
+        <v>6</v>
+      </c>
+      <c r="L226" t="s">
+        <v>5</v>
+      </c>
+      <c r="M226">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>255.44771729999999</v>
+      </c>
+      <c r="B227">
+        <v>20</v>
+      </c>
+      <c r="C227">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>75</v>
+      </c>
+      <c r="I227">
+        <v>191.1704526</v>
+      </c>
+      <c r="J227">
+        <v>24</v>
+      </c>
+      <c r="K227">
+        <v>8</v>
+      </c>
+      <c r="L227" t="s">
+        <v>6</v>
+      </c>
+      <c r="M227">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>164.83068840000001</v>
+      </c>
+      <c r="B228">
+        <v>20</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>80</v>
+      </c>
+      <c r="I228">
+        <v>164.85709919999999</v>
+      </c>
+      <c r="J228">
+        <v>24</v>
+      </c>
+      <c r="K228">
+        <v>6</v>
+      </c>
+      <c r="L228" t="s">
+        <v>6</v>
+      </c>
+      <c r="M228">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>250.21930259999999</v>
+      </c>
+      <c r="B229">
+        <v>20</v>
+      </c>
+      <c r="C229">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>85</v>
+      </c>
+      <c r="I229">
+        <v>223.42102560000001</v>
+      </c>
+      <c r="J229">
+        <v>22</v>
+      </c>
+      <c r="K229">
+        <v>11</v>
+      </c>
+      <c r="L229" t="s">
+        <v>6</v>
+      </c>
+      <c r="M229">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>187.06815760000001</v>
+      </c>
+      <c r="B230">
+        <v>20</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>90</v>
+      </c>
+      <c r="I230">
+        <v>206.4775405</v>
+      </c>
+      <c r="J230">
+        <v>20</v>
+      </c>
+      <c r="K230">
+        <v>8</v>
+      </c>
+      <c r="L230" t="s">
+        <v>5</v>
+      </c>
+      <c r="M230">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>199.68169420000001</v>
+      </c>
+      <c r="B231">
+        <v>20</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>95</v>
+      </c>
+      <c r="I231" s="2">
+        <v>126.7788525</v>
+      </c>
+      <c r="J231" s="2">
+        <v>20</v>
+      </c>
+      <c r="K231" s="2">
+        <v>4</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M231" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>266.21836830000001</v>
+      </c>
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>100</v>
+      </c>
+      <c r="I232">
+        <v>140.80909460000001</v>
+      </c>
+      <c r="J232">
+        <v>20</v>
+      </c>
+      <c r="K232">
+        <v>5</v>
+      </c>
+      <c r="L232" t="s">
+        <v>5</v>
+      </c>
+      <c r="M232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <f>MIN(A213:A232)</f>
+        <v>132.3306867</v>
+      </c>
+      <c r="I233">
+        <f>MIN(I213:I232)</f>
+        <v>126.7788525</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>19</v>
+      </c>
+      <c r="I235" t="s">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>1</v>
+      </c>
+      <c r="K235" t="s">
+        <v>2</v>
+      </c>
+      <c r="L235" t="s">
+        <v>3</v>
+      </c>
+      <c r="M235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>171.1148221</v>
+      </c>
+      <c r="B236">
+        <v>20</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="I236">
+        <v>217.73146869999999</v>
+      </c>
+      <c r="J236">
+        <v>20</v>
+      </c>
+      <c r="K236">
+        <v>10</v>
+      </c>
+      <c r="L236" t="s">
+        <v>5</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>467.05197070000003</v>
+      </c>
+      <c r="B237">
+        <v>24</v>
+      </c>
+      <c r="C237">
+        <v>29</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <v>10</v>
+      </c>
+      <c r="I237">
+        <v>135.28959</v>
+      </c>
+      <c r="J237">
+        <v>20</v>
+      </c>
+      <c r="K237">
+        <v>6</v>
+      </c>
+      <c r="L237" t="s">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>272.09011459999999</v>
+      </c>
+      <c r="B238">
+        <v>24</v>
+      </c>
+      <c r="C238">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>15</v>
+      </c>
+      <c r="I238">
+        <v>186.75789119999999</v>
+      </c>
+      <c r="J238">
+        <v>24</v>
+      </c>
+      <c r="K238">
+        <v>10</v>
+      </c>
+      <c r="L238" t="s">
+        <v>6</v>
+      </c>
+      <c r="M238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>175.10760819999999</v>
+      </c>
+      <c r="B239">
+        <v>20</v>
+      </c>
+      <c r="C239">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <v>20</v>
+      </c>
+      <c r="I239">
+        <v>169.65616470000001</v>
+      </c>
+      <c r="J239">
+        <v>20</v>
+      </c>
+      <c r="K239">
+        <v>6</v>
+      </c>
+      <c r="L239" t="s">
+        <v>5</v>
+      </c>
+      <c r="M239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>392.47082230000001</v>
+      </c>
+      <c r="B240">
+        <v>20</v>
+      </c>
+      <c r="C240">
+        <v>17</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>25</v>
+      </c>
+      <c r="I240">
+        <v>289.3451986</v>
+      </c>
+      <c r="J240">
+        <v>20</v>
+      </c>
+      <c r="K240">
+        <v>9</v>
+      </c>
+      <c r="L240" t="s">
+        <v>6</v>
+      </c>
+      <c r="M240">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>210.26256179999999</v>
+      </c>
+      <c r="B241">
+        <v>20</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>30</v>
+      </c>
+      <c r="I241">
+        <v>182.9082239</v>
+      </c>
+      <c r="J241">
+        <v>20</v>
+      </c>
+      <c r="K241">
+        <v>6</v>
+      </c>
+      <c r="L241" t="s">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>207.12823610000001</v>
+      </c>
+      <c r="B242">
+        <v>24</v>
+      </c>
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
+      </c>
+      <c r="I242">
+        <v>190.91341439999999</v>
+      </c>
+      <c r="J242">
+        <v>20</v>
+      </c>
+      <c r="K242">
+        <v>8</v>
+      </c>
+      <c r="L242" t="s">
+        <v>6</v>
+      </c>
+      <c r="M242">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>205.22873709999999</v>
+      </c>
+      <c r="B243">
+        <v>20</v>
+      </c>
+      <c r="C243">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>40</v>
+      </c>
+      <c r="I243">
+        <v>174.58291629999999</v>
+      </c>
+      <c r="J243">
+        <v>20</v>
+      </c>
+      <c r="K243">
+        <v>10</v>
+      </c>
+      <c r="L243" t="s">
+        <v>5</v>
+      </c>
+      <c r="M243">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>153.95691199999999</v>
+      </c>
+      <c r="B244" s="2">
+        <v>20</v>
+      </c>
+      <c r="C244" s="2">
+        <v>7</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45</v>
+      </c>
+      <c r="I244" s="2">
+        <v>134.1012916</v>
+      </c>
+      <c r="J244" s="2">
+        <v>20</v>
+      </c>
+      <c r="K244" s="2">
+        <v>5</v>
+      </c>
+      <c r="L244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M244" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>266.30496549999998</v>
+      </c>
+      <c r="B245">
+        <v>20</v>
+      </c>
+      <c r="C245">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>50</v>
+      </c>
+      <c r="I245">
+        <v>164.41361119999999</v>
+      </c>
+      <c r="J245">
+        <v>20</v>
+      </c>
+      <c r="K245">
+        <v>6</v>
+      </c>
+      <c r="L245" t="s">
+        <v>5</v>
+      </c>
+      <c r="M245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>232.17453850000001</v>
+      </c>
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>55</v>
+      </c>
+      <c r="I246">
+        <v>212.85826589999999</v>
+      </c>
+      <c r="J246">
+        <v>20</v>
+      </c>
+      <c r="K246">
+        <v>9</v>
+      </c>
+      <c r="L246" t="s">
+        <v>5</v>
+      </c>
+      <c r="M246">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>211.07439249999999</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>60</v>
+      </c>
+      <c r="I247">
+        <v>168.47162069999999</v>
+      </c>
+      <c r="J247">
+        <v>20</v>
+      </c>
+      <c r="K247">
+        <v>7</v>
+      </c>
+      <c r="L247" t="s">
+        <v>5</v>
+      </c>
+      <c r="M247">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>165.81408450000001</v>
+      </c>
+      <c r="B248">
+        <v>20</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>65</v>
+      </c>
+      <c r="I248">
+        <v>182.8167445</v>
+      </c>
+      <c r="J248">
+        <v>20</v>
+      </c>
+      <c r="K248">
+        <v>7</v>
+      </c>
+      <c r="L248" t="s">
+        <v>5</v>
+      </c>
+      <c r="M248">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>216.16789610000001</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249">
+        <v>70</v>
+      </c>
+      <c r="I249">
+        <v>179.3968236</v>
+      </c>
+      <c r="J249">
+        <v>20</v>
+      </c>
+      <c r="K249">
+        <v>6</v>
+      </c>
+      <c r="L249" t="s">
+        <v>5</v>
+      </c>
+      <c r="M249">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>165.70219370000001</v>
+      </c>
+      <c r="B250">
+        <v>20</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>75</v>
+      </c>
+      <c r="I250">
+        <v>164.4872795</v>
+      </c>
+      <c r="J250">
+        <v>20</v>
+      </c>
+      <c r="K250">
+        <v>6</v>
+      </c>
+      <c r="L250" t="s">
+        <v>5</v>
+      </c>
+      <c r="M250">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>234.89065489999999</v>
+      </c>
+      <c r="B251">
+        <v>20</v>
+      </c>
+      <c r="C251">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>80</v>
+      </c>
+      <c r="I251">
+        <v>156.46692279999999</v>
+      </c>
+      <c r="J251">
+        <v>20</v>
+      </c>
+      <c r="K251">
+        <v>5</v>
+      </c>
+      <c r="L251" t="s">
+        <v>5</v>
+      </c>
+      <c r="M251">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>198.3902186</v>
+      </c>
+      <c r="B252">
+        <v>20</v>
+      </c>
+      <c r="C252">
+        <v>9</v>
+      </c>
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>85</v>
+      </c>
+      <c r="I252">
+        <v>178.98516129999999</v>
+      </c>
+      <c r="J252">
+        <v>24</v>
+      </c>
+      <c r="K252">
+        <v>7</v>
+      </c>
+      <c r="L252" t="s">
+        <v>6</v>
+      </c>
+      <c r="M252">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>161.55107699999999</v>
+      </c>
+      <c r="B253">
+        <v>20</v>
+      </c>
+      <c r="C253">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253">
+        <v>90</v>
+      </c>
+      <c r="I253">
+        <v>220.6930007</v>
+      </c>
+      <c r="J253">
+        <v>20</v>
+      </c>
+      <c r="K253">
+        <v>8</v>
+      </c>
+      <c r="L253" t="s">
+        <v>5</v>
+      </c>
+      <c r="M253">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>183.3886401</v>
+      </c>
+      <c r="B254">
+        <v>20</v>
+      </c>
+      <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254">
+        <v>95</v>
+      </c>
+      <c r="I254">
+        <v>200.7525641</v>
+      </c>
+      <c r="J254">
+        <v>20</v>
+      </c>
+      <c r="K254">
+        <v>7</v>
+      </c>
+      <c r="L254" t="s">
+        <v>5</v>
+      </c>
+      <c r="M254">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>178.2640049</v>
+      </c>
+      <c r="B255">
+        <v>20</v>
+      </c>
+      <c r="C255">
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255">
+        <v>100</v>
+      </c>
+      <c r="I255">
+        <v>213.45759839999999</v>
+      </c>
+      <c r="J255">
+        <v>20</v>
+      </c>
+      <c r="K255">
+        <v>8</v>
+      </c>
+      <c r="L255" t="s">
+        <v>5</v>
+      </c>
+      <c r="M255">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <f>MIN(A236:A255)</f>
+        <v>153.95691199999999</v>
+      </c>
+      <c r="I256">
+        <f>MIN(I236:I255)</f>
+        <v>134.1012916</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" t="s">
+        <v>21</v>
+      </c>
+      <c r="I259" t="s">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1</v>
+      </c>
+      <c r="K259" t="s">
+        <v>2</v>
+      </c>
+      <c r="L259" t="s">
+        <v>3</v>
+      </c>
+      <c r="M259" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>160.45438329999999</v>
+      </c>
+      <c r="B260" s="4">
+        <v>20</v>
+      </c>
+      <c r="C260" s="4">
+        <v>8</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="4">
+        <v>20</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260" s="4">
+        <v>175.8515079</v>
+      </c>
+      <c r="J260" s="4">
+        <v>18</v>
+      </c>
+      <c r="K260" s="4">
+        <v>7</v>
+      </c>
+      <c r="L260" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M260" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>504.3524251</v>
+      </c>
+      <c r="B261" s="4">
+        <v>18</v>
+      </c>
+      <c r="C261" s="4">
+        <v>25</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="4">
+        <v>15</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261" s="4">
+        <v>143.612415</v>
+      </c>
+      <c r="J261" s="4">
+        <v>20</v>
+      </c>
+      <c r="K261" s="4">
+        <v>6</v>
+      </c>
+      <c r="L261" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M261" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>142.56065770000001</v>
+      </c>
+      <c r="B262" s="4">
+        <v>20</v>
+      </c>
+      <c r="C262" s="4">
+        <v>6</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="4">
+        <v>60</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+      <c r="I262" s="4">
+        <v>118.1370773</v>
+      </c>
+      <c r="J262" s="4">
+        <v>20</v>
+      </c>
+      <c r="K262" s="4">
+        <v>5</v>
+      </c>
+      <c r="L262" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M262" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>169.42094890000001</v>
+      </c>
+      <c r="B263" s="4">
+        <v>20</v>
+      </c>
+      <c r="C263" s="4">
+        <v>7</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="4">
+        <v>60</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263" s="4">
+        <v>142.69394270000001</v>
+      </c>
+      <c r="J263" s="4">
+        <v>20</v>
+      </c>
+      <c r="K263" s="4">
+        <v>6</v>
+      </c>
+      <c r="L263" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M263" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>177.71423759999999</v>
+      </c>
+      <c r="B264" s="4">
+        <v>20</v>
+      </c>
+      <c r="C264" s="4">
+        <v>7</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="4">
+        <v>50</v>
+      </c>
+      <c r="H264">
+        <v>5</v>
+      </c>
+      <c r="I264" s="4">
+        <v>305.15720379999999</v>
+      </c>
+      <c r="J264" s="4">
+        <v>18</v>
+      </c>
+      <c r="K264" s="4">
+        <v>15</v>
+      </c>
+      <c r="L264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M264" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>238.32856860000001</v>
+      </c>
+      <c r="B265" s="4">
+        <v>18</v>
+      </c>
+      <c r="C265" s="4">
+        <v>13</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="4">
+        <v>45</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
+      </c>
+      <c r="I265" s="4">
+        <v>205.8016624</v>
+      </c>
+      <c r="J265" s="4">
+        <v>18</v>
+      </c>
+      <c r="K265" s="4">
+        <v>9</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M265" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>262.8327385</v>
+      </c>
+      <c r="B266" s="4">
+        <v>18</v>
+      </c>
+      <c r="C266" s="4">
+        <v>12</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="4">
+        <v>35</v>
+      </c>
+      <c r="H266">
+        <v>7</v>
+      </c>
+      <c r="I266" s="4">
+        <v>171.83258050000001</v>
+      </c>
+      <c r="J266" s="4">
+        <v>18</v>
+      </c>
+      <c r="K266" s="4">
+        <v>7</v>
+      </c>
+      <c r="L266" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M266" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>311.97805590000002</v>
+      </c>
+      <c r="B267" s="4">
+        <v>18</v>
+      </c>
+      <c r="C267" s="4">
+        <v>17</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267" s="4">
+        <v>85</v>
+      </c>
+      <c r="H267">
+        <v>8</v>
+      </c>
+      <c r="I267" s="4">
+        <v>229.5677785</v>
+      </c>
+      <c r="J267" s="4">
+        <v>18</v>
+      </c>
+      <c r="K267" s="4">
+        <v>10</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M267" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>132.3306867</v>
+      </c>
+      <c r="B268" s="4">
+        <v>20</v>
+      </c>
+      <c r="C268" s="4">
+        <v>6</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="4">
+        <v>20</v>
+      </c>
+      <c r="H268">
+        <v>9</v>
+      </c>
+      <c r="I268" s="4">
+        <v>126.7788525</v>
+      </c>
+      <c r="J268" s="4">
+        <v>20</v>
+      </c>
+      <c r="K268" s="4">
+        <v>4</v>
+      </c>
+      <c r="L268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M268" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>153.95691199999999</v>
+      </c>
+      <c r="B269" s="4">
+        <v>20</v>
+      </c>
+      <c r="C269" s="4">
+        <v>7</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="4">
+        <v>45</v>
+      </c>
+      <c r="H269">
+        <v>10</v>
+      </c>
+      <c r="I269" s="4">
+        <v>134.1012916</v>
+      </c>
+      <c r="J269" s="4">
+        <v>20</v>
+      </c>
+      <c r="K269" s="4">
+        <v>5</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M269" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E270" cm="1">
+        <f t="array" ref="E270:E272">_xlfn.MODE.MULT(E260:E269)</f>
+        <v>20</v>
+      </c>
+      <c r="M270" cm="1">
+        <f t="array" ref="M270">_xlfn.MODE.MULT(M260:M269)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E271">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E272">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4691C3-1BD0-4FEA-8A94-0CDC5A631940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1FBDDF-1954-4828-AAC7-5A6CCB846DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="4" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="5" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="26">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>16x1 double</t>
+  </si>
+  <si>
+    <t>19x1 double</t>
   </si>
 </sst>
 </file>
@@ -37555,7 +37558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17A21E-9A97-44A4-9DFA-4E0838B953C2}">
   <dimension ref="A1:M674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A647" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A650" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G656" sqref="G656"/>
     </sheetView>
   </sheetViews>
@@ -51432,20 +51435,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34208D-02A8-40DE-B1A2-7B1A3CC77E5D}">
-  <dimension ref="I1:M245"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="M235" sqref="M235:M244"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="M249" sqref="M249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -51462,7 +51483,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>36.004610399999997</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="I3">
         <v>18.743282799999999</v>
       </c>
@@ -51479,7 +51515,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50.837767800000002</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
       <c r="I4">
         <v>39.525292100000001</v>
       </c>
@@ -51496,7 +51547,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>177.19559219999999</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
       <c r="I5">
         <v>69.9493267</v>
       </c>
@@ -51513,7 +51579,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>89.633831200000003</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
       <c r="I6">
         <v>105.73574859999999</v>
       </c>
@@ -51530,7 +51611,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>161.34117069999999</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
       <c r="I7">
         <v>173.37817570000001</v>
       </c>
@@ -51547,7 +51643,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>91.802745900000005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>30</v>
+      </c>
       <c r="I8">
         <v>80.733400799999998</v>
       </c>
@@ -51564,7 +51675,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>188.6108577</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
       <c r="I9">
         <v>113.0272428</v>
       </c>
@@ -51581,7 +51707,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>134.7451011</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
       <c r="I10" s="2">
         <v>215.14647729999999</v>
       </c>
@@ -51598,7 +51739,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>260.11831760000001</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
       <c r="I11">
         <v>132.75377330000001</v>
       </c>
@@ -51615,7 +51771,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>243.192252</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
       <c r="I12">
         <v>171.75470730000001</v>
       </c>
@@ -51632,7 +51803,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>264.7879744</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
       <c r="I13">
         <v>253.01445720000001</v>
       </c>
@@ -51649,7 +51835,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>179.177798</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
       <c r="I14">
         <v>197.97575879999999</v>
       </c>
@@ -51666,7 +51867,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>246.47548080000001</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
       <c r="I15">
         <v>230.89152659999999</v>
       </c>
@@ -51683,7 +51899,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>307.17812149999997</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
       <c r="I16">
         <v>283.14997169999998</v>
       </c>
@@ -51700,7 +51931,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>355.84467469999998</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
       <c r="I17">
         <v>238.82538439999999</v>
       </c>
@@ -51717,7 +51963,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>272.17996449999998</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
       <c r="I18">
         <v>256.26157180000001</v>
       </c>
@@ -51734,7 +51995,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>297.39549549999998</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
       <c r="I19">
         <v>297.8100359</v>
       </c>
@@ -51751,7 +52027,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>397.28284009999999</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
       <c r="I20">
         <v>348.11694619999997</v>
       </c>
@@ -51768,7 +52059,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>394.25399169999997</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
       <c r="I21">
         <v>303.62470860000002</v>
       </c>
@@ -51785,7 +52091,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>542.66082100000006</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
       <c r="I22">
         <v>478.39568220000001</v>
       </c>
@@ -51802,13 +52123,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>MIN(A3:A22)</f>
+        <v>36.004610399999997</v>
+      </c>
       <c r="I23">
         <f>MIN(I3:I22)</f>
         <v>18.743282799999999</v>
       </c>
     </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" t="s">
         <v>0</v>
       </c>
@@ -51825,7 +52165,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11.8736605</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
       <c r="I26">
         <v>21.807383999999999</v>
       </c>
@@ -51842,7 +52197,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>32.180704499999997</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
       <c r="I27">
         <v>36.8299132</v>
       </c>
@@ -51859,7 +52229,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>72.995905699999994</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
       <c r="I28" s="2">
         <v>42.900100700000003</v>
       </c>
@@ -51876,7 +52261,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>75.076505900000001</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20</v>
+      </c>
       <c r="I29">
         <v>80.685180000000003</v>
       </c>
@@ -51893,7 +52293,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>115.83102580000001</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
       <c r="I30">
         <v>87.523589299999998</v>
       </c>
@@ -51910,7 +52325,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>174.7270403</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
       <c r="I31">
         <v>154.02567859999999</v>
       </c>
@@ -51927,7 +52357,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>171.37537739999999</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
       <c r="I32">
         <v>116.50382159999999</v>
       </c>
@@ -51944,7 +52389,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>123.1749938</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
       <c r="I33">
         <v>132.89531310000001</v>
       </c>
@@ -51961,7 +52421,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>184.0850322</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>45</v>
+      </c>
       <c r="I34">
         <v>167.45679430000001</v>
       </c>
@@ -51978,7 +52453,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>211.56807459999999</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
       <c r="I35">
         <v>187.68860770000001</v>
       </c>
@@ -51995,7 +52485,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>301.5101353</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>55</v>
+      </c>
       <c r="I36">
         <v>203.41137660000001</v>
       </c>
@@ -52012,7 +52517,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>624.09669269999995</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
       <c r="I37">
         <v>252.6967162</v>
       </c>
@@ -52029,7 +52549,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>201.13246340000001</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>65</v>
+      </c>
       <c r="I38">
         <v>295.74106239999998</v>
       </c>
@@ -52046,7 +52581,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>260.57027199999999</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
       <c r="I39">
         <v>353.39697189999998</v>
       </c>
@@ -52063,7 +52613,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>348.24754799999999</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
+      </c>
       <c r="I40">
         <v>322.20512359999998</v>
       </c>
@@ -52080,7 +52645,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>370.60574129999998</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>80</v>
+      </c>
       <c r="I41">
         <v>369.42794809999998</v>
       </c>
@@ -52097,7 +52677,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>266.52891110000002</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>85</v>
+      </c>
       <c r="I42">
         <v>246.61852329999999</v>
       </c>
@@ -52114,7 +52709,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>442.55883540000002</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
       <c r="I43">
         <v>290.94996020000002</v>
       </c>
@@ -52131,7 +52741,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>396.6937532</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>95</v>
+      </c>
       <c r="I44">
         <v>260.96907620000002</v>
       </c>
@@ -52148,7 +52773,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>294.01514400000002</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
       <c r="I45">
         <v>355.80868770000001</v>
       </c>
@@ -52165,13 +52805,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>MIN(A26:A45)</f>
+        <v>11.8736605</v>
+      </c>
       <c r="I46">
         <f>MIN(I26:I45)</f>
         <v>21.807383999999999</v>
       </c>
     </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
       <c r="I48" t="s">
         <v>0</v>
       </c>
@@ -52188,7 +52847,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10.6833806</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
       <c r="I49">
         <v>19.976730100000001</v>
       </c>
@@ -52205,7 +52879,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>63.360818799999997</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
       <c r="I50">
         <v>56.8622978</v>
       </c>
@@ -52222,7 +52911,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>60.839269700000003</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
       <c r="I51">
         <v>76.625225900000004</v>
       </c>
@@ -52239,7 +52943,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>131.81750529999999</v>
+      </c>
+      <c r="B52" s="2">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
       <c r="I52">
         <v>117.8159194</v>
       </c>
@@ -52256,7 +52975,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>118.0103472</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>25</v>
+      </c>
       <c r="I53">
         <v>108.6040435</v>
       </c>
@@ -52273,7 +53007,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>106.22041</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
       <c r="I54">
         <v>136.49101880000001</v>
       </c>
@@ -52290,7 +53039,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>107.7048379</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>35</v>
+      </c>
       <c r="I55">
         <v>119.0013344</v>
       </c>
@@ -52307,7 +53071,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>183.34752470000001</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
       <c r="I56">
         <v>164.94740820000001</v>
       </c>
@@ -52324,7 +53103,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>315.84597200000002</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>45</v>
+      </c>
       <c r="I57">
         <v>129.7706029</v>
       </c>
@@ -52341,7 +53135,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>193.4582374</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
       <c r="I58">
         <v>194.2876536</v>
       </c>
@@ -52358,7 +53167,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>148.5479047</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>55</v>
+      </c>
       <c r="I59">
         <v>207.66153629999999</v>
       </c>
@@ -52375,7 +53199,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>256.69955750000003</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
       <c r="I60" s="2">
         <v>154.5836644</v>
       </c>
@@ -52392,7 +53231,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>375.41399480000001</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>65</v>
+      </c>
       <c r="I61">
         <v>213.40788019999999</v>
       </c>
@@ -52409,7 +53263,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>253.38333739999999</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
       <c r="I62">
         <v>234.53718559999999</v>
       </c>
@@ -52426,7 +53295,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>290.99595579999999</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>75</v>
+      </c>
       <c r="I63">
         <v>222.8130543</v>
       </c>
@@ -52443,7 +53327,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>279.42867869999998</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
       <c r="I64">
         <v>309.3729907</v>
       </c>
@@ -52460,7 +53359,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>757.10148549999997</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>85</v>
+      </c>
       <c r="I65">
         <v>271.01851160000001</v>
       </c>
@@ -52477,7 +53391,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>298.37620679999998</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>90</v>
+      </c>
       <c r="I66">
         <v>392.16125099999999</v>
       </c>
@@ -52494,7 +53423,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>311.56516599999998</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>95</v>
+      </c>
       <c r="I67">
         <v>338.98729070000002</v>
       </c>
@@ -52511,7 +53455,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>445.73119809999997</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
       <c r="I68">
         <v>386.72116269999998</v>
       </c>
@@ -52528,13 +53487,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>MIN(A49:A68)</f>
+        <v>10.6833806</v>
+      </c>
       <c r="I69">
         <f>MIN(I49:I68)</f>
         <v>19.976730100000001</v>
       </c>
     </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
       <c r="I71" t="s">
         <v>0</v>
       </c>
@@ -52551,7 +53529,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>29.855385500000001</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
       <c r="I72">
         <v>39.483117</v>
       </c>
@@ -52568,7 +53561,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>26.706090799999998</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
       <c r="I73">
         <v>36.626420299999999</v>
       </c>
@@ -52585,7 +53593,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>46.598031300000002</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
       <c r="I74">
         <v>54.702520100000001</v>
       </c>
@@ -52602,7 +53625,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>84.727352100000004</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
       <c r="I75">
         <v>86.567045300000004</v>
       </c>
@@ -52619,7 +53657,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>79.2100492</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
       <c r="I76">
         <v>81.985130600000005</v>
       </c>
@@ -52636,7 +53689,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>92.756735500000005</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
       <c r="I77" s="2">
         <v>115.0003433</v>
       </c>
@@ -52653,7 +53721,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>86.709649200000001</v>
+      </c>
+      <c r="B78" s="2">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2">
+        <v>35</v>
+      </c>
       <c r="I78">
         <v>173.5647022</v>
       </c>
@@ -52670,7 +53753,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>129.49462579999999</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
       <c r="I79">
         <v>148.47608289999999</v>
       </c>
@@ -52687,7 +53785,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>167.3766487</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>45</v>
+      </c>
       <c r="I80">
         <v>195.79347659999999</v>
       </c>
@@ -52704,7 +53817,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>151.13737280000001</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
       <c r="I81">
         <v>209.72107500000001</v>
       </c>
@@ -52721,7 +53849,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>267.42127590000001</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
       <c r="I82">
         <v>188.46079589999999</v>
       </c>
@@ -52738,7 +53881,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>176.21441590000001</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>60</v>
+      </c>
       <c r="I83">
         <v>182.94972609999999</v>
       </c>
@@ -52755,7 +53913,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>273.6730015</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>65</v>
+      </c>
       <c r="I84">
         <v>308.13009399999999</v>
       </c>
@@ -52772,7 +53945,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>214.46302710000001</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>70</v>
+      </c>
       <c r="I85">
         <v>222.43655469999999</v>
       </c>
@@ -52789,7 +53977,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>228.4462077</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>75</v>
+      </c>
       <c r="I86">
         <v>273.4175118</v>
       </c>
@@ -52806,7 +54009,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>349.46290449999998</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>80</v>
+      </c>
       <c r="I87">
         <v>263.51752850000003</v>
       </c>
@@ -52823,7 +54041,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>363.96045820000001</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>85</v>
+      </c>
       <c r="I88">
         <v>263.77583770000001</v>
       </c>
@@ -52840,7 +54073,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>302.78810629999998</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>90</v>
+      </c>
       <c r="I89">
         <v>404.18204550000002</v>
       </c>
@@ -52857,7 +54105,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>319.7277608</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>95</v>
+      </c>
       <c r="I90">
         <v>300.1330797</v>
       </c>
@@ -52874,7 +54137,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>393.15852890000002</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
       <c r="I91">
         <v>295.97998250000001</v>
       </c>
@@ -52891,13 +54169,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>MIN(A72:A91)</f>
+        <v>26.706090799999998</v>
+      </c>
       <c r="I92">
         <f>MIN(I72:I91)</f>
         <v>36.626420299999999</v>
       </c>
     </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
       <c r="I94" t="s">
         <v>0</v>
       </c>
@@ -52914,7 +54211,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>14.199247</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
       <c r="I95">
         <v>38.940730100000003</v>
       </c>
@@ -52931,7 +54243,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>33.4790572</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
       <c r="I96">
         <v>46.930407099999996</v>
       </c>
@@ -52948,7 +54275,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>94.589747700000004</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
       <c r="I97" s="4">
         <v>65.765496499999998</v>
       </c>
@@ -52965,7 +54307,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>62.863657000000003</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
       <c r="I98">
         <v>102.0372268</v>
       </c>
@@ -52982,7 +54339,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>114.18897149999999</v>
+      </c>
+      <c r="B99">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>25</v>
+      </c>
       <c r="I99">
         <v>99.829171500000001</v>
       </c>
@@ -52999,7 +54371,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>111.68779019999999</v>
+      </c>
+      <c r="B100" s="2">
+        <v>18</v>
+      </c>
+      <c r="C100" s="2">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2">
+        <v>30</v>
+      </c>
       <c r="I100" s="2">
         <v>72.256601700000004</v>
       </c>
@@ -53016,7 +54403,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>118.1649168</v>
+      </c>
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>35</v>
+      </c>
       <c r="I101">
         <v>219.39899740000001</v>
       </c>
@@ -53033,7 +54435,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>174.55040589999999</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
       <c r="I102">
         <v>224.59809609999999</v>
       </c>
@@ -53050,7 +54467,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>177.16806600000001</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>45</v>
+      </c>
       <c r="I103">
         <v>348.19112269999999</v>
       </c>
@@ -53067,7 +54499,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>201.5924292</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
       <c r="I104">
         <v>278.8275122</v>
       </c>
@@ -53084,7 +54531,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>177.66985389999999</v>
+      </c>
+      <c r="B105">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>55</v>
+      </c>
       <c r="I105">
         <v>189.97530850000001</v>
       </c>
@@ -53101,7 +54563,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>294.68866250000002</v>
+      </c>
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>60</v>
+      </c>
       <c r="I106">
         <v>189.37899419999999</v>
       </c>
@@ -53118,7 +54595,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>231.7477682</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>65</v>
+      </c>
       <c r="I107">
         <v>400.56200630000001</v>
       </c>
@@ -53135,7 +54627,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>297.80797080000002</v>
+      </c>
+      <c r="B108">
+        <v>20</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>70</v>
+      </c>
       <c r="I108">
         <v>265.29736689999999</v>
       </c>
@@ -53152,7 +54659,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>295.956301</v>
+      </c>
+      <c r="B109">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>75</v>
+      </c>
       <c r="I109">
         <v>294.79598609999999</v>
       </c>
@@ -53169,7 +54691,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>301.03560399999998</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>80</v>
+      </c>
       <c r="I110">
         <v>358.8768632</v>
       </c>
@@ -53186,7 +54723,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>459.40086910000002</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>85</v>
+      </c>
       <c r="I111">
         <v>279.27608129999999</v>
       </c>
@@ -53203,7 +54755,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>277.86522020000001</v>
+      </c>
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>90</v>
+      </c>
       <c r="I112">
         <v>296.11968339999999</v>
       </c>
@@ -53220,7 +54787,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>516.61016319999999</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>95</v>
+      </c>
       <c r="I113">
         <v>305.83379669999999</v>
       </c>
@@ -53237,7 +54819,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>385.84129150000001</v>
+      </c>
+      <c r="B114">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
       <c r="I114">
         <v>396.6210691</v>
       </c>
@@ -53254,13 +54851,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f>MIN(A95:A114)</f>
+        <v>14.199247</v>
+      </c>
       <c r="I115">
         <f>MIN(I95:I114)</f>
         <v>38.940730100000003</v>
       </c>
     </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
       <c r="I117" t="s">
         <v>0</v>
       </c>
@@ -53277,7 +54893,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>39.788924000000002</v>
+      </c>
+      <c r="B118">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
       <c r="I118">
         <v>22.7545866</v>
       </c>
@@ -53294,7 +54925,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>22.364193</v>
+      </c>
+      <c r="B119" s="2">
+        <v>20</v>
+      </c>
+      <c r="C119" s="2">
+        <v>5</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="2">
+        <v>10</v>
+      </c>
       <c r="I119">
         <v>40.318622300000001</v>
       </c>
@@ -53311,7 +54957,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>50.856066499999997</v>
+      </c>
+      <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>15</v>
+      </c>
       <c r="I120">
         <v>38.059453599999998</v>
       </c>
@@ -53328,7 +54989,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>74.393806999999995</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
       <c r="I121">
         <v>57.4325847</v>
       </c>
@@ -53345,7 +55021,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>124.9278542</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>25</v>
+      </c>
       <c r="I122">
         <v>114.6060933</v>
       </c>
@@ -53362,7 +55053,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>88.011427699999999</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>30</v>
+      </c>
       <c r="I123" s="2">
         <v>82.923031499999993</v>
       </c>
@@ -53379,7 +55085,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>137.2703167</v>
+      </c>
+      <c r="B124">
+        <v>22</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>35</v>
+      </c>
       <c r="I124">
         <v>105.9449424</v>
       </c>
@@ -53396,7 +55117,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123.229519</v>
+      </c>
+      <c r="B125">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
       <c r="I125">
         <v>130.2472022</v>
       </c>
@@ -53413,7 +55149,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>143.14302950000001</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>45</v>
+      </c>
       <c r="I126">
         <v>153.82440539999999</v>
       </c>
@@ -53430,7 +55181,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>150.9965081</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>50</v>
+      </c>
       <c r="I127">
         <v>180.99303359999999</v>
       </c>
@@ -53447,7 +55213,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>190.20869350000001</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>55</v>
+      </c>
       <c r="I128">
         <v>168.1246079</v>
       </c>
@@ -53464,7 +55245,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>258.3318094</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>60</v>
+      </c>
       <c r="I129">
         <v>269.03834169999999</v>
       </c>
@@ -53481,7 +55277,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>168.51336130000001</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>65</v>
+      </c>
       <c r="I130">
         <v>365.18489879999998</v>
       </c>
@@ -53498,7 +55309,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>235.68985699999999</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>70</v>
+      </c>
       <c r="I131">
         <v>218.211716</v>
       </c>
@@ -53515,7 +55341,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>236.5541743</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>75</v>
+      </c>
       <c r="I132">
         <v>476.45269230000002</v>
       </c>
@@ -53532,7 +55373,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>336.93510199999997</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>80</v>
+      </c>
       <c r="I133">
         <v>386.6120416</v>
       </c>
@@ -53549,7 +55405,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>342.3536598</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>85</v>
+      </c>
       <c r="I134">
         <v>328.81411480000003</v>
       </c>
@@ -53566,7 +55437,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>584.82347179999999</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>90</v>
+      </c>
       <c r="I135">
         <v>386.09987469999999</v>
       </c>
@@ -53583,7 +55469,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>335.67528279999999</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>95</v>
+      </c>
       <c r="I136">
         <v>350.30267300000003</v>
       </c>
@@ -53600,7 +55501,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>672.8452992</v>
+      </c>
+      <c r="B137">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
       <c r="I137">
         <v>382.2572801</v>
       </c>
@@ -53617,13 +55533,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f>MIN(A118:A137)</f>
+        <v>22.364193</v>
+      </c>
       <c r="I138">
         <f>MIN(I118:I137)</f>
         <v>22.7545866</v>
       </c>
     </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>22</v>
+      </c>
       <c r="I140" t="s">
         <v>0</v>
       </c>
@@ -53640,7 +55575,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>19.213007699999999</v>
+      </c>
+      <c r="B141">
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
       <c r="I141">
         <v>50.117972700000003</v>
       </c>
@@ -53657,7 +55607,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>38.633642100000003</v>
+      </c>
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
       <c r="I142">
         <v>32.574209099999997</v>
       </c>
@@ -53674,7 +55639,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>69.1016561</v>
+      </c>
+      <c r="B143">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
       <c r="I143">
         <v>51.853790199999999</v>
       </c>
@@ -53691,7 +55671,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>76.879282900000007</v>
+      </c>
+      <c r="B144">
+        <v>20</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
+      </c>
       <c r="I144">
         <v>59.918317000000002</v>
       </c>
@@ -53708,7 +55703,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>202.2171031</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
       <c r="I145">
         <v>106.6657811</v>
       </c>
@@ -53725,7 +55735,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>102.3772508</v>
+      </c>
+      <c r="B146" s="2">
+        <v>18</v>
+      </c>
+      <c r="C146" s="2">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="2">
+        <v>30</v>
+      </c>
       <c r="I146">
         <v>116.438417</v>
       </c>
@@ -53742,7 +55767,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>224.5396753</v>
+      </c>
+      <c r="B147">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>35</v>
+      </c>
       <c r="I147">
         <v>104.9228221</v>
       </c>
@@ -53759,7 +55799,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>134.30281729999999</v>
+      </c>
+      <c r="B148">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
       <c r="I148">
         <v>199.83369949999999</v>
       </c>
@@ -53776,7 +55831,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>218.2250962</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>45</v>
+      </c>
       <c r="I149">
         <v>126.8554314</v>
       </c>
@@ -53793,7 +55863,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>173.73069530000001</v>
+      </c>
+      <c r="B150">
+        <v>24</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>50</v>
+      </c>
       <c r="I150">
         <v>148.39952030000001</v>
       </c>
@@ -53810,7 +55895,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>248.56602359999999</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>55</v>
+      </c>
       <c r="I151" s="2">
         <v>280.57103710000001</v>
       </c>
@@ -53827,7 +55927,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>172.20414679999999</v>
+      </c>
+      <c r="B152">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>60</v>
+      </c>
       <c r="I152">
         <v>227.855423</v>
       </c>
@@ -53844,7 +55959,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>255.55227729999999</v>
+      </c>
+      <c r="B153">
+        <v>20</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>65</v>
+      </c>
       <c r="I153">
         <v>222.9931986</v>
       </c>
@@ -53861,7 +55991,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>422.16551670000001</v>
+      </c>
+      <c r="B154">
+        <v>24</v>
+      </c>
+      <c r="C154">
+        <v>23</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>70</v>
+      </c>
       <c r="I154">
         <v>267.20667159999999</v>
       </c>
@@ -53878,7 +56023,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>502.78660129999997</v>
+      </c>
+      <c r="B155">
+        <v>24</v>
+      </c>
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>75</v>
+      </c>
       <c r="I155">
         <v>251.34680270000001</v>
       </c>
@@ -53895,7 +56055,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>288.0197435</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>80</v>
+      </c>
       <c r="I156">
         <v>299.79132950000002</v>
       </c>
@@ -53912,7 +56087,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>264.3892275</v>
+      </c>
+      <c r="B157">
+        <v>20</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
       <c r="I157">
         <v>393.32994489999999</v>
       </c>
@@ -53929,7 +56119,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>535.08495779999998</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>90</v>
+      </c>
       <c r="I158">
         <v>440.81468510000002</v>
       </c>
@@ -53946,7 +56151,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>327.49991210000002</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>95</v>
+      </c>
       <c r="I159">
         <v>315.17412109999998</v>
       </c>
@@ -53963,7 +56183,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>396.95668519999998</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
       <c r="I160">
         <v>620.77580760000001</v>
       </c>
@@ -53980,13 +56215,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f>MIN(A141:A160)</f>
+        <v>19.213007699999999</v>
+      </c>
       <c r="I161">
         <f>MIN(I141:I160)</f>
         <v>32.574209099999997</v>
       </c>
     </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>22</v>
+      </c>
       <c r="I163" t="s">
         <v>0</v>
       </c>
@@ -54003,7 +56257,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>29.387421199999999</v>
+      </c>
+      <c r="B164">
+        <v>28</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
       <c r="I164">
         <v>14.402063099999999</v>
       </c>
@@ -54020,7 +56289,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>28.540152800000001</v>
+      </c>
+      <c r="B165" s="2">
+        <v>20</v>
+      </c>
+      <c r="C165" s="2">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="2">
+        <v>10</v>
+      </c>
       <c r="I165">
         <v>36.113686199999997</v>
       </c>
@@ -54037,7 +56321,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>62.698437599999998</v>
+      </c>
+      <c r="B166">
+        <v>22</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>15</v>
+      </c>
       <c r="I166">
         <v>52.040423400000002</v>
       </c>
@@ -54054,7 +56353,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>71.221899699999994</v>
+      </c>
+      <c r="B167">
+        <v>20</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>20</v>
+      </c>
       <c r="I167">
         <v>56.117442199999999</v>
       </c>
@@ -54071,7 +56385,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>85.543586599999998</v>
+      </c>
+      <c r="B168">
+        <v>20</v>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>25</v>
+      </c>
       <c r="I168">
         <v>90.925210399999997</v>
       </c>
@@ -54088,7 +56417,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>122.6240397</v>
+      </c>
+      <c r="B169">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
       <c r="I169" s="2">
         <v>152.0595711</v>
       </c>
@@ -54105,7 +56449,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>123.6448499</v>
+      </c>
+      <c r="B170">
+        <v>20</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>35</v>
+      </c>
       <c r="I170">
         <v>128.3220278</v>
       </c>
@@ -54122,7 +56481,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>137.2369559</v>
+      </c>
+      <c r="B171">
+        <v>24</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>40</v>
+      </c>
       <c r="I171">
         <v>144.32961969999999</v>
       </c>
@@ -54139,7 +56513,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>160.50039849999999</v>
+      </c>
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>45</v>
+      </c>
       <c r="I172">
         <v>229.04038750000001</v>
       </c>
@@ -54156,7 +56545,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>226.22604419999999</v>
+      </c>
+      <c r="B173">
+        <v>22</v>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>50</v>
+      </c>
       <c r="I173">
         <v>182.4630334</v>
       </c>
@@ -54173,7 +56577,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>184.19411629999999</v>
+      </c>
+      <c r="B174">
+        <v>20</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>55</v>
+      </c>
       <c r="I174">
         <v>251.4810871</v>
       </c>
@@ -54190,7 +56609,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>196.98166639999999</v>
+      </c>
+      <c r="B175">
+        <v>24</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>60</v>
+      </c>
       <c r="I175">
         <v>198.42799199999999</v>
       </c>
@@ -54207,7 +56641,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>196.46851820000001</v>
+      </c>
+      <c r="B176">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>65</v>
+      </c>
       <c r="I176">
         <v>208.89452890000001</v>
       </c>
@@ -54224,7 +56673,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>218.78011710000001</v>
+      </c>
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>70</v>
+      </c>
       <c r="I177">
         <v>312.41535490000001</v>
       </c>
@@ -54241,7 +56705,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>383.75725290000003</v>
+      </c>
+      <c r="B178">
+        <v>20</v>
+      </c>
+      <c r="C178">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>75</v>
+      </c>
       <c r="I178">
         <v>214.4957584</v>
       </c>
@@ -54258,7 +56737,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>337.78210710000002</v>
+      </c>
+      <c r="B179">
+        <v>24</v>
+      </c>
+      <c r="C179">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>80</v>
+      </c>
       <c r="I179">
         <v>273.73992809999999</v>
       </c>
@@ -54275,7 +56769,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>354.0477588</v>
+      </c>
+      <c r="B180">
+        <v>24</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>85</v>
+      </c>
       <c r="I180">
         <v>374.04384119999997</v>
       </c>
@@ -54292,7 +56801,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>451.83759739999999</v>
+      </c>
+      <c r="B181">
+        <v>24</v>
+      </c>
+      <c r="C181">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>90</v>
+      </c>
       <c r="I181">
         <v>566.34805800000004</v>
       </c>
@@ -54309,7 +56833,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>266.78089940000001</v>
+      </c>
+      <c r="B182">
+        <v>22</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>95</v>
+      </c>
       <c r="I182">
         <v>460.73039499999999</v>
       </c>
@@ -54326,7 +56865,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>325.66221109999998</v>
+      </c>
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>100</v>
+      </c>
       <c r="I183">
         <v>432.42091370000003</v>
       </c>
@@ -54343,13 +56897,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f>MIN(A164:A183)</f>
+        <v>28.540152800000001</v>
+      </c>
       <c r="I184">
         <f>MIN(I164:I183)</f>
         <v>14.402063099999999</v>
       </c>
     </row>
-    <row r="186" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>22</v>
+      </c>
       <c r="I186" t="s">
         <v>0</v>
       </c>
@@ -54366,7 +56939,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>13.3024255</v>
+      </c>
+      <c r="B187">
+        <v>26</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
       <c r="I187">
         <v>16.405417799999999</v>
       </c>
@@ -54383,7 +56971,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>47.969647399999999</v>
+      </c>
+      <c r="B188">
+        <v>20</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
       <c r="I188">
         <v>65.910379399999997</v>
       </c>
@@ -54400,7 +57003,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>54.485926200000002</v>
+      </c>
+      <c r="B189">
+        <v>20</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
+      </c>
       <c r="I189">
         <v>62.581556999999997</v>
       </c>
@@ -54417,7 +57035,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>65.802387199999998</v>
+      </c>
+      <c r="B190" s="2">
+        <v>18</v>
+      </c>
+      <c r="C190" s="2">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="2">
+        <v>20</v>
+      </c>
       <c r="I190">
         <v>64.163053000000005</v>
       </c>
@@ -54434,7 +57067,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>181.79506850000001</v>
+      </c>
+      <c r="B191">
+        <v>20</v>
+      </c>
+      <c r="C191">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
+      </c>
       <c r="I191">
         <v>128.26606960000001</v>
       </c>
@@ -54451,7 +57099,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>128.51042229999999</v>
+      </c>
+      <c r="B192">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>30</v>
+      </c>
       <c r="I192">
         <v>98.979275000000001</v>
       </c>
@@ -54468,7 +57131,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>166.6358036</v>
+      </c>
+      <c r="B193">
+        <v>22</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>35</v>
+      </c>
       <c r="I193">
         <v>125.0484965</v>
       </c>
@@ -54485,7 +57163,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>112.2007004</v>
+      </c>
+      <c r="B194">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>40</v>
+      </c>
       <c r="I194">
         <v>277.40770300000003</v>
       </c>
@@ -54502,7 +57195,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>327.91430989999998</v>
+      </c>
+      <c r="B195">
+        <v>26</v>
+      </c>
+      <c r="C195">
+        <v>23</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>45</v>
+      </c>
       <c r="I195">
         <v>267.81664310000002</v>
       </c>
@@ -54519,7 +57227,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>148.08494400000001</v>
+      </c>
+      <c r="B196">
+        <v>20</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>50</v>
+      </c>
       <c r="I196">
         <v>194.74038340000001</v>
       </c>
@@ -54536,7 +57259,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>193.51012739999999</v>
+      </c>
+      <c r="B197">
+        <v>20</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>55</v>
+      </c>
       <c r="I197">
         <v>295.40302179999998</v>
       </c>
@@ -54553,7 +57291,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>188.61560950000001</v>
+      </c>
+      <c r="B198">
+        <v>20</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>60</v>
+      </c>
       <c r="I198" s="2">
         <v>229.66371950000001</v>
       </c>
@@ -54570,7 +57323,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>299.19733780000001</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>65</v>
+      </c>
       <c r="I199">
         <v>234.9866585</v>
       </c>
@@ -54587,7 +57355,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>270.66559949999998</v>
+      </c>
+      <c r="B200">
+        <v>20</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>70</v>
+      </c>
       <c r="I200">
         <v>223.50691169999999</v>
       </c>
@@ -54604,7 +57387,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>209.03379519999999</v>
+      </c>
+      <c r="B201">
+        <v>20</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>75</v>
+      </c>
       <c r="I201">
         <v>256.10573620000002</v>
       </c>
@@ -54621,7 +57419,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>360.23059499999999</v>
+      </c>
+      <c r="B202">
+        <v>24</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202">
+        <v>80</v>
+      </c>
       <c r="I202">
         <v>265.76040019999999</v>
       </c>
@@ -54638,7 +57451,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>457.32667780000003</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>85</v>
+      </c>
       <c r="I203">
         <v>338.95152940000003</v>
       </c>
@@ -54655,7 +57483,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>375.91478169999999</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>90</v>
+      </c>
       <c r="I204">
         <v>377.58142600000002</v>
       </c>
@@ -54672,7 +57515,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>326.8196964</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>95</v>
+      </c>
       <c r="I205">
         <v>296.4789687</v>
       </c>
@@ -54689,7 +57547,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="206" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>563.62070740000001</v>
+      </c>
+      <c r="B206">
+        <v>20</v>
+      </c>
+      <c r="C206">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>100</v>
+      </c>
       <c r="I206">
         <v>355.14776360000002</v>
       </c>
@@ -54706,13 +57579,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <f>MIN(A187:A206)</f>
+        <v>13.3024255</v>
+      </c>
       <c r="I207">
         <f>MIN(I187:I206)</f>
         <v>16.405417799999999</v>
       </c>
     </row>
-    <row r="209" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>22</v>
+      </c>
       <c r="I209" t="s">
         <v>0</v>
       </c>
@@ -54729,7 +57621,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>15.5865592</v>
+      </c>
+      <c r="B210" s="2">
+        <v>20</v>
+      </c>
+      <c r="C210" s="2">
+        <v>6</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="2">
+        <v>5</v>
+      </c>
       <c r="I210">
         <v>17.210635799999999</v>
       </c>
@@ -54746,7 +57653,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>25.740703700000001</v>
+      </c>
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
       <c r="I211">
         <v>53.902236500000001</v>
       </c>
@@ -54763,7 +57685,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>43.883682399999998</v>
+      </c>
+      <c r="B212">
+        <v>20</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
+      </c>
       <c r="I212">
         <v>54.443128199999997</v>
       </c>
@@ -54780,7 +57717,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>91.978363400000006</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
       <c r="I213" s="4">
         <v>59.032370999999998</v>
       </c>
@@ -54797,7 +57749,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>136.75293919999999</v>
+      </c>
+      <c r="B214">
+        <v>20</v>
+      </c>
+      <c r="C214">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214">
+        <v>25</v>
+      </c>
       <c r="I214" s="4">
         <v>106.7828509</v>
       </c>
@@ -54814,7 +57781,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>87.306984700000001</v>
+      </c>
+      <c r="B215">
+        <v>20</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215">
+        <v>30</v>
+      </c>
       <c r="I215" s="2">
         <v>100.93706640000001</v>
       </c>
@@ -54831,7 +57813,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>100.36084049999999</v>
+      </c>
+      <c r="B216">
+        <v>20</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>35</v>
+      </c>
       <c r="I216">
         <v>126.3917241</v>
       </c>
@@ -54848,7 +57845,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>194.29438490000001</v>
+      </c>
+      <c r="B217">
+        <v>20</v>
+      </c>
+      <c r="C217">
+        <v>16</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>40</v>
+      </c>
       <c r="I217">
         <v>142.46820700000001</v>
       </c>
@@ -54865,7 +57877,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>132.8641078</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>45</v>
+      </c>
       <c r="I218">
         <v>140.5620184</v>
       </c>
@@ -54882,7 +57909,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>201.8937349</v>
+      </c>
+      <c r="B219">
+        <v>22</v>
+      </c>
+      <c r="C219">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219">
+        <v>50</v>
+      </c>
       <c r="I219">
         <v>216.5775682</v>
       </c>
@@ -54899,7 +57941,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>141.36172339999999</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>55</v>
+      </c>
       <c r="I220">
         <v>180.4090181</v>
       </c>
@@ -54916,7 +57973,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>194.0031161</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>60</v>
+      </c>
       <c r="I221">
         <v>198.53240049999999</v>
       </c>
@@ -54933,7 +58005,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>160.22312489999999</v>
+      </c>
+      <c r="B222">
+        <v>20</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>65</v>
+      </c>
       <c r="I222">
         <v>195.91156190000001</v>
       </c>
@@ -54950,7 +58037,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>272.57169270000003</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>9</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>70</v>
+      </c>
       <c r="I223">
         <v>270.4010791</v>
       </c>
@@ -54967,7 +58069,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>574.55778710000004</v>
+      </c>
+      <c r="B224">
+        <v>20</v>
+      </c>
+      <c r="C224">
+        <v>34</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>75</v>
+      </c>
       <c r="I224">
         <v>290.73241100000001</v>
       </c>
@@ -54984,7 +58101,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>254.9029668</v>
+      </c>
+      <c r="B225">
+        <v>20</v>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>80</v>
+      </c>
       <c r="I225">
         <v>432.23427129999999</v>
       </c>
@@ -55001,7 +58133,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>253.42962600000001</v>
+      </c>
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226">
+        <v>85</v>
+      </c>
       <c r="I226">
         <v>218.81952089999999</v>
       </c>
@@ -55018,7 +58165,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>360.51452360000002</v>
+      </c>
+      <c r="B227">
+        <v>20</v>
+      </c>
+      <c r="C227">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>90</v>
+      </c>
       <c r="I227">
         <v>305.329004</v>
       </c>
@@ -55035,7 +58197,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>312.82051460000002</v>
+      </c>
+      <c r="B228">
+        <v>20</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>95</v>
+      </c>
       <c r="I228">
         <v>323.21919380000003</v>
       </c>
@@ -55052,7 +58229,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>296.33819319999998</v>
+      </c>
+      <c r="B229">
+        <v>20</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>100</v>
+      </c>
       <c r="I229">
         <v>380.42706620000001</v>
       </c>
@@ -55069,13 +58261,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <f>MIN(A210:A229)</f>
+        <v>15.5865592</v>
+      </c>
       <c r="I230">
         <f>MIN(I210:I229)</f>
         <v>17.210635799999999</v>
       </c>
     </row>
-    <row r="234" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
       <c r="I234" t="s">
         <v>0</v>
       </c>
@@ -55092,7 +58303,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>91.802745900000005</v>
+      </c>
+      <c r="B235" s="4">
+        <v>20</v>
+      </c>
+      <c r="C235" s="4">
+        <v>7</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="4">
+        <v>30</v>
+      </c>
       <c r="I235" s="4">
         <v>215.14647729999999</v>
       </c>
@@ -55109,7 +58335,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>75.076505900000001</v>
+      </c>
+      <c r="B236" s="4">
+        <v>20</v>
+      </c>
+      <c r="C236" s="4">
+        <v>6</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="4">
+        <v>20</v>
+      </c>
       <c r="I236" s="4">
         <v>42.900100700000003</v>
       </c>
@@ -55126,7 +58367,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>131.81750529999999</v>
+      </c>
+      <c r="B237" s="4">
+        <v>18</v>
+      </c>
+      <c r="C237" s="4">
+        <v>17</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="4">
+        <v>20</v>
+      </c>
       <c r="I237" s="4">
         <v>154.5836644</v>
       </c>
@@ -55143,7 +58399,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>86.709649200000001</v>
+      </c>
+      <c r="B238" s="4">
+        <v>20</v>
+      </c>
+      <c r="C238" s="4">
+        <v>7</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="4">
+        <v>35</v>
+      </c>
       <c r="I238" s="4">
         <v>115.0003433</v>
       </c>
@@ -55160,7 +58431,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>111.68779019999999</v>
+      </c>
+      <c r="B239" s="4">
+        <v>18</v>
+      </c>
+      <c r="C239" s="4">
+        <v>12</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="4">
+        <v>30</v>
+      </c>
       <c r="I239" s="4">
         <v>72.256601700000004</v>
       </c>
@@ -55177,7 +58463,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>22.364193</v>
+      </c>
+      <c r="B240" s="4">
+        <v>20</v>
+      </c>
+      <c r="C240" s="4">
+        <v>5</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" s="4">
+        <v>10</v>
+      </c>
       <c r="I240" s="4">
         <v>82.923031499999993</v>
       </c>
@@ -55194,7 +58495,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>102.3772508</v>
+      </c>
+      <c r="B241" s="4">
+        <v>18</v>
+      </c>
+      <c r="C241" s="4">
+        <v>8</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="4">
+        <v>30</v>
+      </c>
       <c r="I241" s="4">
         <v>280.57103710000001</v>
       </c>
@@ -55211,7 +58527,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>28.540152800000001</v>
+      </c>
+      <c r="B242" s="4">
+        <v>20</v>
+      </c>
+      <c r="C242" s="4">
+        <v>7</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="4">
+        <v>10</v>
+      </c>
       <c r="I242" s="4">
         <v>152.0595711</v>
       </c>
@@ -55228,7 +58559,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>65.802387199999998</v>
+      </c>
+      <c r="B243" s="4">
+        <v>18</v>
+      </c>
+      <c r="C243" s="4">
+        <v>8</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="4">
+        <v>20</v>
+      </c>
       <c r="I243" s="4">
         <v>229.66371950000001</v>
       </c>
@@ -55245,7 +58591,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>87.306984700000001</v>
+      </c>
+      <c r="B244">
+        <v>20</v>
+      </c>
+      <c r="C244">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>30</v>
+      </c>
       <c r="I244" s="4">
         <v>100.93706640000001</v>
       </c>
@@ -55262,7 +58623,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E245" cm="1">
+        <f t="array" ref="E245">_xlfn.MODE.MULT(E235:E244)</f>
+        <v>30</v>
+      </c>
       <c r="M245" cm="1">
         <f t="array" ref="M245">_xlfn.MODE.MULT(M235:M244)</f>
         <v>30</v>

--- a/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
+++ b/Daniela Baldizón/Planificación y Evasión/Resultados/Barrido de parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela Baldizon\Documents\GitHub\Inteligencia-Computacional-y-Robotica-Swarm-2021\Daniela Baldizón\Planificación y Evasión\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1FBDDF-1954-4828-AAC7-5A6CCB846DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA675A58-A5A2-480A-87DA-D0EE1D3BEACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="5" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="1" xr2:uid="{CBE6E50C-1D79-49FF-91C0-3842D112C57C}"/>
   </bookViews>
   <sheets>
     <sheet name="Rho" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="26">
   <si>
     <t>'tiempo'</t>
   </si>
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,17 +188,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255314A8-3D59-4682-A128-1F9225A027EB}">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A281" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,6 +3823,2986 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="94" spans="15:19" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>120.7532715</v>
+      </c>
+      <c r="B102">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>155.1548573</v>
+      </c>
+      <c r="B103">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>124.91568580000001</v>
+      </c>
+      <c r="B104">
+        <v>17.313708498984798</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>70.033200399999998</v>
+      </c>
+      <c r="B105" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C105" s="2">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>86.156926799999994</v>
+      </c>
+      <c r="B106">
+        <v>15.656854249492399</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106.7978935</v>
+      </c>
+      <c r="B107">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>89.8641018</v>
+      </c>
+      <c r="B108">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>96.182107999999999</v>
+      </c>
+      <c r="B109">
+        <v>17.313708498984798</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>70.733059900000001</v>
+      </c>
+      <c r="B110">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <f>MIN(B102:B110)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>125.8758308</v>
+      </c>
+      <c r="B114">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113.5434082</v>
+      </c>
+      <c r="B115">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>109.1806093</v>
+      </c>
+      <c r="B116" s="4">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C116" s="4">
+        <v>7</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>103.3602552</v>
+      </c>
+      <c r="B117">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>118.2788099</v>
+      </c>
+      <c r="B118">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>72.591349500000007</v>
+      </c>
+      <c r="B119">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>74.460609500000004</v>
+      </c>
+      <c r="B120">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>71.126280899999998</v>
+      </c>
+      <c r="B121" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C121" s="2">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>149.41754299999999</v>
+      </c>
+      <c r="B122">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f>MIN(A114:A122)</f>
+        <v>71.126280899999998</v>
+      </c>
+      <c r="B123">
+        <f>MIN(B114:B122)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>93.085567400000002</v>
+      </c>
+      <c r="B126">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>156.52050779999999</v>
+      </c>
+      <c r="B127">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>94.427819600000007</v>
+      </c>
+      <c r="B128">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>88.366459199999994</v>
+      </c>
+      <c r="B129">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>66.563468999999998</v>
+      </c>
+      <c r="B130" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C130" s="2">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>119.8520796</v>
+      </c>
+      <c r="B131">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>81.092277300000006</v>
+      </c>
+      <c r="B132">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>74.056313799999998</v>
+      </c>
+      <c r="B133">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>126.5480866</v>
+      </c>
+      <c r="B134">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f>MIN(A126:A134)</f>
+        <v>66.563468999999998</v>
+      </c>
+      <c r="B135">
+        <f>MIN(B126:B134)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>155.8416603</v>
+      </c>
+      <c r="B138">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C138">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>156.00312589999999</v>
+      </c>
+      <c r="B139">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>59.328505999999997</v>
+      </c>
+      <c r="B140" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C140" s="2">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>79.5628411</v>
+      </c>
+      <c r="B141">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>132.3325293</v>
+      </c>
+      <c r="B142">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>120.4099021</v>
+      </c>
+      <c r="B143">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>98.051034799999996</v>
+      </c>
+      <c r="B144">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>91.085621799999998</v>
+      </c>
+      <c r="B145">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>88.713294500000003</v>
+      </c>
+      <c r="B146">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f>MIN(A138:A146)</f>
+        <v>59.328505999999997</v>
+      </c>
+      <c r="B147">
+        <f>MIN(B138:B146)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>70.119006499999998</v>
+      </c>
+      <c r="B150">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>135.07741250000001</v>
+      </c>
+      <c r="B151">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>113.6740384</v>
+      </c>
+      <c r="B152">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>102.91774270000001</v>
+      </c>
+      <c r="B153">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>79.231412899999995</v>
+      </c>
+      <c r="B154">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>79.960510499999998</v>
+      </c>
+      <c r="B155">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>71.732855499999999</v>
+      </c>
+      <c r="B156">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>107.63144610000001</v>
+      </c>
+      <c r="B157">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>64.507204000000002</v>
+      </c>
+      <c r="B158" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f>MIN(A150:A158)</f>
+        <v>64.507204000000002</v>
+      </c>
+      <c r="B159">
+        <f>MIN(B150:B158)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>90.485997800000007</v>
+      </c>
+      <c r="B162">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>126.627971</v>
+      </c>
+      <c r="B163">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>106.3886771</v>
+      </c>
+      <c r="B164">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>122.9526254</v>
+      </c>
+      <c r="B165">
+        <v>15.656854249492399</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>74.160972599999994</v>
+      </c>
+      <c r="B166">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>103.4064176</v>
+      </c>
+      <c r="B167">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C167">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>71.689166200000003</v>
+      </c>
+      <c r="B168" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C168" s="2">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>93.089239800000001</v>
+      </c>
+      <c r="B169">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>108.9344797</v>
+      </c>
+      <c r="B170">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f>MIN(A162:A170)</f>
+        <v>71.689166200000003</v>
+      </c>
+      <c r="B171">
+        <f>MIN(B162:B170)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>105.5755395</v>
+      </c>
+      <c r="B174">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>138.80365280000001</v>
+      </c>
+      <c r="B175">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>84.778112500000006</v>
+      </c>
+      <c r="B176">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>129.53834029999999</v>
+      </c>
+      <c r="B177">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C177">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>148.33329280000001</v>
+      </c>
+      <c r="B178">
+        <v>15.656854249492399</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>74.107228599999999</v>
+      </c>
+      <c r="B179">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>80.132661999999996</v>
+      </c>
+      <c r="B180">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>74.691165699999999</v>
+      </c>
+      <c r="B181">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>77.659248899999994</v>
+      </c>
+      <c r="B182" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C182" s="2">
+        <v>6</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f>MIN(A174:A182)</f>
+        <v>74.107228599999999</v>
+      </c>
+      <c r="B183">
+        <f>MIN(B174:B182)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>172.2123091</v>
+      </c>
+      <c r="B186">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C186">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>122.1959957</v>
+      </c>
+      <c r="B187">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>119.21597989999999</v>
+      </c>
+      <c r="B188">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>139.79241200000001</v>
+      </c>
+      <c r="B189">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>77.5837109</v>
+      </c>
+      <c r="B190" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C190" s="2">
+        <v>6</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>81.811934899999997</v>
+      </c>
+      <c r="B191">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>84.222079300000004</v>
+      </c>
+      <c r="B192">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>103.76819709999999</v>
+      </c>
+      <c r="B193">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C193">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>73.146942800000005</v>
+      </c>
+      <c r="B194">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f>MIN(A186:A194)</f>
+        <v>73.146942800000005</v>
+      </c>
+      <c r="B195">
+        <f>MIN(B186:B194)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>78.2251598</v>
+      </c>
+      <c r="B198">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>140.68992119999999</v>
+      </c>
+      <c r="B199">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C199">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>76.42877</v>
+      </c>
+      <c r="B200">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>82.771996700000003</v>
+      </c>
+      <c r="B201">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>103.3977178</v>
+      </c>
+      <c r="B202">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>72.629344000000003</v>
+      </c>
+      <c r="B203">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>78.086207599999994</v>
+      </c>
+      <c r="B204">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>122.1445366</v>
+      </c>
+      <c r="B205">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>58.741461000000001</v>
+      </c>
+      <c r="B206" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C206" s="2">
+        <v>5</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <f>MIN(A198:A206)</f>
+        <v>58.741461000000001</v>
+      </c>
+      <c r="B207">
+        <f>MIN(B198:B206)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>175.8209133</v>
+      </c>
+      <c r="B210">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C210">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>146.6871203</v>
+      </c>
+      <c r="B211">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C211">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>123.8357216</v>
+      </c>
+      <c r="B212">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C212">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>141.1092305</v>
+      </c>
+      <c r="B213">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C213">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>86.473074199999999</v>
+      </c>
+      <c r="B214" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C214" s="2">
+        <v>7</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>77.121445600000001</v>
+      </c>
+      <c r="B215">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>75.509018800000007</v>
+      </c>
+      <c r="B216">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>102.0121092</v>
+      </c>
+      <c r="B217">
+        <v>16.727922061357901</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>80.590297000000007</v>
+      </c>
+      <c r="B218">
+        <v>16.727922061357901</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <f>MIN(A210:A218)</f>
+        <v>75.509018800000007</v>
+      </c>
+      <c r="B219">
+        <f>MIN(B210:B218)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>196.80392749999999</v>
+      </c>
+      <c r="B222">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C222">
+        <v>18</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>82.432969200000002</v>
+      </c>
+      <c r="B223">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C223">
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>105.3603375</v>
+      </c>
+      <c r="B224">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C224">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>133.3637626</v>
+      </c>
+      <c r="B225">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C225">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>101.5394824</v>
+      </c>
+      <c r="B226">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C226">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>85.005701799999997</v>
+      </c>
+      <c r="B227">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>69.9625439</v>
+      </c>
+      <c r="B228" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C228" s="2">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>77.782871799999995</v>
+      </c>
+      <c r="B229">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>89.450780199999997</v>
+      </c>
+      <c r="B230">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <f>MIN(A222:A230)</f>
+        <v>69.9625439</v>
+      </c>
+      <c r="B231">
+        <f>MIN(B222:B230)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>127.9947141</v>
+      </c>
+      <c r="B234">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C234">
+        <v>14</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>95.048136799999995</v>
+      </c>
+      <c r="B235">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>107.40237449999999</v>
+      </c>
+      <c r="B236">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C236">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>81.012570999999994</v>
+      </c>
+      <c r="B237" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C237" s="2">
+        <v>7</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>84.714439999999996</v>
+      </c>
+      <c r="B238">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>127.25642240000001</v>
+      </c>
+      <c r="B239">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>112.57814190000001</v>
+      </c>
+      <c r="B240">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>83.293820100000005</v>
+      </c>
+      <c r="B241">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>92.699853300000001</v>
+      </c>
+      <c r="B242">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <f>MIN(A234:A242)</f>
+        <v>81.012570999999994</v>
+      </c>
+      <c r="B243">
+        <f>MIN(B234:B242)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>100.9193053</v>
+      </c>
+      <c r="B246">
+        <v>15.656854249492399</v>
+      </c>
+      <c r="C246">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>129.56119240000001</v>
+      </c>
+      <c r="B247">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>61.492964600000001</v>
+      </c>
+      <c r="B248">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>85.864813799999993</v>
+      </c>
+      <c r="B249" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C249" s="2">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>66.563177300000007</v>
+      </c>
+      <c r="B250">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C250">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>101.2911546</v>
+      </c>
+      <c r="B251">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>87.558785099999994</v>
+      </c>
+      <c r="B252">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>90.443447500000005</v>
+      </c>
+      <c r="B253">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>90.841722500000003</v>
+      </c>
+      <c r="B254">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <f>MIN(A246:A254)</f>
+        <v>61.492964600000001</v>
+      </c>
+      <c r="B255">
+        <f>MIN(B246:B254)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>172.4833984</v>
+      </c>
+      <c r="B258">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C258">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>131.93030970000001</v>
+      </c>
+      <c r="B259">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C259">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>107.8626416</v>
+      </c>
+      <c r="B260">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>96.907087799999999</v>
+      </c>
+      <c r="B261">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>59.8020438</v>
+      </c>
+      <c r="B262" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C262" s="2">
+        <v>5</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>95.236694099999994</v>
+      </c>
+      <c r="B263">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>69.262070100000003</v>
+      </c>
+      <c r="B264">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>73.989830600000005</v>
+      </c>
+      <c r="B265">
+        <v>15.899494936611701</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>76.627013500000004</v>
+      </c>
+      <c r="B266">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <f>MIN(A258:A266)</f>
+        <v>59.8020438</v>
+      </c>
+      <c r="B267">
+        <f>MIN(B258:B266)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>126.5607024</v>
+      </c>
+      <c r="B270">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>120.3174288</v>
+      </c>
+      <c r="B271">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C271">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>70.506619099999995</v>
+      </c>
+      <c r="B272">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C272">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>79.842078400000005</v>
+      </c>
+      <c r="B273" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C273" s="2">
+        <v>6</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>93.401097800000002</v>
+      </c>
+      <c r="B274">
+        <v>15.0710678118655</v>
+      </c>
+      <c r="C274">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>75.525345700000003</v>
+      </c>
+      <c r="B275">
+        <v>16.727922061357901</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>99.274509300000005</v>
+      </c>
+      <c r="B276">
+        <v>16.4852813742386</v>
+      </c>
+      <c r="C276">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>81.380455299999994</v>
+      </c>
+      <c r="B277" s="4">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C277" s="4">
+        <v>7</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>87.128548499999994</v>
+      </c>
+      <c r="B278">
+        <v>15.3137084989848</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <f>MIN(A270:A278)</f>
+        <v>70.506619099999995</v>
+      </c>
+      <c r="B279">
+        <f>MIN(B270:B278)</f>
+        <v>14.4852813742386</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>3</v>
+      </c>
+      <c r="E284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>70.033200399999998</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C285" s="2">
+        <v>6</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>71.126280899999998</v>
+      </c>
+      <c r="B286" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C286" s="2">
+        <v>6</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>66.563468999999998</v>
+      </c>
+      <c r="B287" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C287" s="2">
+        <v>6</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>59.328505999999997</v>
+      </c>
+      <c r="B288" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C288" s="2">
+        <v>5</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E288" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>64.507204000000002</v>
+      </c>
+      <c r="B289" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C289" s="2">
+        <v>5</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>71.689166200000003</v>
+      </c>
+      <c r="B290" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C290" s="2">
+        <v>5</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>77.659248899999994</v>
+      </c>
+      <c r="B291" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C291" s="2">
+        <v>6</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>77.5837109</v>
+      </c>
+      <c r="B292" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C292" s="2">
+        <v>6</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>58.741461000000001</v>
+      </c>
+      <c r="B293" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C293" s="2">
+        <v>5</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>86.473074199999999</v>
+      </c>
+      <c r="B294" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C294" s="2">
+        <v>7</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>69.9625439</v>
+      </c>
+      <c r="B295" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C295" s="2">
+        <v>6</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>81.012570999999994</v>
+      </c>
+      <c r="B296" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C296" s="2">
+        <v>7</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>85.864813799999993</v>
+      </c>
+      <c r="B297" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C297" s="2">
+        <v>10</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>59.8020438</v>
+      </c>
+      <c r="B298" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C298" s="2">
+        <v>5</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>79.842078400000005</v>
+      </c>
+      <c r="B299" s="2">
+        <v>14.4852813742386</v>
+      </c>
+      <c r="C299" s="2">
+        <v>6</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E300" cm="1">
+        <f t="array" ref="E300:E301">_xlfn.MODE.MULT(E285:E299)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3820,10 +6810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C871BFD-3713-49F6-9813-4107D7A00E44}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7288,6 +10278,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7298,7 +10289,7 @@
   <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222:E231"/>
+      <selection activeCell="F222" sqref="F222:F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13365,6 +16356,9 @@
       <c r="E222" s="4">
         <v>0.5</v>
       </c>
+      <c r="F222" s="4">
+        <v>1</v>
+      </c>
       <c r="H222">
         <v>1</v>
       </c>
@@ -13399,6 +16393,9 @@
       </c>
       <c r="E223" s="4">
         <v>1</v>
+      </c>
+      <c r="F223" s="4">
+        <v>2</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -51437,7 +54434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34208D-02A8-40DE-B1A2-7B1A3CC77E5D}">
   <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="M249" sqref="M249"/>
     </sheetView>
   </sheetViews>
